--- a/Hoàng/2025/BIDV QUẢNG NAM/DANH MỤC BIDV QUẢNG NAM - điều chỉnh DM FINAL.xlsx
+++ b/Hoàng/2025/BIDV QUẢNG NAM/DANH MỤC BIDV QUẢNG NAM - điều chỉnh DM FINAL.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA-TN\Hoàng\2025\BIDV QUẢNG NAM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DATA-TN\Hoàng\2025\BIDV QUẢNG NAM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E75B777-6D7F-45AC-A8FB-68125EB91F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4371C727-88F7-4A16-BD0E-07AF6F74C4BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TN" sheetId="3" r:id="rId1"/>
-    <sheet name="BẢNG CHỌN" sheetId="8" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId3"/>
+    <sheet name="FIX NĂM SINH" sheetId="11" r:id="rId1"/>
+    <sheet name="TN" sheetId="3" r:id="rId2"/>
+    <sheet name="BẢNG CHỌN" sheetId="8" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'BẢNG CHỌN'!$A$3:$DV$84</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TN!$A$1:$F$233</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">TN!$32:$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'BẢNG CHỌN'!$A$3:$DV$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'FIX NĂM SINH'!$A$3:$E$84</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">TN!$A$1:$F$233</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">TN!$32:$32</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -76,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2530" uniqueCount="738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3028" uniqueCount="747">
   <si>
     <t>Ghi chú</t>
   </si>
@@ -2040,9 +2041,6 @@
     <t>Nội soi mũi Xoang</t>
   </si>
   <si>
-    <t>NÊN CHỌN</t>
-  </si>
-  <si>
     <t xml:space="preserve">X </t>
   </si>
   <si>
@@ -2317,6 +2315,36 @@
   </si>
   <si>
     <t>ko bắt máy, ĐIỀU CHỈNH HDL THÀNH LDL</t>
+  </si>
+  <si>
+    <t>BỎ NỘI SOI</t>
+  </si>
+  <si>
+    <t>XUẤT HOÁ ĐƠN NGOÀI ĐỊNH MỨC</t>
+  </si>
+  <si>
+    <t>GỘP SPK</t>
+  </si>
+  <si>
+    <t>Họ và tên</t>
+  </si>
+  <si>
+    <t>Giới tính</t>
+  </si>
+  <si>
+    <t>Năm sinh</t>
+  </si>
+  <si>
+    <t>Mức phí khám</t>
+  </si>
+  <si>
+    <t>ĐÃ XUẤT HOÁ ĐƠN 1.968.000 đồng (NỘI SOI)</t>
+  </si>
+  <si>
+    <t>XUẤT HOÁ ĐƠN LẺ PHẦN VƯỢT HẠN MỨC</t>
+  </si>
+  <si>
+    <t>XUẤT HOÁ ĐƠN LẺ PHẦN NỘI SOI DẠ DÀY</t>
   </si>
 </sst>
 </file>
@@ -2324,15 +2352,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2352,7 +2380,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2481,7 +2509,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2523,12 +2551,19 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2580,6 +2615,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2951,12 +2998,12 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="268">
+  <cellXfs count="298">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3481,6 +3528,97 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="25" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="14" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3688,26 +3826,11 @@
     <xf numFmtId="0" fontId="23" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3717,7 +3840,18 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -4134,6 +4268,3310 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B055FB2-5D00-4C5D-963C-AB2BB514D8C4}">
+  <dimension ref="A1:N84"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="5" ySplit="3" topLeftCell="F13" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K1" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.42578125" style="129" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="129" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" style="129" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.42578125" style="140" customWidth="1"/>
+    <col min="6" max="8" width="9.140625" style="15"/>
+    <col min="9" max="9" width="30.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="9.140625" style="15"/>
+    <col min="13" max="13" width="11.85546875" style="213" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="224" t="s">
+        <v>260</v>
+      </c>
+      <c r="B1" s="225" t="s">
+        <v>654</v>
+      </c>
+      <c r="C1" s="224" t="s">
+        <v>421</v>
+      </c>
+      <c r="D1" s="224" t="s">
+        <v>422</v>
+      </c>
+      <c r="E1" s="225" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="129" customFormat="1" ht="195.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="224"/>
+      <c r="B2" s="226"/>
+      <c r="C2" s="224"/>
+      <c r="D2" s="224"/>
+      <c r="E2" s="226"/>
+      <c r="M2" s="214"/>
+    </row>
+    <row r="3" spans="1:14" s="136" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="149" t="s">
+        <v>430</v>
+      </c>
+      <c r="B3" s="149"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="H3" s="216" t="s">
+        <v>260</v>
+      </c>
+      <c r="I3" s="216" t="s">
+        <v>740</v>
+      </c>
+      <c r="J3" s="216" t="s">
+        <v>742</v>
+      </c>
+      <c r="K3" s="216" t="s">
+        <v>741</v>
+      </c>
+      <c r="L3" s="217" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="217" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="136" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="153">
+        <v>1</v>
+      </c>
+      <c r="B4" s="153" t="s">
+        <v>655</v>
+      </c>
+      <c r="C4" s="154" t="s">
+        <v>614</v>
+      </c>
+      <c r="D4" s="153" t="s">
+        <v>437</v>
+      </c>
+      <c r="E4" s="153">
+        <v>1972</v>
+      </c>
+      <c r="H4" s="218">
+        <v>1</v>
+      </c>
+      <c r="I4" s="219" t="s">
+        <v>431</v>
+      </c>
+      <c r="J4" s="219">
+        <f>VLOOKUP(I4,$C$4:$E$83,3,0)</f>
+        <v>1983</v>
+      </c>
+      <c r="K4" s="218" t="s">
+        <v>432</v>
+      </c>
+      <c r="L4" s="220" t="s">
+        <v>433</v>
+      </c>
+      <c r="M4" s="221">
+        <v>2000000</v>
+      </c>
+      <c r="N4" s="136" t="str">
+        <f>TRIM(I4)</f>
+        <v>Phạm Minh Tri</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="136" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="211">
+        <v>2</v>
+      </c>
+      <c r="B5" s="153" t="s">
+        <v>656</v>
+      </c>
+      <c r="C5" s="210" t="s">
+        <v>431</v>
+      </c>
+      <c r="D5" s="153" t="s">
+        <v>432</v>
+      </c>
+      <c r="E5" s="153">
+        <v>1983</v>
+      </c>
+      <c r="H5" s="218">
+        <v>2</v>
+      </c>
+      <c r="I5" s="219" t="s">
+        <v>434</v>
+      </c>
+      <c r="J5" s="219">
+        <f t="shared" ref="J5:J68" si="0">VLOOKUP(I5,$C$4:$E$83,3,0)</f>
+        <v>1979</v>
+      </c>
+      <c r="K5" s="218" t="s">
+        <v>432</v>
+      </c>
+      <c r="L5" s="220" t="s">
+        <v>433</v>
+      </c>
+      <c r="M5" s="221">
+        <v>2000000</v>
+      </c>
+      <c r="N5" s="136" t="str">
+        <f t="shared" ref="N5:N68" si="1">TRIM(I5)</f>
+        <v>Đặng Bảo Trí</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="167" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="153">
+        <v>3</v>
+      </c>
+      <c r="B6" s="153" t="s">
+        <v>657</v>
+      </c>
+      <c r="C6" s="163" t="s">
+        <v>434</v>
+      </c>
+      <c r="D6" s="153" t="s">
+        <v>432</v>
+      </c>
+      <c r="E6" s="153">
+        <v>1979</v>
+      </c>
+      <c r="H6" s="218">
+        <v>3</v>
+      </c>
+      <c r="I6" s="219" t="s">
+        <v>614</v>
+      </c>
+      <c r="J6" s="219">
+        <f t="shared" si="0"/>
+        <v>1972</v>
+      </c>
+      <c r="K6" s="218" t="s">
+        <v>437</v>
+      </c>
+      <c r="L6" s="220" t="s">
+        <v>433</v>
+      </c>
+      <c r="M6" s="221">
+        <v>3500000</v>
+      </c>
+      <c r="N6" s="136" t="str">
+        <f t="shared" si="1"/>
+        <v>Nguyễn Thị Thu Tâm</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="136" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="153">
+        <v>4</v>
+      </c>
+      <c r="B7" s="153" t="s">
+        <v>658</v>
+      </c>
+      <c r="C7" s="163" t="s">
+        <v>435</v>
+      </c>
+      <c r="D7" s="153" t="s">
+        <v>432</v>
+      </c>
+      <c r="E7" s="153">
+        <v>1979</v>
+      </c>
+      <c r="H7" s="218">
+        <v>4</v>
+      </c>
+      <c r="I7" s="219" t="s">
+        <v>435</v>
+      </c>
+      <c r="J7" s="219">
+        <f t="shared" si="0"/>
+        <v>1979</v>
+      </c>
+      <c r="K7" s="218" t="s">
+        <v>432</v>
+      </c>
+      <c r="L7" s="220" t="s">
+        <v>433</v>
+      </c>
+      <c r="M7" s="221">
+        <v>2000000</v>
+      </c>
+      <c r="N7" s="136" t="str">
+        <f t="shared" si="1"/>
+        <v>Nguyễn Bùi Anh Vũ</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="136" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="153">
+        <v>5</v>
+      </c>
+      <c r="B8" s="153" t="s">
+        <v>659</v>
+      </c>
+      <c r="C8" s="163" t="s">
+        <v>436</v>
+      </c>
+      <c r="D8" s="153" t="s">
+        <v>437</v>
+      </c>
+      <c r="E8" s="153">
+        <v>1987</v>
+      </c>
+      <c r="H8" s="218">
+        <v>5</v>
+      </c>
+      <c r="I8" s="219" t="s">
+        <v>436</v>
+      </c>
+      <c r="J8" s="219">
+        <f t="shared" si="0"/>
+        <v>1987</v>
+      </c>
+      <c r="K8" s="218" t="s">
+        <v>437</v>
+      </c>
+      <c r="L8" s="220" t="s">
+        <v>433</v>
+      </c>
+      <c r="M8" s="221">
+        <v>3500000</v>
+      </c>
+      <c r="N8" s="136" t="str">
+        <f t="shared" si="1"/>
+        <v>Phùng Thị Thu Thảo</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="136" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="153">
+        <v>6</v>
+      </c>
+      <c r="B9" s="153" t="s">
+        <v>660</v>
+      </c>
+      <c r="C9" s="163" t="s">
+        <v>438</v>
+      </c>
+      <c r="D9" s="153" t="s">
+        <v>432</v>
+      </c>
+      <c r="E9" s="153">
+        <v>1990</v>
+      </c>
+      <c r="H9" s="218">
+        <v>6</v>
+      </c>
+      <c r="I9" s="219" t="s">
+        <v>438</v>
+      </c>
+      <c r="J9" s="219">
+        <f t="shared" si="0"/>
+        <v>1990</v>
+      </c>
+      <c r="K9" s="218" t="s">
+        <v>432</v>
+      </c>
+      <c r="L9" s="220" t="s">
+        <v>433</v>
+      </c>
+      <c r="M9" s="221">
+        <v>2000000</v>
+      </c>
+      <c r="N9" s="136" t="str">
+        <f t="shared" si="1"/>
+        <v>Võ Nhất Định</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="153">
+        <v>7</v>
+      </c>
+      <c r="B10" s="153" t="s">
+        <v>661</v>
+      </c>
+      <c r="C10" s="163" t="s">
+        <v>439</v>
+      </c>
+      <c r="D10" s="153" t="s">
+        <v>437</v>
+      </c>
+      <c r="E10" s="153">
+        <v>1987</v>
+      </c>
+      <c r="H10" s="218">
+        <v>7</v>
+      </c>
+      <c r="I10" s="219" t="s">
+        <v>439</v>
+      </c>
+      <c r="J10" s="219">
+        <f t="shared" si="0"/>
+        <v>1987</v>
+      </c>
+      <c r="K10" s="218" t="s">
+        <v>437</v>
+      </c>
+      <c r="L10" s="220" t="s">
+        <v>433</v>
+      </c>
+      <c r="M10" s="221">
+        <v>3500000</v>
+      </c>
+      <c r="N10" s="136" t="str">
+        <f t="shared" si="1"/>
+        <v>Nguyễn Thị Thanh Hằng</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="136" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="211">
+        <v>8</v>
+      </c>
+      <c r="B11" s="153" t="s">
+        <v>662</v>
+      </c>
+      <c r="C11" s="210" t="s">
+        <v>440</v>
+      </c>
+      <c r="D11" s="153" t="s">
+        <v>437</v>
+      </c>
+      <c r="E11" s="153">
+        <v>1985</v>
+      </c>
+      <c r="H11" s="218">
+        <v>8</v>
+      </c>
+      <c r="I11" s="219" t="s">
+        <v>440</v>
+      </c>
+      <c r="J11" s="219">
+        <f t="shared" si="0"/>
+        <v>1985</v>
+      </c>
+      <c r="K11" s="218" t="s">
+        <v>437</v>
+      </c>
+      <c r="L11" s="220" t="s">
+        <v>433</v>
+      </c>
+      <c r="M11" s="221">
+        <v>3500000</v>
+      </c>
+      <c r="N11" s="136" t="str">
+        <f t="shared" si="1"/>
+        <v>Nguyễn Thị Trúc Mai</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="153">
+        <v>9</v>
+      </c>
+      <c r="B12" s="153" t="s">
+        <v>663</v>
+      </c>
+      <c r="C12" s="163" t="s">
+        <v>441</v>
+      </c>
+      <c r="D12" s="153" t="s">
+        <v>437</v>
+      </c>
+      <c r="E12" s="153">
+        <v>1985</v>
+      </c>
+      <c r="H12" s="218">
+        <v>9</v>
+      </c>
+      <c r="I12" s="219" t="s">
+        <v>441</v>
+      </c>
+      <c r="J12" s="219">
+        <f t="shared" si="0"/>
+        <v>1985</v>
+      </c>
+      <c r="K12" s="218" t="s">
+        <v>437</v>
+      </c>
+      <c r="L12" s="220" t="s">
+        <v>433</v>
+      </c>
+      <c r="M12" s="221">
+        <v>3500000</v>
+      </c>
+      <c r="N12" s="136" t="str">
+        <f t="shared" si="1"/>
+        <v>Võ Thị Ánh Tuyết</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="153">
+        <v>10</v>
+      </c>
+      <c r="B13" s="153" t="s">
+        <v>664</v>
+      </c>
+      <c r="C13" s="163" t="s">
+        <v>442</v>
+      </c>
+      <c r="D13" s="153" t="s">
+        <v>437</v>
+      </c>
+      <c r="E13" s="153">
+        <v>1997</v>
+      </c>
+      <c r="H13" s="218">
+        <v>10</v>
+      </c>
+      <c r="I13" s="219" t="s">
+        <v>442</v>
+      </c>
+      <c r="J13" s="219">
+        <f t="shared" si="0"/>
+        <v>1997</v>
+      </c>
+      <c r="K13" s="218" t="s">
+        <v>437</v>
+      </c>
+      <c r="L13" s="220" t="s">
+        <v>433</v>
+      </c>
+      <c r="M13" s="221">
+        <v>3500000</v>
+      </c>
+      <c r="N13" s="136" t="str">
+        <f t="shared" si="1"/>
+        <v>Phạm Thị Pha Lê</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="153">
+        <v>11</v>
+      </c>
+      <c r="B14" s="153" t="s">
+        <v>665</v>
+      </c>
+      <c r="C14" s="163" t="s">
+        <v>443</v>
+      </c>
+      <c r="D14" s="153" t="s">
+        <v>437</v>
+      </c>
+      <c r="E14" s="153">
+        <v>1982</v>
+      </c>
+      <c r="H14" s="218">
+        <v>11</v>
+      </c>
+      <c r="I14" s="219" t="s">
+        <v>443</v>
+      </c>
+      <c r="J14" s="219">
+        <f t="shared" si="0"/>
+        <v>1982</v>
+      </c>
+      <c r="K14" s="218" t="s">
+        <v>437</v>
+      </c>
+      <c r="L14" s="220" t="s">
+        <v>433</v>
+      </c>
+      <c r="M14" s="221">
+        <v>3500000</v>
+      </c>
+      <c r="N14" s="136" t="str">
+        <f t="shared" si="1"/>
+        <v>Trần Thị Hiền Lương</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="136" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="211">
+        <v>12</v>
+      </c>
+      <c r="B15" s="153" t="s">
+        <v>666</v>
+      </c>
+      <c r="C15" s="210" t="s">
+        <v>444</v>
+      </c>
+      <c r="D15" s="153" t="s">
+        <v>437</v>
+      </c>
+      <c r="E15" s="153">
+        <v>1989</v>
+      </c>
+      <c r="H15" s="218">
+        <v>12</v>
+      </c>
+      <c r="I15" s="219" t="s">
+        <v>444</v>
+      </c>
+      <c r="J15" s="219">
+        <f t="shared" si="0"/>
+        <v>1989</v>
+      </c>
+      <c r="K15" s="218" t="s">
+        <v>437</v>
+      </c>
+      <c r="L15" s="220" t="s">
+        <v>433</v>
+      </c>
+      <c r="M15" s="221">
+        <v>3500000</v>
+      </c>
+      <c r="N15" s="136" t="str">
+        <f t="shared" si="1"/>
+        <v>Nguyễn Thị Mỹ Diễm</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="153">
+        <v>13</v>
+      </c>
+      <c r="B16" s="153" t="s">
+        <v>667</v>
+      </c>
+      <c r="C16" s="163" t="s">
+        <v>445</v>
+      </c>
+      <c r="D16" s="153" t="s">
+        <v>437</v>
+      </c>
+      <c r="E16" s="153">
+        <v>1989</v>
+      </c>
+      <c r="H16" s="218">
+        <v>13</v>
+      </c>
+      <c r="I16" s="219" t="s">
+        <v>445</v>
+      </c>
+      <c r="J16" s="219">
+        <f t="shared" si="0"/>
+        <v>1989</v>
+      </c>
+      <c r="K16" s="218" t="s">
+        <v>437</v>
+      </c>
+      <c r="L16" s="220" t="s">
+        <v>433</v>
+      </c>
+      <c r="M16" s="221">
+        <v>3500000</v>
+      </c>
+      <c r="N16" s="136" t="str">
+        <f t="shared" si="1"/>
+        <v>Nguyễn Quỳnh Giang</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="136" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="153">
+        <v>14</v>
+      </c>
+      <c r="B17" s="153" t="s">
+        <v>668</v>
+      </c>
+      <c r="C17" s="163" t="s">
+        <v>446</v>
+      </c>
+      <c r="D17" s="153" t="s">
+        <v>432</v>
+      </c>
+      <c r="E17" s="153">
+        <v>1992</v>
+      </c>
+      <c r="H17" s="218">
+        <v>14</v>
+      </c>
+      <c r="I17" s="219" t="s">
+        <v>446</v>
+      </c>
+      <c r="J17" s="219">
+        <f t="shared" si="0"/>
+        <v>1992</v>
+      </c>
+      <c r="K17" s="218" t="s">
+        <v>432</v>
+      </c>
+      <c r="L17" s="220" t="s">
+        <v>433</v>
+      </c>
+      <c r="M17" s="221">
+        <v>2000000</v>
+      </c>
+      <c r="N17" s="136" t="str">
+        <f t="shared" si="1"/>
+        <v>Hồ Xuân Khôi</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="203" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="192">
+        <v>15</v>
+      </c>
+      <c r="B18" s="192" t="s">
+        <v>669</v>
+      </c>
+      <c r="C18" s="193" t="s">
+        <v>447</v>
+      </c>
+      <c r="D18" s="192" t="s">
+        <v>437</v>
+      </c>
+      <c r="E18" s="192">
+        <v>1986</v>
+      </c>
+      <c r="H18" s="218">
+        <v>15</v>
+      </c>
+      <c r="I18" s="219" t="s">
+        <v>447</v>
+      </c>
+      <c r="J18" s="219">
+        <f t="shared" si="0"/>
+        <v>1986</v>
+      </c>
+      <c r="K18" s="218" t="s">
+        <v>437</v>
+      </c>
+      <c r="L18" s="220" t="s">
+        <v>433</v>
+      </c>
+      <c r="M18" s="221">
+        <v>3500000</v>
+      </c>
+      <c r="N18" s="136" t="str">
+        <f t="shared" si="1"/>
+        <v>Nguyễn Thị Phương Uyên</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="153">
+        <v>16</v>
+      </c>
+      <c r="B19" s="153" t="s">
+        <v>670</v>
+      </c>
+      <c r="C19" s="163" t="s">
+        <v>448</v>
+      </c>
+      <c r="D19" s="153" t="s">
+        <v>437</v>
+      </c>
+      <c r="E19" s="153">
+        <v>2000</v>
+      </c>
+      <c r="H19" s="218">
+        <v>16</v>
+      </c>
+      <c r="I19" s="219" t="s">
+        <v>448</v>
+      </c>
+      <c r="J19" s="219">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="K19" s="218" t="s">
+        <v>437</v>
+      </c>
+      <c r="L19" s="220" t="s">
+        <v>433</v>
+      </c>
+      <c r="M19" s="221">
+        <v>3500000</v>
+      </c>
+      <c r="N19" s="136" t="str">
+        <f t="shared" si="1"/>
+        <v>Trần Bích Anh</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="153">
+        <v>17</v>
+      </c>
+      <c r="B20" s="153" t="s">
+        <v>671</v>
+      </c>
+      <c r="C20" s="163" t="s">
+        <v>449</v>
+      </c>
+      <c r="D20" s="153" t="s">
+        <v>432</v>
+      </c>
+      <c r="E20" s="153">
+        <v>1992</v>
+      </c>
+      <c r="H20" s="218">
+        <v>17</v>
+      </c>
+      <c r="I20" s="219" t="s">
+        <v>449</v>
+      </c>
+      <c r="J20" s="219">
+        <f t="shared" si="0"/>
+        <v>1992</v>
+      </c>
+      <c r="K20" s="218" t="s">
+        <v>432</v>
+      </c>
+      <c r="L20" s="220" t="s">
+        <v>433</v>
+      </c>
+      <c r="M20" s="221">
+        <v>2000000</v>
+      </c>
+      <c r="N20" s="136" t="str">
+        <f t="shared" si="1"/>
+        <v>Đinh Thái Nguyên</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="153">
+        <v>18</v>
+      </c>
+      <c r="B21" s="153" t="s">
+        <v>672</v>
+      </c>
+      <c r="C21" s="163" t="s">
+        <v>450</v>
+      </c>
+      <c r="D21" s="153" t="s">
+        <v>432</v>
+      </c>
+      <c r="E21" s="153">
+        <v>1990</v>
+      </c>
+      <c r="H21" s="218">
+        <v>18</v>
+      </c>
+      <c r="I21" s="219" t="s">
+        <v>450</v>
+      </c>
+      <c r="J21" s="219">
+        <f t="shared" si="0"/>
+        <v>1990</v>
+      </c>
+      <c r="K21" s="218" t="s">
+        <v>432</v>
+      </c>
+      <c r="L21" s="220" t="s">
+        <v>433</v>
+      </c>
+      <c r="M21" s="221">
+        <v>2000000</v>
+      </c>
+      <c r="N21" s="136" t="str">
+        <f t="shared" si="1"/>
+        <v>Trần Vũ Nguyên</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="153">
+        <v>19</v>
+      </c>
+      <c r="B22" s="153" t="s">
+        <v>673</v>
+      </c>
+      <c r="C22" s="163" t="s">
+        <v>451</v>
+      </c>
+      <c r="D22" s="153" t="s">
+        <v>432</v>
+      </c>
+      <c r="E22" s="153">
+        <v>1986</v>
+      </c>
+      <c r="H22" s="218">
+        <v>19</v>
+      </c>
+      <c r="I22" s="219" t="s">
+        <v>451</v>
+      </c>
+      <c r="J22" s="219">
+        <f t="shared" si="0"/>
+        <v>1986</v>
+      </c>
+      <c r="K22" s="218" t="s">
+        <v>432</v>
+      </c>
+      <c r="L22" s="220" t="s">
+        <v>433</v>
+      </c>
+      <c r="M22" s="221">
+        <v>2000000</v>
+      </c>
+      <c r="N22" s="136" t="str">
+        <f t="shared" si="1"/>
+        <v>Trần Đức Phú</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="203" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="192">
+        <v>20</v>
+      </c>
+      <c r="B23" s="192" t="s">
+        <v>674</v>
+      </c>
+      <c r="C23" s="193" t="s">
+        <v>452</v>
+      </c>
+      <c r="D23" s="192" t="s">
+        <v>437</v>
+      </c>
+      <c r="E23" s="192">
+        <v>1982</v>
+      </c>
+      <c r="H23" s="218">
+        <v>20</v>
+      </c>
+      <c r="I23" s="219" t="s">
+        <v>452</v>
+      </c>
+      <c r="J23" s="219">
+        <f t="shared" si="0"/>
+        <v>1982</v>
+      </c>
+      <c r="K23" s="218" t="s">
+        <v>437</v>
+      </c>
+      <c r="L23" s="220" t="s">
+        <v>433</v>
+      </c>
+      <c r="M23" s="221">
+        <v>3500000</v>
+      </c>
+      <c r="N23" s="136" t="str">
+        <f t="shared" si="1"/>
+        <v>Huỳnh Thị Thu Hương</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="153">
+        <v>21</v>
+      </c>
+      <c r="B24" s="153" t="s">
+        <v>675</v>
+      </c>
+      <c r="C24" s="163" t="s">
+        <v>453</v>
+      </c>
+      <c r="D24" s="153" t="s">
+        <v>432</v>
+      </c>
+      <c r="E24" s="153">
+        <v>1985</v>
+      </c>
+      <c r="H24" s="218">
+        <v>21</v>
+      </c>
+      <c r="I24" s="219" t="s">
+        <v>453</v>
+      </c>
+      <c r="J24" s="219">
+        <f t="shared" si="0"/>
+        <v>1985</v>
+      </c>
+      <c r="K24" s="218" t="s">
+        <v>432</v>
+      </c>
+      <c r="L24" s="220" t="s">
+        <v>433</v>
+      </c>
+      <c r="M24" s="221">
+        <v>2000000</v>
+      </c>
+      <c r="N24" s="136" t="str">
+        <f t="shared" si="1"/>
+        <v>Trần Văn Vinh</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="153">
+        <v>22</v>
+      </c>
+      <c r="B25" s="153" t="s">
+        <v>676</v>
+      </c>
+      <c r="C25" s="163" t="s">
+        <v>454</v>
+      </c>
+      <c r="D25" s="153" t="s">
+        <v>432</v>
+      </c>
+      <c r="E25" s="153">
+        <v>1981</v>
+      </c>
+      <c r="H25" s="218">
+        <v>22</v>
+      </c>
+      <c r="I25" s="219" t="s">
+        <v>454</v>
+      </c>
+      <c r="J25" s="219">
+        <f t="shared" si="0"/>
+        <v>1981</v>
+      </c>
+      <c r="K25" s="218" t="s">
+        <v>432</v>
+      </c>
+      <c r="L25" s="220" t="s">
+        <v>433</v>
+      </c>
+      <c r="M25" s="221">
+        <v>2000000</v>
+      </c>
+      <c r="N25" s="136" t="str">
+        <f t="shared" si="1"/>
+        <v>Thiều Đức Khoan</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="153">
+        <v>23</v>
+      </c>
+      <c r="B26" s="153" t="s">
+        <v>677</v>
+      </c>
+      <c r="C26" s="163" t="s">
+        <v>455</v>
+      </c>
+      <c r="D26" s="153" t="s">
+        <v>437</v>
+      </c>
+      <c r="E26" s="153">
+        <v>1987</v>
+      </c>
+      <c r="H26" s="218">
+        <v>23</v>
+      </c>
+      <c r="I26" s="219" t="s">
+        <v>455</v>
+      </c>
+      <c r="J26" s="219">
+        <f t="shared" si="0"/>
+        <v>1987</v>
+      </c>
+      <c r="K26" s="218" t="s">
+        <v>437</v>
+      </c>
+      <c r="L26" s="220" t="s">
+        <v>433</v>
+      </c>
+      <c r="M26" s="221">
+        <v>3500000</v>
+      </c>
+      <c r="N26" s="136" t="str">
+        <f t="shared" si="1"/>
+        <v>Nguyễn Thị Diệu Thảo</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="153">
+        <v>24</v>
+      </c>
+      <c r="B27" s="153" t="s">
+        <v>678</v>
+      </c>
+      <c r="C27" s="163" t="s">
+        <v>456</v>
+      </c>
+      <c r="D27" s="153" t="s">
+        <v>432</v>
+      </c>
+      <c r="E27" s="153">
+        <v>1990</v>
+      </c>
+      <c r="H27" s="218">
+        <v>24</v>
+      </c>
+      <c r="I27" s="219" t="s">
+        <v>456</v>
+      </c>
+      <c r="J27" s="219">
+        <f t="shared" si="0"/>
+        <v>1990</v>
+      </c>
+      <c r="K27" s="218" t="s">
+        <v>432</v>
+      </c>
+      <c r="L27" s="220" t="s">
+        <v>433</v>
+      </c>
+      <c r="M27" s="221">
+        <v>2000000</v>
+      </c>
+      <c r="N27" s="136" t="str">
+        <f t="shared" si="1"/>
+        <v>Võ Anh Mỹ</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="153">
+        <v>25</v>
+      </c>
+      <c r="B28" s="153" t="s">
+        <v>679</v>
+      </c>
+      <c r="C28" s="163" t="s">
+        <v>457</v>
+      </c>
+      <c r="D28" s="153" t="s">
+        <v>437</v>
+      </c>
+      <c r="E28" s="153">
+        <v>1988</v>
+      </c>
+      <c r="H28" s="218">
+        <v>25</v>
+      </c>
+      <c r="I28" s="219" t="s">
+        <v>457</v>
+      </c>
+      <c r="J28" s="219">
+        <f t="shared" si="0"/>
+        <v>1988</v>
+      </c>
+      <c r="K28" s="218" t="s">
+        <v>437</v>
+      </c>
+      <c r="L28" s="220" t="s">
+        <v>433</v>
+      </c>
+      <c r="M28" s="221">
+        <v>3500000</v>
+      </c>
+      <c r="N28" s="136" t="str">
+        <f t="shared" si="1"/>
+        <v>Huỳnh Thị Thu Trang</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="153">
+        <v>26</v>
+      </c>
+      <c r="B29" s="153" t="s">
+        <v>680</v>
+      </c>
+      <c r="C29" s="163" t="s">
+        <v>458</v>
+      </c>
+      <c r="D29" s="153" t="s">
+        <v>432</v>
+      </c>
+      <c r="E29" s="153">
+        <v>1987</v>
+      </c>
+      <c r="H29" s="218">
+        <v>26</v>
+      </c>
+      <c r="I29" s="219" t="s">
+        <v>458</v>
+      </c>
+      <c r="J29" s="219">
+        <f t="shared" si="0"/>
+        <v>1987</v>
+      </c>
+      <c r="K29" s="218" t="s">
+        <v>432</v>
+      </c>
+      <c r="L29" s="220" t="s">
+        <v>433</v>
+      </c>
+      <c r="M29" s="221">
+        <v>2000000</v>
+      </c>
+      <c r="N29" s="136" t="str">
+        <f t="shared" si="1"/>
+        <v>Phạm Ngọc Đức</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="153">
+        <v>27</v>
+      </c>
+      <c r="B30" s="153" t="s">
+        <v>681</v>
+      </c>
+      <c r="C30" s="163" t="s">
+        <v>459</v>
+      </c>
+      <c r="D30" s="153" t="s">
+        <v>437</v>
+      </c>
+      <c r="E30" s="153">
+        <v>1991</v>
+      </c>
+      <c r="H30" s="218">
+        <v>27</v>
+      </c>
+      <c r="I30" s="219" t="s">
+        <v>459</v>
+      </c>
+      <c r="J30" s="219">
+        <f t="shared" si="0"/>
+        <v>1991</v>
+      </c>
+      <c r="K30" s="218" t="s">
+        <v>437</v>
+      </c>
+      <c r="L30" s="220" t="s">
+        <v>433</v>
+      </c>
+      <c r="M30" s="221">
+        <v>3500000</v>
+      </c>
+      <c r="N30" s="136" t="str">
+        <f t="shared" si="1"/>
+        <v>Nguyễn Thị Ngọc Tuyền</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="153">
+        <v>28</v>
+      </c>
+      <c r="B31" s="153" t="s">
+        <v>682</v>
+      </c>
+      <c r="C31" s="163" t="s">
+        <v>460</v>
+      </c>
+      <c r="D31" s="153" t="s">
+        <v>437</v>
+      </c>
+      <c r="E31" s="153">
+        <v>2001</v>
+      </c>
+      <c r="H31" s="218">
+        <v>28</v>
+      </c>
+      <c r="I31" s="219" t="s">
+        <v>460</v>
+      </c>
+      <c r="J31" s="219">
+        <f t="shared" si="0"/>
+        <v>2001</v>
+      </c>
+      <c r="K31" s="218" t="s">
+        <v>437</v>
+      </c>
+      <c r="L31" s="220" t="s">
+        <v>433</v>
+      </c>
+      <c r="M31" s="221">
+        <v>3500000</v>
+      </c>
+      <c r="N31" s="136" t="str">
+        <f t="shared" si="1"/>
+        <v>Ngô Thị Tú Thơ</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="153">
+        <v>29</v>
+      </c>
+      <c r="B32" s="153" t="s">
+        <v>683</v>
+      </c>
+      <c r="C32" s="163" t="s">
+        <v>461</v>
+      </c>
+      <c r="D32" s="153" t="s">
+        <v>437</v>
+      </c>
+      <c r="E32" s="153">
+        <v>1990</v>
+      </c>
+      <c r="H32" s="218">
+        <v>29</v>
+      </c>
+      <c r="I32" s="219" t="s">
+        <v>461</v>
+      </c>
+      <c r="J32" s="219">
+        <f t="shared" si="0"/>
+        <v>1990</v>
+      </c>
+      <c r="K32" s="218" t="s">
+        <v>437</v>
+      </c>
+      <c r="L32" s="220" t="s">
+        <v>433</v>
+      </c>
+      <c r="M32" s="221">
+        <v>3500000</v>
+      </c>
+      <c r="N32" s="136" t="str">
+        <f t="shared" si="1"/>
+        <v>Phạm Thị Kim Liên</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="153">
+        <v>30</v>
+      </c>
+      <c r="B33" s="153" t="s">
+        <v>684</v>
+      </c>
+      <c r="C33" s="163" t="s">
+        <v>462</v>
+      </c>
+      <c r="D33" s="153" t="s">
+        <v>437</v>
+      </c>
+      <c r="E33" s="153">
+        <v>1986</v>
+      </c>
+      <c r="H33" s="218">
+        <v>30</v>
+      </c>
+      <c r="I33" s="219" t="s">
+        <v>462</v>
+      </c>
+      <c r="J33" s="219">
+        <f t="shared" si="0"/>
+        <v>1986</v>
+      </c>
+      <c r="K33" s="218" t="s">
+        <v>437</v>
+      </c>
+      <c r="L33" s="220" t="s">
+        <v>433</v>
+      </c>
+      <c r="M33" s="221">
+        <v>3500000</v>
+      </c>
+      <c r="N33" s="136" t="str">
+        <f t="shared" si="1"/>
+        <v>Trần Thị Nguyên Ngọc</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="153">
+        <v>31</v>
+      </c>
+      <c r="B34" s="153" t="s">
+        <v>685</v>
+      </c>
+      <c r="C34" s="163" t="s">
+        <v>463</v>
+      </c>
+      <c r="D34" s="153" t="s">
+        <v>437</v>
+      </c>
+      <c r="E34" s="153">
+        <v>1989</v>
+      </c>
+      <c r="H34" s="218">
+        <v>31</v>
+      </c>
+      <c r="I34" s="219" t="s">
+        <v>463</v>
+      </c>
+      <c r="J34" s="219">
+        <f t="shared" si="0"/>
+        <v>1989</v>
+      </c>
+      <c r="K34" s="218" t="s">
+        <v>437</v>
+      </c>
+      <c r="L34" s="220" t="s">
+        <v>433</v>
+      </c>
+      <c r="M34" s="221">
+        <v>3500000</v>
+      </c>
+      <c r="N34" s="136" t="str">
+        <f t="shared" si="1"/>
+        <v>Mai Thị Yến My</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="153">
+        <v>32</v>
+      </c>
+      <c r="B35" s="153" t="s">
+        <v>686</v>
+      </c>
+      <c r="C35" s="163" t="s">
+        <v>464</v>
+      </c>
+      <c r="D35" s="153" t="s">
+        <v>437</v>
+      </c>
+      <c r="E35" s="153">
+        <v>1991</v>
+      </c>
+      <c r="H35" s="218">
+        <v>32</v>
+      </c>
+      <c r="I35" s="219" t="s">
+        <v>464</v>
+      </c>
+      <c r="J35" s="219">
+        <f t="shared" si="0"/>
+        <v>1991</v>
+      </c>
+      <c r="K35" s="218" t="s">
+        <v>437</v>
+      </c>
+      <c r="L35" s="220" t="s">
+        <v>433</v>
+      </c>
+      <c r="M35" s="221">
+        <v>3500000</v>
+      </c>
+      <c r="N35" s="136" t="str">
+        <f t="shared" si="1"/>
+        <v>Huỳnh Trần Thị Thanh Yên</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="153">
+        <v>33</v>
+      </c>
+      <c r="B36" s="153" t="s">
+        <v>687</v>
+      </c>
+      <c r="C36" s="163" t="s">
+        <v>465</v>
+      </c>
+      <c r="D36" s="153" t="s">
+        <v>437</v>
+      </c>
+      <c r="E36" s="153">
+        <v>1990</v>
+      </c>
+      <c r="H36" s="218">
+        <v>33</v>
+      </c>
+      <c r="I36" s="219" t="s">
+        <v>465</v>
+      </c>
+      <c r="J36" s="219">
+        <f t="shared" si="0"/>
+        <v>1990</v>
+      </c>
+      <c r="K36" s="218" t="s">
+        <v>437</v>
+      </c>
+      <c r="L36" s="220" t="s">
+        <v>433</v>
+      </c>
+      <c r="M36" s="221">
+        <v>3500000</v>
+      </c>
+      <c r="N36" s="136" t="str">
+        <f t="shared" si="1"/>
+        <v>Nguyễn Thị Phụng</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="153">
+        <v>34</v>
+      </c>
+      <c r="B37" s="153" t="s">
+        <v>688</v>
+      </c>
+      <c r="C37" s="163" t="s">
+        <v>466</v>
+      </c>
+      <c r="D37" s="153" t="s">
+        <v>437</v>
+      </c>
+      <c r="E37" s="153">
+        <v>1999</v>
+      </c>
+      <c r="H37" s="218">
+        <v>34</v>
+      </c>
+      <c r="I37" s="219" t="s">
+        <v>466</v>
+      </c>
+      <c r="J37" s="219">
+        <f t="shared" si="0"/>
+        <v>1999</v>
+      </c>
+      <c r="K37" s="218" t="s">
+        <v>437</v>
+      </c>
+      <c r="L37" s="220" t="s">
+        <v>433</v>
+      </c>
+      <c r="M37" s="221">
+        <v>3500000</v>
+      </c>
+      <c r="N37" s="136" t="str">
+        <f t="shared" si="1"/>
+        <v>Ngô Lin Đan</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="153">
+        <v>35</v>
+      </c>
+      <c r="B38" s="153" t="s">
+        <v>689</v>
+      </c>
+      <c r="C38" s="163" t="s">
+        <v>467</v>
+      </c>
+      <c r="D38" s="153" t="s">
+        <v>432</v>
+      </c>
+      <c r="E38" s="153">
+        <v>1978</v>
+      </c>
+      <c r="H38" s="218">
+        <v>35</v>
+      </c>
+      <c r="I38" s="219" t="s">
+        <v>467</v>
+      </c>
+      <c r="J38" s="219">
+        <f t="shared" si="0"/>
+        <v>1978</v>
+      </c>
+      <c r="K38" s="218" t="s">
+        <v>432</v>
+      </c>
+      <c r="L38" s="220" t="s">
+        <v>433</v>
+      </c>
+      <c r="M38" s="221">
+        <v>2000000</v>
+      </c>
+      <c r="N38" s="136" t="str">
+        <f t="shared" si="1"/>
+        <v>Huỳnh Minh Khương</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="153">
+        <v>36</v>
+      </c>
+      <c r="B39" s="153" t="s">
+        <v>690</v>
+      </c>
+      <c r="C39" s="163" t="s">
+        <v>468</v>
+      </c>
+      <c r="D39" s="153" t="s">
+        <v>437</v>
+      </c>
+      <c r="E39" s="153">
+        <v>1982</v>
+      </c>
+      <c r="H39" s="218">
+        <v>36</v>
+      </c>
+      <c r="I39" s="219" t="s">
+        <v>468</v>
+      </c>
+      <c r="J39" s="219">
+        <f t="shared" si="0"/>
+        <v>1982</v>
+      </c>
+      <c r="K39" s="218" t="s">
+        <v>437</v>
+      </c>
+      <c r="L39" s="220" t="s">
+        <v>433</v>
+      </c>
+      <c r="M39" s="221">
+        <v>3500000</v>
+      </c>
+      <c r="N39" s="136" t="str">
+        <f t="shared" si="1"/>
+        <v>Nguyễn Thị Thái Hiền</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="153">
+        <v>37</v>
+      </c>
+      <c r="B40" s="153" t="s">
+        <v>691</v>
+      </c>
+      <c r="C40" s="163" t="s">
+        <v>469</v>
+      </c>
+      <c r="D40" s="153" t="s">
+        <v>437</v>
+      </c>
+      <c r="E40" s="153">
+        <v>1994</v>
+      </c>
+      <c r="H40" s="218">
+        <v>37</v>
+      </c>
+      <c r="I40" s="219" t="s">
+        <v>469</v>
+      </c>
+      <c r="J40" s="219">
+        <f t="shared" si="0"/>
+        <v>1994</v>
+      </c>
+      <c r="K40" s="218" t="s">
+        <v>437</v>
+      </c>
+      <c r="L40" s="220" t="s">
+        <v>433</v>
+      </c>
+      <c r="M40" s="221">
+        <v>3500000</v>
+      </c>
+      <c r="N40" s="136" t="str">
+        <f t="shared" si="1"/>
+        <v>Hoàng Phương Thảo</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="153">
+        <v>38</v>
+      </c>
+      <c r="B41" s="153" t="s">
+        <v>692</v>
+      </c>
+      <c r="C41" s="163" t="s">
+        <v>470</v>
+      </c>
+      <c r="D41" s="153" t="s">
+        <v>432</v>
+      </c>
+      <c r="E41" s="153">
+        <v>1994</v>
+      </c>
+      <c r="H41" s="218">
+        <v>38</v>
+      </c>
+      <c r="I41" s="219" t="s">
+        <v>470</v>
+      </c>
+      <c r="J41" s="219">
+        <f t="shared" si="0"/>
+        <v>1994</v>
+      </c>
+      <c r="K41" s="218" t="s">
+        <v>432</v>
+      </c>
+      <c r="L41" s="220" t="s">
+        <v>433</v>
+      </c>
+      <c r="M41" s="221">
+        <v>2000000</v>
+      </c>
+      <c r="N41" s="136" t="str">
+        <f t="shared" si="1"/>
+        <v>Huỳnh Thế Thuận Hiếu</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="153">
+        <v>39</v>
+      </c>
+      <c r="B42" s="153" t="s">
+        <v>693</v>
+      </c>
+      <c r="C42" s="163" t="s">
+        <v>471</v>
+      </c>
+      <c r="D42" s="153" t="s">
+        <v>437</v>
+      </c>
+      <c r="E42" s="153">
+        <v>1996</v>
+      </c>
+      <c r="H42" s="218">
+        <v>39</v>
+      </c>
+      <c r="I42" s="219" t="s">
+        <v>471</v>
+      </c>
+      <c r="J42" s="219">
+        <f t="shared" si="0"/>
+        <v>1996</v>
+      </c>
+      <c r="K42" s="218" t="s">
+        <v>437</v>
+      </c>
+      <c r="L42" s="220" t="s">
+        <v>433</v>
+      </c>
+      <c r="M42" s="221">
+        <v>3500000</v>
+      </c>
+      <c r="N42" s="136" t="str">
+        <f t="shared" si="1"/>
+        <v>Huỳnh Thị Tố Trinh</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" s="136" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="153">
+        <v>40</v>
+      </c>
+      <c r="B43" s="153" t="s">
+        <v>694</v>
+      </c>
+      <c r="C43" s="163" t="s">
+        <v>472</v>
+      </c>
+      <c r="D43" s="153" t="s">
+        <v>432</v>
+      </c>
+      <c r="E43" s="153">
+        <v>1989</v>
+      </c>
+      <c r="H43" s="218">
+        <v>40</v>
+      </c>
+      <c r="I43" s="219" t="s">
+        <v>472</v>
+      </c>
+      <c r="J43" s="219">
+        <f t="shared" si="0"/>
+        <v>1989</v>
+      </c>
+      <c r="K43" s="218" t="s">
+        <v>432</v>
+      </c>
+      <c r="L43" s="220" t="s">
+        <v>433</v>
+      </c>
+      <c r="M43" s="221">
+        <v>2000000</v>
+      </c>
+      <c r="N43" s="136" t="str">
+        <f t="shared" si="1"/>
+        <v>Bùi Duy Công</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="153">
+        <v>41</v>
+      </c>
+      <c r="B44" s="153" t="s">
+        <v>695</v>
+      </c>
+      <c r="C44" s="163" t="s">
+        <v>473</v>
+      </c>
+      <c r="D44" s="153" t="s">
+        <v>437</v>
+      </c>
+      <c r="E44" s="153">
+        <v>1987</v>
+      </c>
+      <c r="H44" s="218">
+        <v>41</v>
+      </c>
+      <c r="I44" s="219" t="s">
+        <v>473</v>
+      </c>
+      <c r="J44" s="219">
+        <f t="shared" si="0"/>
+        <v>1987</v>
+      </c>
+      <c r="K44" s="218" t="s">
+        <v>437</v>
+      </c>
+      <c r="L44" s="220" t="s">
+        <v>433</v>
+      </c>
+      <c r="M44" s="221">
+        <v>3500000</v>
+      </c>
+      <c r="N44" s="136" t="str">
+        <f t="shared" si="1"/>
+        <v>Hoàng Thị Mỹ Diệu</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="153">
+        <v>42</v>
+      </c>
+      <c r="B45" s="153" t="s">
+        <v>696</v>
+      </c>
+      <c r="C45" s="163" t="s">
+        <v>474</v>
+      </c>
+      <c r="D45" s="153" t="s">
+        <v>432</v>
+      </c>
+      <c r="E45" s="153">
+        <v>1993</v>
+      </c>
+      <c r="H45" s="218">
+        <v>42</v>
+      </c>
+      <c r="I45" s="219" t="s">
+        <v>474</v>
+      </c>
+      <c r="J45" s="219">
+        <f t="shared" si="0"/>
+        <v>1993</v>
+      </c>
+      <c r="K45" s="218" t="s">
+        <v>432</v>
+      </c>
+      <c r="L45" s="220" t="s">
+        <v>433</v>
+      </c>
+      <c r="M45" s="221">
+        <v>2000000</v>
+      </c>
+      <c r="N45" s="136" t="str">
+        <f t="shared" si="1"/>
+        <v>Huỳnh Nhứt Nam</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="153">
+        <v>43</v>
+      </c>
+      <c r="B46" s="153" t="s">
+        <v>697</v>
+      </c>
+      <c r="C46" s="163" t="s">
+        <v>475</v>
+      </c>
+      <c r="D46" s="153" t="s">
+        <v>432</v>
+      </c>
+      <c r="E46" s="153">
+        <v>1994</v>
+      </c>
+      <c r="H46" s="218">
+        <v>43</v>
+      </c>
+      <c r="I46" s="219" t="s">
+        <v>475</v>
+      </c>
+      <c r="J46" s="219">
+        <f t="shared" si="0"/>
+        <v>1994</v>
+      </c>
+      <c r="K46" s="218" t="s">
+        <v>432</v>
+      </c>
+      <c r="L46" s="220" t="s">
+        <v>433</v>
+      </c>
+      <c r="M46" s="221">
+        <v>2000000</v>
+      </c>
+      <c r="N46" s="136" t="str">
+        <f t="shared" si="1"/>
+        <v>Nguyễn Thanh Nam</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="153">
+        <v>44</v>
+      </c>
+      <c r="B47" s="153" t="s">
+        <v>698</v>
+      </c>
+      <c r="C47" s="163" t="s">
+        <v>476</v>
+      </c>
+      <c r="D47" s="153" t="s">
+        <v>437</v>
+      </c>
+      <c r="E47" s="153">
+        <v>1996</v>
+      </c>
+      <c r="H47" s="218">
+        <v>44</v>
+      </c>
+      <c r="I47" s="219" t="s">
+        <v>476</v>
+      </c>
+      <c r="J47" s="219">
+        <f t="shared" si="0"/>
+        <v>1996</v>
+      </c>
+      <c r="K47" s="218" t="s">
+        <v>437</v>
+      </c>
+      <c r="L47" s="220" t="s">
+        <v>433</v>
+      </c>
+      <c r="M47" s="221">
+        <v>3500000</v>
+      </c>
+      <c r="N47" s="136" t="str">
+        <f t="shared" si="1"/>
+        <v>Đào Đoàn Hoài Thương</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="153">
+        <v>45</v>
+      </c>
+      <c r="B48" s="153" t="s">
+        <v>699</v>
+      </c>
+      <c r="C48" s="163" t="s">
+        <v>477</v>
+      </c>
+      <c r="D48" s="153" t="s">
+        <v>437</v>
+      </c>
+      <c r="E48" s="153">
+        <v>1979</v>
+      </c>
+      <c r="H48" s="218">
+        <v>45</v>
+      </c>
+      <c r="I48" s="219" t="s">
+        <v>477</v>
+      </c>
+      <c r="J48" s="219">
+        <f t="shared" si="0"/>
+        <v>1979</v>
+      </c>
+      <c r="K48" s="218" t="s">
+        <v>437</v>
+      </c>
+      <c r="L48" s="220" t="s">
+        <v>433</v>
+      </c>
+      <c r="M48" s="221">
+        <v>3500000</v>
+      </c>
+      <c r="N48" s="136" t="str">
+        <f t="shared" si="1"/>
+        <v>Ngô Thị Lan</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" s="203" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="192">
+        <v>46</v>
+      </c>
+      <c r="B49" s="192" t="s">
+        <v>700</v>
+      </c>
+      <c r="C49" s="193" t="s">
+        <v>478</v>
+      </c>
+      <c r="D49" s="192" t="s">
+        <v>437</v>
+      </c>
+      <c r="E49" s="192">
+        <v>1983</v>
+      </c>
+      <c r="H49" s="218">
+        <v>46</v>
+      </c>
+      <c r="I49" s="219" t="s">
+        <v>478</v>
+      </c>
+      <c r="J49" s="219">
+        <f t="shared" si="0"/>
+        <v>1983</v>
+      </c>
+      <c r="K49" s="218" t="s">
+        <v>437</v>
+      </c>
+      <c r="L49" s="220" t="s">
+        <v>433</v>
+      </c>
+      <c r="M49" s="221">
+        <v>3500000</v>
+      </c>
+      <c r="N49" s="136" t="str">
+        <f t="shared" si="1"/>
+        <v>Phan Thị Quý</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="153">
+        <v>47</v>
+      </c>
+      <c r="B50" s="153" t="s">
+        <v>701</v>
+      </c>
+      <c r="C50" s="163" t="s">
+        <v>479</v>
+      </c>
+      <c r="D50" s="153" t="s">
+        <v>437</v>
+      </c>
+      <c r="E50" s="153">
+        <v>1979</v>
+      </c>
+      <c r="H50" s="218">
+        <v>47</v>
+      </c>
+      <c r="I50" s="219" t="s">
+        <v>479</v>
+      </c>
+      <c r="J50" s="219">
+        <f t="shared" si="0"/>
+        <v>1979</v>
+      </c>
+      <c r="K50" s="218" t="s">
+        <v>437</v>
+      </c>
+      <c r="L50" s="220" t="s">
+        <v>433</v>
+      </c>
+      <c r="M50" s="221">
+        <v>3500000</v>
+      </c>
+      <c r="N50" s="136" t="str">
+        <f t="shared" si="1"/>
+        <v>Phạm Thị Hồng Lợi</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="153">
+        <v>48</v>
+      </c>
+      <c r="B51" s="153" t="s">
+        <v>702</v>
+      </c>
+      <c r="C51" s="163" t="s">
+        <v>480</v>
+      </c>
+      <c r="D51" s="153" t="s">
+        <v>437</v>
+      </c>
+      <c r="E51" s="153">
+        <v>1994</v>
+      </c>
+      <c r="H51" s="218">
+        <v>48</v>
+      </c>
+      <c r="I51" s="219" t="s">
+        <v>480</v>
+      </c>
+      <c r="J51" s="219">
+        <f t="shared" si="0"/>
+        <v>1994</v>
+      </c>
+      <c r="K51" s="218" t="s">
+        <v>437</v>
+      </c>
+      <c r="L51" s="220" t="s">
+        <v>433</v>
+      </c>
+      <c r="M51" s="221">
+        <v>3500000</v>
+      </c>
+      <c r="N51" s="136" t="str">
+        <f t="shared" si="1"/>
+        <v>Trần Lê Thuỳ Trang</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="153">
+        <v>49</v>
+      </c>
+      <c r="B52" s="153" t="s">
+        <v>703</v>
+      </c>
+      <c r="C52" s="171" t="s">
+        <v>481</v>
+      </c>
+      <c r="D52" s="173" t="s">
+        <v>432</v>
+      </c>
+      <c r="E52" s="153">
+        <v>1981</v>
+      </c>
+      <c r="H52" s="218">
+        <v>49</v>
+      </c>
+      <c r="I52" s="219" t="s">
+        <v>481</v>
+      </c>
+      <c r="J52" s="219">
+        <f t="shared" si="0"/>
+        <v>1981</v>
+      </c>
+      <c r="K52" s="218" t="s">
+        <v>432</v>
+      </c>
+      <c r="L52" s="220" t="s">
+        <v>433</v>
+      </c>
+      <c r="M52" s="221">
+        <v>2000000</v>
+      </c>
+      <c r="N52" s="136" t="str">
+        <f t="shared" si="1"/>
+        <v>Hoàng Đặng Sơn</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="153">
+        <v>50</v>
+      </c>
+      <c r="B53" s="153" t="s">
+        <v>704</v>
+      </c>
+      <c r="C53" s="163" t="s">
+        <v>482</v>
+      </c>
+      <c r="D53" s="153" t="s">
+        <v>437</v>
+      </c>
+      <c r="E53" s="153">
+        <v>2001</v>
+      </c>
+      <c r="H53" s="218">
+        <v>50</v>
+      </c>
+      <c r="I53" s="219" t="s">
+        <v>482</v>
+      </c>
+      <c r="J53" s="219">
+        <f t="shared" si="0"/>
+        <v>2001</v>
+      </c>
+      <c r="K53" s="218" t="s">
+        <v>437</v>
+      </c>
+      <c r="L53" s="220" t="s">
+        <v>433</v>
+      </c>
+      <c r="M53" s="221">
+        <v>3500000</v>
+      </c>
+      <c r="N53" s="136" t="str">
+        <f t="shared" si="1"/>
+        <v>Nguyễn Ánh Tuyết</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="153">
+        <v>51</v>
+      </c>
+      <c r="B54" s="153" t="s">
+        <v>705</v>
+      </c>
+      <c r="C54" s="163" t="s">
+        <v>483</v>
+      </c>
+      <c r="D54" s="153" t="s">
+        <v>437</v>
+      </c>
+      <c r="E54" s="153">
+        <v>1998</v>
+      </c>
+      <c r="H54" s="218">
+        <v>51</v>
+      </c>
+      <c r="I54" s="219" t="s">
+        <v>483</v>
+      </c>
+      <c r="J54" s="219">
+        <f t="shared" si="0"/>
+        <v>1998</v>
+      </c>
+      <c r="K54" s="218" t="s">
+        <v>437</v>
+      </c>
+      <c r="L54" s="220" t="s">
+        <v>433</v>
+      </c>
+      <c r="M54" s="221">
+        <v>3500000</v>
+      </c>
+      <c r="N54" s="136" t="str">
+        <f t="shared" si="1"/>
+        <v>Phạm Thị Hồng Nhi</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="153">
+        <v>52</v>
+      </c>
+      <c r="B55" s="153" t="s">
+        <v>706</v>
+      </c>
+      <c r="C55" s="185" t="s">
+        <v>484</v>
+      </c>
+      <c r="D55" s="186" t="s">
+        <v>437</v>
+      </c>
+      <c r="E55" s="153">
+        <v>1988</v>
+      </c>
+      <c r="H55" s="218">
+        <v>52</v>
+      </c>
+      <c r="I55" s="219" t="s">
+        <v>484</v>
+      </c>
+      <c r="J55" s="219">
+        <f t="shared" si="0"/>
+        <v>1988</v>
+      </c>
+      <c r="K55" s="218" t="s">
+        <v>437</v>
+      </c>
+      <c r="L55" s="220" t="s">
+        <v>433</v>
+      </c>
+      <c r="M55" s="221">
+        <v>3500000</v>
+      </c>
+      <c r="N55" s="136" t="str">
+        <f t="shared" si="1"/>
+        <v>Phạm Thị Thu Hằng</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="153">
+        <v>53</v>
+      </c>
+      <c r="B56" s="153" t="s">
+        <v>707</v>
+      </c>
+      <c r="C56" s="184" t="s">
+        <v>485</v>
+      </c>
+      <c r="D56" s="183" t="s">
+        <v>437</v>
+      </c>
+      <c r="E56" s="153">
+        <v>1991</v>
+      </c>
+      <c r="H56" s="218">
+        <v>53</v>
+      </c>
+      <c r="I56" s="219" t="s">
+        <v>485</v>
+      </c>
+      <c r="J56" s="219">
+        <f t="shared" si="0"/>
+        <v>1991</v>
+      </c>
+      <c r="K56" s="218" t="s">
+        <v>437</v>
+      </c>
+      <c r="L56" s="220" t="s">
+        <v>433</v>
+      </c>
+      <c r="M56" s="221">
+        <v>3500000</v>
+      </c>
+      <c r="N56" s="136" t="str">
+        <f t="shared" si="1"/>
+        <v>Phạm Thị Tuyết Lê</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="153">
+        <v>54</v>
+      </c>
+      <c r="B57" s="153" t="s">
+        <v>708</v>
+      </c>
+      <c r="C57" s="163" t="s">
+        <v>486</v>
+      </c>
+      <c r="D57" s="153" t="s">
+        <v>437</v>
+      </c>
+      <c r="E57" s="153">
+        <v>1989</v>
+      </c>
+      <c r="H57" s="218">
+        <v>54</v>
+      </c>
+      <c r="I57" s="219" t="s">
+        <v>486</v>
+      </c>
+      <c r="J57" s="219">
+        <f t="shared" si="0"/>
+        <v>1989</v>
+      </c>
+      <c r="K57" s="218" t="s">
+        <v>437</v>
+      </c>
+      <c r="L57" s="220" t="s">
+        <v>433</v>
+      </c>
+      <c r="M57" s="221">
+        <v>3500000</v>
+      </c>
+      <c r="N57" s="136" t="str">
+        <f t="shared" si="1"/>
+        <v>Phạm Thị Tố Trinh</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="153">
+        <v>55</v>
+      </c>
+      <c r="B58" s="153" t="s">
+        <v>709</v>
+      </c>
+      <c r="C58" s="163" t="s">
+        <v>487</v>
+      </c>
+      <c r="D58" s="153" t="s">
+        <v>432</v>
+      </c>
+      <c r="E58" s="153">
+        <v>1969</v>
+      </c>
+      <c r="H58" s="218">
+        <v>55</v>
+      </c>
+      <c r="I58" s="219" t="s">
+        <v>487</v>
+      </c>
+      <c r="J58" s="219">
+        <f t="shared" si="0"/>
+        <v>1969</v>
+      </c>
+      <c r="K58" s="218" t="s">
+        <v>432</v>
+      </c>
+      <c r="L58" s="220" t="s">
+        <v>433</v>
+      </c>
+      <c r="M58" s="221">
+        <v>2000000</v>
+      </c>
+      <c r="N58" s="136" t="str">
+        <f t="shared" si="1"/>
+        <v>Phạm Đức Thành</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="153">
+        <v>56</v>
+      </c>
+      <c r="B59" s="153" t="s">
+        <v>710</v>
+      </c>
+      <c r="C59" s="163" t="s">
+        <v>488</v>
+      </c>
+      <c r="D59" s="153" t="s">
+        <v>432</v>
+      </c>
+      <c r="E59" s="153">
+        <v>1977</v>
+      </c>
+      <c r="H59" s="218">
+        <v>56</v>
+      </c>
+      <c r="I59" s="219" t="s">
+        <v>488</v>
+      </c>
+      <c r="J59" s="219">
+        <f t="shared" si="0"/>
+        <v>1977</v>
+      </c>
+      <c r="K59" s="218" t="s">
+        <v>432</v>
+      </c>
+      <c r="L59" s="220" t="s">
+        <v>433</v>
+      </c>
+      <c r="M59" s="221">
+        <v>2000000</v>
+      </c>
+      <c r="N59" s="136" t="str">
+        <f t="shared" si="1"/>
+        <v>Nguyễn Quốc Hiền</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="153">
+        <v>57</v>
+      </c>
+      <c r="B60" s="153" t="s">
+        <v>711</v>
+      </c>
+      <c r="C60" s="163" t="s">
+        <v>489</v>
+      </c>
+      <c r="D60" s="153" t="s">
+        <v>432</v>
+      </c>
+      <c r="E60" s="153">
+        <v>1977</v>
+      </c>
+      <c r="H60" s="218">
+        <v>57</v>
+      </c>
+      <c r="I60" s="219" t="s">
+        <v>489</v>
+      </c>
+      <c r="J60" s="219">
+        <f t="shared" si="0"/>
+        <v>1977</v>
+      </c>
+      <c r="K60" s="218" t="s">
+        <v>432</v>
+      </c>
+      <c r="L60" s="220" t="s">
+        <v>433</v>
+      </c>
+      <c r="M60" s="221">
+        <v>2000000</v>
+      </c>
+      <c r="N60" s="136" t="str">
+        <f t="shared" si="1"/>
+        <v>Đỗ Văn Quang</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="153">
+        <v>58</v>
+      </c>
+      <c r="B61" s="153" t="s">
+        <v>712</v>
+      </c>
+      <c r="C61" s="163" t="s">
+        <v>490</v>
+      </c>
+      <c r="D61" s="153" t="s">
+        <v>437</v>
+      </c>
+      <c r="E61" s="153">
+        <v>1991</v>
+      </c>
+      <c r="H61" s="218">
+        <v>58</v>
+      </c>
+      <c r="I61" s="219" t="s">
+        <v>490</v>
+      </c>
+      <c r="J61" s="219">
+        <f t="shared" si="0"/>
+        <v>1991</v>
+      </c>
+      <c r="K61" s="218" t="s">
+        <v>437</v>
+      </c>
+      <c r="L61" s="220" t="s">
+        <v>433</v>
+      </c>
+      <c r="M61" s="221">
+        <v>3500000</v>
+      </c>
+      <c r="N61" s="136" t="str">
+        <f t="shared" si="1"/>
+        <v>Nguyễn Kiều Thương</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="153">
+        <v>59</v>
+      </c>
+      <c r="B62" s="153" t="s">
+        <v>713</v>
+      </c>
+      <c r="C62" s="163" t="s">
+        <v>491</v>
+      </c>
+      <c r="D62" s="153" t="s">
+        <v>437</v>
+      </c>
+      <c r="E62" s="153">
+        <v>1993</v>
+      </c>
+      <c r="H62" s="218">
+        <v>59</v>
+      </c>
+      <c r="I62" s="219" t="s">
+        <v>491</v>
+      </c>
+      <c r="J62" s="219">
+        <f t="shared" si="0"/>
+        <v>1993</v>
+      </c>
+      <c r="K62" s="218" t="s">
+        <v>437</v>
+      </c>
+      <c r="L62" s="220" t="s">
+        <v>433</v>
+      </c>
+      <c r="M62" s="221">
+        <v>3500000</v>
+      </c>
+      <c r="N62" s="136" t="str">
+        <f t="shared" si="1"/>
+        <v>Trần Bảo Ngọc</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" s="203" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="192">
+        <v>60</v>
+      </c>
+      <c r="B63" s="192" t="s">
+        <v>714</v>
+      </c>
+      <c r="C63" s="193" t="s">
+        <v>492</v>
+      </c>
+      <c r="D63" s="192" t="s">
+        <v>437</v>
+      </c>
+      <c r="E63" s="192">
+        <v>1997</v>
+      </c>
+      <c r="H63" s="218">
+        <v>60</v>
+      </c>
+      <c r="I63" s="219" t="s">
+        <v>492</v>
+      </c>
+      <c r="J63" s="219">
+        <f t="shared" si="0"/>
+        <v>1997</v>
+      </c>
+      <c r="K63" s="218" t="s">
+        <v>437</v>
+      </c>
+      <c r="L63" s="220" t="s">
+        <v>433</v>
+      </c>
+      <c r="M63" s="221">
+        <v>3500000</v>
+      </c>
+      <c r="N63" s="136" t="str">
+        <f t="shared" si="1"/>
+        <v>Đoàn Thị Nhật Ánh</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="153">
+        <v>61</v>
+      </c>
+      <c r="B64" s="153" t="s">
+        <v>715</v>
+      </c>
+      <c r="C64" s="163" t="s">
+        <v>493</v>
+      </c>
+      <c r="D64" s="153" t="s">
+        <v>437</v>
+      </c>
+      <c r="E64" s="153">
+        <v>1978</v>
+      </c>
+      <c r="H64" s="218">
+        <v>61</v>
+      </c>
+      <c r="I64" s="219" t="s">
+        <v>493</v>
+      </c>
+      <c r="J64" s="219">
+        <f t="shared" si="0"/>
+        <v>1978</v>
+      </c>
+      <c r="K64" s="218" t="s">
+        <v>437</v>
+      </c>
+      <c r="L64" s="220" t="s">
+        <v>433</v>
+      </c>
+      <c r="M64" s="221">
+        <v>3500000</v>
+      </c>
+      <c r="N64" s="136" t="str">
+        <f t="shared" si="1"/>
+        <v>Trần Thị Khánh Vân</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="153">
+        <v>62</v>
+      </c>
+      <c r="B65" s="153" t="s">
+        <v>716</v>
+      </c>
+      <c r="C65" s="163" t="s">
+        <v>494</v>
+      </c>
+      <c r="D65" s="153" t="s">
+        <v>437</v>
+      </c>
+      <c r="E65" s="153">
+        <v>1981</v>
+      </c>
+      <c r="H65" s="218">
+        <v>62</v>
+      </c>
+      <c r="I65" s="219" t="s">
+        <v>494</v>
+      </c>
+      <c r="J65" s="219">
+        <f t="shared" si="0"/>
+        <v>1981</v>
+      </c>
+      <c r="K65" s="218" t="s">
+        <v>437</v>
+      </c>
+      <c r="L65" s="220" t="s">
+        <v>433</v>
+      </c>
+      <c r="M65" s="221">
+        <v>3500000</v>
+      </c>
+      <c r="N65" s="136" t="str">
+        <f t="shared" si="1"/>
+        <v>Phan Thị Hoàng Oanh</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="153">
+        <v>63</v>
+      </c>
+      <c r="B66" s="153" t="s">
+        <v>717</v>
+      </c>
+      <c r="C66" s="163" t="s">
+        <v>495</v>
+      </c>
+      <c r="D66" s="153" t="s">
+        <v>432</v>
+      </c>
+      <c r="E66" s="153">
+        <v>1985</v>
+      </c>
+      <c r="H66" s="218">
+        <v>63</v>
+      </c>
+      <c r="I66" s="219" t="s">
+        <v>495</v>
+      </c>
+      <c r="J66" s="219">
+        <f t="shared" si="0"/>
+        <v>1985</v>
+      </c>
+      <c r="K66" s="218" t="s">
+        <v>432</v>
+      </c>
+      <c r="L66" s="220" t="s">
+        <v>433</v>
+      </c>
+      <c r="M66" s="221">
+        <v>2000000</v>
+      </c>
+      <c r="N66" s="136" t="str">
+        <f t="shared" si="1"/>
+        <v>Trần Lê Quốc Trung</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="153">
+        <v>64</v>
+      </c>
+      <c r="B67" s="153" t="s">
+        <v>718</v>
+      </c>
+      <c r="C67" s="163" t="s">
+        <v>496</v>
+      </c>
+      <c r="D67" s="153" t="s">
+        <v>437</v>
+      </c>
+      <c r="E67" s="153">
+        <v>1986</v>
+      </c>
+      <c r="H67" s="218">
+        <v>64</v>
+      </c>
+      <c r="I67" s="219" t="s">
+        <v>496</v>
+      </c>
+      <c r="J67" s="219">
+        <f t="shared" si="0"/>
+        <v>1986</v>
+      </c>
+      <c r="K67" s="218" t="s">
+        <v>437</v>
+      </c>
+      <c r="L67" s="220" t="s">
+        <v>433</v>
+      </c>
+      <c r="M67" s="221">
+        <v>3500000</v>
+      </c>
+      <c r="N67" s="136" t="str">
+        <f t="shared" si="1"/>
+        <v>Nguyễn Thị Phương Thảo</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="153">
+        <v>65</v>
+      </c>
+      <c r="B68" s="153" t="s">
+        <v>719</v>
+      </c>
+      <c r="C68" s="163" t="s">
+        <v>497</v>
+      </c>
+      <c r="D68" s="153" t="s">
+        <v>432</v>
+      </c>
+      <c r="E68" s="153">
+        <v>1975</v>
+      </c>
+      <c r="H68" s="218">
+        <v>65</v>
+      </c>
+      <c r="I68" s="219" t="s">
+        <v>497</v>
+      </c>
+      <c r="J68" s="219">
+        <f t="shared" si="0"/>
+        <v>1975</v>
+      </c>
+      <c r="K68" s="218" t="s">
+        <v>432</v>
+      </c>
+      <c r="L68" s="220" t="s">
+        <v>433</v>
+      </c>
+      <c r="M68" s="221">
+        <v>2000000</v>
+      </c>
+      <c r="N68" s="136" t="str">
+        <f t="shared" si="1"/>
+        <v>Đoàn Ngọc Vũ</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="153">
+        <v>66</v>
+      </c>
+      <c r="B69" s="153" t="s">
+        <v>720</v>
+      </c>
+      <c r="C69" s="163" t="s">
+        <v>498</v>
+      </c>
+      <c r="D69" s="153" t="s">
+        <v>437</v>
+      </c>
+      <c r="E69" s="153">
+        <v>1978</v>
+      </c>
+      <c r="H69" s="218">
+        <v>66</v>
+      </c>
+      <c r="I69" s="219" t="s">
+        <v>498</v>
+      </c>
+      <c r="J69" s="219">
+        <f t="shared" ref="J69:J83" si="2">VLOOKUP(I69,$C$4:$E$83,3,0)</f>
+        <v>1978</v>
+      </c>
+      <c r="K69" s="218" t="s">
+        <v>437</v>
+      </c>
+      <c r="L69" s="220" t="s">
+        <v>433</v>
+      </c>
+      <c r="M69" s="221">
+        <v>3500000</v>
+      </c>
+      <c r="N69" s="136" t="str">
+        <f t="shared" ref="N69:N83" si="3">TRIM(I69)</f>
+        <v>Huỳnh Thị Hoa</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="153">
+        <v>67</v>
+      </c>
+      <c r="B70" s="153" t="s">
+        <v>721</v>
+      </c>
+      <c r="C70" s="163" t="s">
+        <v>499</v>
+      </c>
+      <c r="D70" s="153" t="s">
+        <v>437</v>
+      </c>
+      <c r="E70" s="153">
+        <v>1977</v>
+      </c>
+      <c r="H70" s="218">
+        <v>67</v>
+      </c>
+      <c r="I70" s="219" t="s">
+        <v>499</v>
+      </c>
+      <c r="J70" s="219">
+        <f t="shared" si="2"/>
+        <v>1977</v>
+      </c>
+      <c r="K70" s="218" t="s">
+        <v>437</v>
+      </c>
+      <c r="L70" s="220" t="s">
+        <v>433</v>
+      </c>
+      <c r="M70" s="221">
+        <v>3500000</v>
+      </c>
+      <c r="N70" s="136" t="str">
+        <f t="shared" si="3"/>
+        <v>Nguyễn Thị Sưa</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="153">
+        <v>68</v>
+      </c>
+      <c r="B71" s="153" t="s">
+        <v>722</v>
+      </c>
+      <c r="C71" s="163" t="s">
+        <v>500</v>
+      </c>
+      <c r="D71" s="153" t="s">
+        <v>432</v>
+      </c>
+      <c r="E71" s="153">
+        <v>1985</v>
+      </c>
+      <c r="H71" s="218">
+        <v>68</v>
+      </c>
+      <c r="I71" s="219" t="s">
+        <v>500</v>
+      </c>
+      <c r="J71" s="219">
+        <f t="shared" si="2"/>
+        <v>1985</v>
+      </c>
+      <c r="K71" s="218" t="s">
+        <v>432</v>
+      </c>
+      <c r="L71" s="220" t="s">
+        <v>433</v>
+      </c>
+      <c r="M71" s="221">
+        <v>2000000</v>
+      </c>
+      <c r="N71" s="136" t="str">
+        <f t="shared" si="3"/>
+        <v>Lê Nguyễn Kim Sơn</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="153">
+        <v>69</v>
+      </c>
+      <c r="B72" s="153" t="s">
+        <v>723</v>
+      </c>
+      <c r="C72" s="163" t="s">
+        <v>501</v>
+      </c>
+      <c r="D72" s="153" t="s">
+        <v>437</v>
+      </c>
+      <c r="E72" s="153">
+        <v>1978</v>
+      </c>
+      <c r="H72" s="218">
+        <v>69</v>
+      </c>
+      <c r="I72" s="219" t="s">
+        <v>501</v>
+      </c>
+      <c r="J72" s="219">
+        <f t="shared" si="2"/>
+        <v>1978</v>
+      </c>
+      <c r="K72" s="218" t="s">
+        <v>437</v>
+      </c>
+      <c r="L72" s="220" t="s">
+        <v>433</v>
+      </c>
+      <c r="M72" s="221">
+        <v>3500000</v>
+      </c>
+      <c r="N72" s="136" t="str">
+        <f t="shared" si="3"/>
+        <v>Nguyễn Thị Kim Đầy</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="153">
+        <v>70</v>
+      </c>
+      <c r="B73" s="153" t="s">
+        <v>724</v>
+      </c>
+      <c r="C73" s="163" t="s">
+        <v>502</v>
+      </c>
+      <c r="D73" s="153" t="s">
+        <v>437</v>
+      </c>
+      <c r="E73" s="153">
+        <v>1977</v>
+      </c>
+      <c r="H73" s="218">
+        <v>70</v>
+      </c>
+      <c r="I73" s="219" t="s">
+        <v>502</v>
+      </c>
+      <c r="J73" s="219">
+        <f t="shared" si="2"/>
+        <v>1977</v>
+      </c>
+      <c r="K73" s="218" t="s">
+        <v>437</v>
+      </c>
+      <c r="L73" s="220" t="s">
+        <v>433</v>
+      </c>
+      <c r="M73" s="221">
+        <v>3500000</v>
+      </c>
+      <c r="N73" s="136" t="str">
+        <f t="shared" si="3"/>
+        <v>Trần Thị Thúy</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="153">
+        <v>71</v>
+      </c>
+      <c r="B74" s="153" t="s">
+        <v>725</v>
+      </c>
+      <c r="C74" s="160" t="s">
+        <v>503</v>
+      </c>
+      <c r="D74" s="153" t="s">
+        <v>437</v>
+      </c>
+      <c r="E74" s="153">
+        <v>1965</v>
+      </c>
+      <c r="H74" s="218">
+        <v>71</v>
+      </c>
+      <c r="I74" s="220" t="s">
+        <v>503</v>
+      </c>
+      <c r="J74" s="219">
+        <f t="shared" si="2"/>
+        <v>1965</v>
+      </c>
+      <c r="K74" s="218" t="s">
+        <v>437</v>
+      </c>
+      <c r="L74" s="220" t="s">
+        <v>504</v>
+      </c>
+      <c r="M74" s="221">
+        <v>2000000</v>
+      </c>
+      <c r="N74" s="136" t="str">
+        <f t="shared" si="3"/>
+        <v>Nguyễn Thị Ngân Liên</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="153">
+        <v>72</v>
+      </c>
+      <c r="B75" s="153" t="s">
+        <v>726</v>
+      </c>
+      <c r="C75" s="160" t="s">
+        <v>505</v>
+      </c>
+      <c r="D75" s="153" t="s">
+        <v>437</v>
+      </c>
+      <c r="E75" s="153">
+        <v>1962</v>
+      </c>
+      <c r="H75" s="218">
+        <v>72</v>
+      </c>
+      <c r="I75" s="220" t="s">
+        <v>505</v>
+      </c>
+      <c r="J75" s="219">
+        <f t="shared" si="2"/>
+        <v>1962</v>
+      </c>
+      <c r="K75" s="218" t="s">
+        <v>437</v>
+      </c>
+      <c r="L75" s="220" t="s">
+        <v>504</v>
+      </c>
+      <c r="M75" s="221">
+        <v>2000000</v>
+      </c>
+      <c r="N75" s="136" t="str">
+        <f t="shared" si="3"/>
+        <v>Nguyễn Thị Kiều Oanh</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="153">
+        <v>73</v>
+      </c>
+      <c r="B76" s="153" t="s">
+        <v>727</v>
+      </c>
+      <c r="C76" s="160" t="s">
+        <v>506</v>
+      </c>
+      <c r="D76" s="153" t="s">
+        <v>437</v>
+      </c>
+      <c r="E76" s="153">
+        <v>1964</v>
+      </c>
+      <c r="H76" s="218">
+        <v>73</v>
+      </c>
+      <c r="I76" s="220" t="s">
+        <v>506</v>
+      </c>
+      <c r="J76" s="219">
+        <f t="shared" si="2"/>
+        <v>1964</v>
+      </c>
+      <c r="K76" s="218" t="s">
+        <v>437</v>
+      </c>
+      <c r="L76" s="220" t="s">
+        <v>504</v>
+      </c>
+      <c r="M76" s="221">
+        <v>2000000</v>
+      </c>
+      <c r="N76" s="136" t="str">
+        <f t="shared" si="3"/>
+        <v>Trần Thị Kim Ngân</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="153">
+        <v>74</v>
+      </c>
+      <c r="B77" s="153" t="s">
+        <v>728</v>
+      </c>
+      <c r="C77" s="160" t="s">
+        <v>507</v>
+      </c>
+      <c r="D77" s="153" t="s">
+        <v>432</v>
+      </c>
+      <c r="E77" s="153">
+        <v>1962</v>
+      </c>
+      <c r="H77" s="218">
+        <v>74</v>
+      </c>
+      <c r="I77" s="220" t="s">
+        <v>507</v>
+      </c>
+      <c r="J77" s="219">
+        <f t="shared" si="2"/>
+        <v>1962</v>
+      </c>
+      <c r="K77" s="218" t="s">
+        <v>432</v>
+      </c>
+      <c r="L77" s="220" t="s">
+        <v>504</v>
+      </c>
+      <c r="M77" s="221">
+        <v>2000000</v>
+      </c>
+      <c r="N77" s="136" t="str">
+        <f t="shared" si="3"/>
+        <v>Phạm Văn Hương</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="153">
+        <v>75</v>
+      </c>
+      <c r="B78" s="153" t="s">
+        <v>729</v>
+      </c>
+      <c r="C78" s="160" t="s">
+        <v>508</v>
+      </c>
+      <c r="D78" s="153" t="s">
+        <v>437</v>
+      </c>
+      <c r="E78" s="153">
+        <v>1962</v>
+      </c>
+      <c r="H78" s="218">
+        <v>75</v>
+      </c>
+      <c r="I78" s="220" t="s">
+        <v>508</v>
+      </c>
+      <c r="J78" s="219">
+        <f t="shared" si="2"/>
+        <v>1962</v>
+      </c>
+      <c r="K78" s="218" t="s">
+        <v>437</v>
+      </c>
+      <c r="L78" s="220" t="s">
+        <v>504</v>
+      </c>
+      <c r="M78" s="221">
+        <v>2000000</v>
+      </c>
+      <c r="N78" s="136" t="str">
+        <f t="shared" si="3"/>
+        <v>Trần Thị Nết</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="153">
+        <v>76</v>
+      </c>
+      <c r="B79" s="153" t="s">
+        <v>730</v>
+      </c>
+      <c r="C79" s="160" t="s">
+        <v>509</v>
+      </c>
+      <c r="D79" s="153" t="s">
+        <v>437</v>
+      </c>
+      <c r="E79" s="153">
+        <v>1957</v>
+      </c>
+      <c r="H79" s="218">
+        <v>76</v>
+      </c>
+      <c r="I79" s="220" t="s">
+        <v>509</v>
+      </c>
+      <c r="J79" s="219">
+        <f t="shared" si="2"/>
+        <v>1957</v>
+      </c>
+      <c r="K79" s="218" t="s">
+        <v>437</v>
+      </c>
+      <c r="L79" s="220" t="s">
+        <v>504</v>
+      </c>
+      <c r="M79" s="221">
+        <v>2000000</v>
+      </c>
+      <c r="N79" s="136" t="str">
+        <f t="shared" si="3"/>
+        <v>Trần Thị Tài</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="153">
+        <v>77</v>
+      </c>
+      <c r="B80" s="153" t="s">
+        <v>731</v>
+      </c>
+      <c r="C80" s="160" t="s">
+        <v>510</v>
+      </c>
+      <c r="D80" s="153" t="s">
+        <v>437</v>
+      </c>
+      <c r="E80" s="153">
+        <v>1956</v>
+      </c>
+      <c r="H80" s="218">
+        <v>77</v>
+      </c>
+      <c r="I80" s="220" t="s">
+        <v>510</v>
+      </c>
+      <c r="J80" s="219">
+        <f t="shared" si="2"/>
+        <v>1956</v>
+      </c>
+      <c r="K80" s="218" t="s">
+        <v>437</v>
+      </c>
+      <c r="L80" s="220" t="s">
+        <v>504</v>
+      </c>
+      <c r="M80" s="221">
+        <v>2000000</v>
+      </c>
+      <c r="N80" s="136" t="str">
+        <f t="shared" si="3"/>
+        <v>Đinh Thị Lý</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="153">
+        <v>78</v>
+      </c>
+      <c r="B81" s="153" t="s">
+        <v>732</v>
+      </c>
+      <c r="C81" s="160" t="s">
+        <v>511</v>
+      </c>
+      <c r="D81" s="153" t="s">
+        <v>437</v>
+      </c>
+      <c r="E81" s="153">
+        <v>1954</v>
+      </c>
+      <c r="H81" s="218">
+        <v>78</v>
+      </c>
+      <c r="I81" s="220" t="s">
+        <v>511</v>
+      </c>
+      <c r="J81" s="219">
+        <f t="shared" si="2"/>
+        <v>1954</v>
+      </c>
+      <c r="K81" s="218" t="s">
+        <v>437</v>
+      </c>
+      <c r="L81" s="220" t="s">
+        <v>504</v>
+      </c>
+      <c r="M81" s="221">
+        <v>2000000</v>
+      </c>
+      <c r="N81" s="136" t="str">
+        <f t="shared" si="3"/>
+        <v>Trần Thị Tư</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="153">
+        <v>79</v>
+      </c>
+      <c r="B82" s="153" t="s">
+        <v>733</v>
+      </c>
+      <c r="C82" s="160" t="s">
+        <v>512</v>
+      </c>
+      <c r="D82" s="153" t="s">
+        <v>432</v>
+      </c>
+      <c r="E82" s="153">
+        <v>1961</v>
+      </c>
+      <c r="H82" s="218">
+        <v>79</v>
+      </c>
+      <c r="I82" s="220" t="s">
+        <v>512</v>
+      </c>
+      <c r="J82" s="219">
+        <f t="shared" si="2"/>
+        <v>1961</v>
+      </c>
+      <c r="K82" s="218" t="s">
+        <v>432</v>
+      </c>
+      <c r="L82" s="220" t="s">
+        <v>504</v>
+      </c>
+      <c r="M82" s="221">
+        <v>2000000</v>
+      </c>
+      <c r="N82" s="136" t="str">
+        <f t="shared" si="3"/>
+        <v>Nguyễn Bách Thọ</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="153">
+        <v>80</v>
+      </c>
+      <c r="B83" s="153" t="s">
+        <v>734</v>
+      </c>
+      <c r="C83" s="160" t="s">
+        <v>513</v>
+      </c>
+      <c r="D83" s="153" t="s">
+        <v>437</v>
+      </c>
+      <c r="E83" s="153">
+        <v>1958</v>
+      </c>
+      <c r="H83" s="218">
+        <v>80</v>
+      </c>
+      <c r="I83" s="220" t="s">
+        <v>513</v>
+      </c>
+      <c r="J83" s="219">
+        <f t="shared" si="2"/>
+        <v>1958</v>
+      </c>
+      <c r="K83" s="218" t="s">
+        <v>437</v>
+      </c>
+      <c r="L83" s="220" t="s">
+        <v>504</v>
+      </c>
+      <c r="M83" s="221">
+        <v>2000000</v>
+      </c>
+      <c r="N83" s="136" t="str">
+        <f t="shared" si="3"/>
+        <v>Lê Thị Hồng Hải</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" s="137" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="222" t="s">
+        <v>414</v>
+      </c>
+      <c r="B84" s="223"/>
+      <c r="C84" s="223"/>
+      <c r="D84" s="223"/>
+      <c r="E84" s="223"/>
+      <c r="M84" s="215"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:E84" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <mergeCells count="6">
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K233"/>
   <sheetViews>
@@ -4141,62 +7579,62 @@
       <selection activeCell="C217" sqref="C217:C220"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.4140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.4140625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="64.58203125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="45.1640625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="28.4140625" style="20" customWidth="1"/>
-    <col min="7" max="7" width="19.58203125" style="9" customWidth="1"/>
-    <col min="8" max="8" width="9.83203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1640625" style="9"/>
+    <col min="1" max="1" width="6.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="64.5703125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="45.140625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" style="20" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="22"/>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
-      <c r="D1" s="237" t="s">
+      <c r="D1" s="272" t="s">
         <v>313</v>
       </c>
-      <c r="E1" s="237"/>
-      <c r="F1" s="237"/>
-    </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E1" s="272"/>
+      <c r="F1" s="272"/>
+    </row>
+    <row r="2" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="24"/>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
-      <c r="D2" s="238"/>
-      <c r="E2" s="238"/>
-      <c r="F2" s="238"/>
-    </row>
-    <row r="3" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D2" s="273"/>
+      <c r="E2" s="273"/>
+      <c r="F2" s="273"/>
+    </row>
+    <row r="3" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
       <c r="B3" s="24"/>
       <c r="C3" s="24"/>
-      <c r="D3" s="238"/>
-      <c r="E3" s="238"/>
-      <c r="F3" s="238"/>
-    </row>
-    <row r="4" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D3" s="273"/>
+      <c r="E3" s="273"/>
+      <c r="F3" s="273"/>
+    </row>
+    <row r="4" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
       <c r="B4" s="24"/>
       <c r="C4" s="24"/>
-      <c r="D4" s="238"/>
-      <c r="E4" s="238"/>
-      <c r="F4" s="238"/>
-    </row>
-    <row r="5" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D4" s="273"/>
+      <c r="E4" s="273"/>
+      <c r="F4" s="273"/>
+    </row>
+    <row r="5" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="24"/>
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
-      <c r="D5" s="238"/>
-      <c r="E5" s="238"/>
-      <c r="F5" s="238"/>
-    </row>
-    <row r="6" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D5" s="273"/>
+      <c r="E5" s="273"/>
+      <c r="F5" s="273"/>
+    </row>
+    <row r="6" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="23"/>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
@@ -4204,22 +7642,22 @@
       <c r="E6" s="26"/>
       <c r="F6" s="23"/>
     </row>
-    <row r="7" spans="1:11" s="3" customFormat="1" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="239" t="s">
+    <row r="7" spans="1:11" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="274" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="239"/>
-      <c r="C7" s="239"/>
-      <c r="D7" s="239"/>
-      <c r="E7" s="239"/>
-      <c r="F7" s="239"/>
+      <c r="B7" s="274"/>
+      <c r="C7" s="274"/>
+      <c r="D7" s="274"/>
+      <c r="E7" s="274"/>
+      <c r="F7" s="274"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
@@ -4232,49 +7670,49 @@
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="28"/>
-      <c r="B9" s="245" t="s">
+      <c r="B9" s="280" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="245"/>
-      <c r="D9" s="245"/>
-      <c r="E9" s="245"/>
-      <c r="F9" s="245"/>
+      <c r="C9" s="280"/>
+      <c r="D9" s="280"/>
+      <c r="E9" s="280"/>
+      <c r="F9" s="280"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="246" t="s">
+    <row r="10" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="281" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="247"/>
-      <c r="C10" s="247"/>
-      <c r="D10" s="247"/>
-      <c r="E10" s="247"/>
-      <c r="F10" s="248"/>
+      <c r="B10" s="282"/>
+      <c r="C10" s="282"/>
+      <c r="D10" s="282"/>
+      <c r="E10" s="282"/>
+      <c r="F10" s="283"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
     </row>
-    <row r="11" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="249"/>
-      <c r="B11" s="250"/>
-      <c r="C11" s="250"/>
-      <c r="D11" s="250"/>
-      <c r="E11" s="250"/>
-      <c r="F11" s="251"/>
+    <row r="11" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="284"/>
+      <c r="B11" s="285"/>
+      <c r="C11" s="285"/>
+      <c r="D11" s="285"/>
+      <c r="E11" s="285"/>
+      <c r="F11" s="286"/>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
       <c r="B12" s="30"/>
       <c r="C12" s="29"/>
@@ -4282,14 +7720,14 @@
       <c r="E12" s="31"/>
       <c r="F12" s="32"/>
     </row>
-    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
         <v>260</v>
       </c>
-      <c r="B13" s="243" t="s">
+      <c r="B13" s="278" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="243"/>
+      <c r="C13" s="278"/>
       <c r="D13" s="33" t="s">
         <v>4</v>
       </c>
@@ -4301,81 +7739,81 @@
       </c>
       <c r="G13" s="10"/>
     </row>
-    <row r="14" spans="1:11" ht="49.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="252">
+    <row r="14" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="287">
         <v>1</v>
       </c>
-      <c r="B14" s="195" t="s">
+      <c r="B14" s="230" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="252" t="s">
+      <c r="C14" s="287" t="s">
         <v>328</v>
       </c>
       <c r="D14" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="232">
+      <c r="E14" s="267">
         <v>200000</v>
       </c>
-      <c r="F14" s="255"/>
+      <c r="F14" s="290"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" spans="1:11" ht="33" x14ac:dyDescent="0.35">
-      <c r="A15" s="253"/>
-      <c r="B15" s="216"/>
-      <c r="C15" s="253"/>
+    <row r="15" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="288"/>
+      <c r="B15" s="251"/>
+      <c r="C15" s="288"/>
       <c r="D15" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="233"/>
-      <c r="F15" s="256"/>
+      <c r="E15" s="268"/>
+      <c r="F15" s="291"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" spans="1:11" ht="33" x14ac:dyDescent="0.35">
-      <c r="A16" s="253"/>
-      <c r="B16" s="216"/>
-      <c r="C16" s="253"/>
+    <row r="16" spans="1:11" ht="33" x14ac:dyDescent="0.25">
+      <c r="A16" s="288"/>
+      <c r="B16" s="251"/>
+      <c r="C16" s="288"/>
       <c r="D16" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="233"/>
-      <c r="F16" s="256"/>
+      <c r="E16" s="268"/>
+      <c r="F16" s="291"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="253"/>
-      <c r="B17" s="216"/>
-      <c r="C17" s="253"/>
+    <row r="17" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A17" s="288"/>
+      <c r="B17" s="251"/>
+      <c r="C17" s="288"/>
       <c r="D17" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="233"/>
-      <c r="F17" s="256"/>
+      <c r="E17" s="268"/>
+      <c r="F17" s="291"/>
       <c r="G17" s="12"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="253"/>
-      <c r="B18" s="216"/>
-      <c r="C18" s="253"/>
+    <row r="18" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A18" s="288"/>
+      <c r="B18" s="251"/>
+      <c r="C18" s="288"/>
       <c r="D18" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="E18" s="233"/>
-      <c r="F18" s="256"/>
+      <c r="E18" s="268"/>
+      <c r="F18" s="291"/>
       <c r="G18" s="12"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="254"/>
-      <c r="B19" s="196"/>
-      <c r="C19" s="254"/>
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="289"/>
+      <c r="B19" s="231"/>
+      <c r="C19" s="289"/>
       <c r="D19" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="234"/>
-      <c r="F19" s="257"/>
+      <c r="E19" s="269"/>
+      <c r="F19" s="292"/>
       <c r="G19" s="12"/>
     </row>
-    <row r="20" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A20" s="38">
         <v>2</v>
       </c>
@@ -4394,7 +7832,7 @@
       <c r="F20" s="41"/>
       <c r="G20" s="12"/>
     </row>
-    <row r="21" spans="1:7" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A21" s="38">
         <v>3</v>
       </c>
@@ -4413,7 +7851,7 @@
       <c r="F21" s="41"/>
       <c r="G21" s="12"/>
     </row>
-    <row r="22" spans="1:7" ht="66" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="66" x14ac:dyDescent="0.25">
       <c r="A22" s="38">
         <v>4</v>
       </c>
@@ -4432,7 +7870,7 @@
       <c r="F22" s="41"/>
       <c r="G22" s="12"/>
     </row>
-    <row r="23" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A23" s="38">
         <v>5</v>
       </c>
@@ -4451,11 +7889,11 @@
       <c r="F23" s="41"/>
       <c r="G23" s="12"/>
     </row>
-    <row r="24" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A24" s="38">
         <v>6</v>
       </c>
-      <c r="B24" s="236" t="s">
+      <c r="B24" s="271" t="s">
         <v>41</v>
       </c>
       <c r="C24" s="42" t="s">
@@ -4464,30 +7902,30 @@
       <c r="D24" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="242">
+      <c r="E24" s="277">
         <v>60000</v>
       </c>
-      <c r="F24" s="200" t="s">
+      <c r="F24" s="235" t="s">
         <v>383</v>
       </c>
       <c r="G24" s="12"/>
     </row>
-    <row r="25" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A25" s="38">
         <v>7</v>
       </c>
-      <c r="B25" s="236"/>
+      <c r="B25" s="271"/>
       <c r="C25" s="42" t="s">
         <v>44</v>
       </c>
       <c r="D25" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="242"/>
-      <c r="F25" s="201"/>
+      <c r="E25" s="277"/>
+      <c r="F25" s="236"/>
       <c r="G25" s="12"/>
     </row>
-    <row r="26" spans="1:7" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A26" s="38">
         <v>8</v>
       </c>
@@ -4506,7 +7944,7 @@
       <c r="F26" s="41"/>
       <c r="G26" s="12"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A27" s="38">
         <v>9</v>
       </c>
@@ -4523,13 +7961,13 @@
       <c r="F27" s="41"/>
       <c r="G27" s="12"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="240" t="s">
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="275" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="244"/>
-      <c r="C28" s="244"/>
-      <c r="D28" s="241"/>
+      <c r="B28" s="279"/>
+      <c r="C28" s="279"/>
+      <c r="D28" s="276"/>
       <c r="E28" s="34">
         <f>SUM(E14:E27)</f>
         <v>564000</v>
@@ -4537,7 +7975,7 @@
       <c r="F28" s="48"/>
       <c r="G28" s="12"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A29" s="49"/>
       <c r="B29" s="50"/>
       <c r="C29" s="51"/>
@@ -4546,7 +7984,7 @@
       <c r="F29" s="53"/>
       <c r="G29" s="12"/>
     </row>
-    <row r="30" spans="1:7" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A30" s="54" t="s">
         <v>48</v>
       </c>
@@ -4557,7 +7995,7 @@
       <c r="F30" s="57"/>
       <c r="G30" s="13"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" s="58"/>
       <c r="B31" s="59"/>
       <c r="C31" s="60"/>
@@ -4566,14 +8004,14 @@
       <c r="F31" s="62"/>
       <c r="G31" s="12"/>
     </row>
-    <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A32" s="63" t="s">
         <v>260</v>
       </c>
-      <c r="B32" s="240" t="s">
+      <c r="B32" s="275" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="241"/>
+      <c r="C32" s="276"/>
       <c r="D32" s="63" t="s">
         <v>4</v>
       </c>
@@ -4585,7 +8023,7 @@
       </c>
       <c r="G32" s="12"/>
     </row>
-    <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A33" s="65" t="s">
         <v>210</v>
       </c>
@@ -4596,7 +8034,7 @@
       <c r="F33" s="70"/>
       <c r="G33" s="12"/>
     </row>
-    <row r="34" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A34" s="38">
         <v>1</v>
       </c>
@@ -4615,7 +8053,7 @@
       <c r="F34" s="41"/>
       <c r="G34" s="12"/>
     </row>
-    <row r="35" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A35" s="38">
         <v>2</v>
       </c>
@@ -4634,7 +8072,7 @@
       <c r="F35" s="41"/>
       <c r="G35" s="12"/>
     </row>
-    <row r="36" spans="1:7" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="66" x14ac:dyDescent="0.25">
       <c r="A36" s="38">
         <v>3</v>
       </c>
@@ -4653,7 +8091,7 @@
       <c r="F36" s="41"/>
       <c r="G36" s="12"/>
     </row>
-    <row r="37" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A37" s="38">
         <v>4</v>
       </c>
@@ -4672,11 +8110,11 @@
       <c r="F37" s="41"/>
       <c r="G37" s="12"/>
     </row>
-    <row r="38" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A38" s="38">
         <v>5</v>
       </c>
-      <c r="B38" s="195" t="s">
+      <c r="B38" s="230" t="s">
         <v>45</v>
       </c>
       <c r="C38" s="42" t="s">
@@ -4693,11 +8131,11 @@
       </c>
       <c r="G38" s="12"/>
     </row>
-    <row r="39" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A39" s="38">
         <v>6</v>
       </c>
-      <c r="B39" s="196"/>
+      <c r="B39" s="231"/>
       <c r="C39" s="42" t="s">
         <v>275</v>
       </c>
@@ -4712,11 +8150,11 @@
       </c>
       <c r="G39" s="12"/>
     </row>
-    <row r="40" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A40" s="38">
         <v>7</v>
       </c>
-      <c r="B40" s="209" t="s">
+      <c r="B40" s="244" t="s">
         <v>61</v>
       </c>
       <c r="C40" s="42" t="s">
@@ -4728,16 +8166,16 @@
       <c r="E40" s="72">
         <v>41000</v>
       </c>
-      <c r="F40" s="197" t="s">
+      <c r="F40" s="232" t="s">
         <v>379</v>
       </c>
       <c r="G40" s="12"/>
     </row>
-    <row r="41" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A41" s="38">
         <v>8</v>
       </c>
-      <c r="B41" s="209"/>
+      <c r="B41" s="244"/>
       <c r="C41" s="42" t="s">
         <v>64</v>
       </c>
@@ -4747,14 +8185,14 @@
       <c r="E41" s="72">
         <v>59000</v>
       </c>
-      <c r="F41" s="198"/>
+      <c r="F41" s="233"/>
       <c r="G41" s="12"/>
     </row>
-    <row r="42" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A42" s="38">
         <v>9</v>
       </c>
-      <c r="B42" s="209"/>
+      <c r="B42" s="244"/>
       <c r="C42" s="42" t="s">
         <v>66</v>
       </c>
@@ -4764,14 +8202,14 @@
       <c r="E42" s="72">
         <v>59000</v>
       </c>
-      <c r="F42" s="198"/>
+      <c r="F42" s="233"/>
       <c r="G42" s="12"/>
     </row>
-    <row r="43" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A43" s="38">
         <v>10</v>
       </c>
-      <c r="B43" s="209"/>
+      <c r="B43" s="244"/>
       <c r="C43" s="42" t="s">
         <v>68</v>
       </c>
@@ -4781,14 +8219,14 @@
       <c r="E43" s="72">
         <v>47000</v>
       </c>
-      <c r="F43" s="198"/>
+      <c r="F43" s="233"/>
       <c r="G43" s="12"/>
     </row>
-    <row r="44" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A44" s="38">
         <v>11</v>
       </c>
-      <c r="B44" s="209"/>
+      <c r="B44" s="244"/>
       <c r="C44" s="42" t="s">
         <v>70</v>
       </c>
@@ -4798,10 +8236,10 @@
       <c r="E44" s="72">
         <v>41000</v>
       </c>
-      <c r="F44" s="199"/>
+      <c r="F44" s="234"/>
       <c r="G44" s="12"/>
     </row>
-    <row r="45" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A45" s="38">
         <v>12</v>
       </c>
@@ -4820,11 +8258,11 @@
       <c r="F45" s="41"/>
       <c r="G45" s="12"/>
     </row>
-    <row r="46" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A46" s="38">
         <v>13</v>
       </c>
-      <c r="B46" s="195" t="s">
+      <c r="B46" s="230" t="s">
         <v>278</v>
       </c>
       <c r="C46" s="36" t="s">
@@ -4836,16 +8274,16 @@
       <c r="E46" s="75">
         <v>62000</v>
       </c>
-      <c r="F46" s="197" t="s">
+      <c r="F46" s="232" t="s">
         <v>380</v>
       </c>
       <c r="G46" s="12"/>
     </row>
-    <row r="47" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A47" s="38">
         <v>14</v>
       </c>
-      <c r="B47" s="216"/>
+      <c r="B47" s="251"/>
       <c r="C47" s="36" t="s">
         <v>197</v>
       </c>
@@ -4855,14 +8293,14 @@
       <c r="E47" s="75">
         <v>165000</v>
       </c>
-      <c r="F47" s="198"/>
+      <c r="F47" s="233"/>
       <c r="G47" s="12"/>
     </row>
-    <row r="48" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A48" s="38">
         <v>15</v>
       </c>
-      <c r="B48" s="196"/>
+      <c r="B48" s="231"/>
       <c r="C48" s="36" t="s">
         <v>202</v>
       </c>
@@ -4872,14 +8310,14 @@
       <c r="E48" s="75">
         <v>116000</v>
       </c>
-      <c r="F48" s="199"/>
+      <c r="F48" s="234"/>
       <c r="G48" s="12"/>
     </row>
-    <row r="49" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A49" s="38">
         <v>16</v>
       </c>
-      <c r="B49" s="195" t="s">
+      <c r="B49" s="230" t="s">
         <v>273</v>
       </c>
       <c r="C49" s="36" t="s">
@@ -4894,11 +8332,11 @@
       <c r="F49" s="41"/>
       <c r="G49" s="12"/>
     </row>
-    <row r="50" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A50" s="38">
         <v>17</v>
       </c>
-      <c r="B50" s="216"/>
+      <c r="B50" s="251"/>
       <c r="C50" s="36" t="s">
         <v>270</v>
       </c>
@@ -4908,16 +8346,16 @@
       <c r="E50" s="75">
         <v>130000</v>
       </c>
-      <c r="F50" s="197" t="s">
+      <c r="F50" s="232" t="s">
         <v>380</v>
       </c>
       <c r="G50" s="12"/>
     </row>
-    <row r="51" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A51" s="38">
         <v>18</v>
       </c>
-      <c r="B51" s="216"/>
+      <c r="B51" s="251"/>
       <c r="C51" s="36" t="s">
         <v>271</v>
       </c>
@@ -4927,14 +8365,14 @@
       <c r="E51" s="75">
         <v>120000</v>
       </c>
-      <c r="F51" s="198"/>
+      <c r="F51" s="233"/>
       <c r="G51" s="12"/>
     </row>
-    <row r="52" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A52" s="38">
         <v>19</v>
       </c>
-      <c r="B52" s="196"/>
+      <c r="B52" s="231"/>
       <c r="C52" s="36" t="s">
         <v>272</v>
       </c>
@@ -4944,10 +8382,10 @@
       <c r="E52" s="75">
         <v>282000</v>
       </c>
-      <c r="F52" s="199"/>
+      <c r="F52" s="234"/>
       <c r="G52" s="12"/>
     </row>
-    <row r="53" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A53" s="38">
         <v>20</v>
       </c>
@@ -4966,11 +8404,11 @@
       <c r="F53" s="41"/>
       <c r="G53" s="12"/>
     </row>
-    <row r="54" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A54" s="38">
         <v>21</v>
       </c>
-      <c r="B54" s="211" t="s">
+      <c r="B54" s="246" t="s">
         <v>131</v>
       </c>
       <c r="C54" s="36" t="s">
@@ -4982,16 +8420,16 @@
       <c r="E54" s="75">
         <v>71000</v>
       </c>
-      <c r="F54" s="200" t="s">
+      <c r="F54" s="235" t="s">
         <v>382</v>
       </c>
       <c r="G54" s="12"/>
     </row>
-    <row r="55" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A55" s="38">
         <v>22</v>
       </c>
-      <c r="B55" s="212"/>
+      <c r="B55" s="247"/>
       <c r="C55" s="36" t="s">
         <v>134</v>
       </c>
@@ -5001,10 +8439,10 @@
       <c r="E55" s="71">
         <v>138000</v>
       </c>
-      <c r="F55" s="201"/>
+      <c r="F55" s="236"/>
       <c r="G55" s="12"/>
     </row>
-    <row r="56" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A56" s="38">
         <v>23</v>
       </c>
@@ -5023,11 +8461,11 @@
       <c r="F56" s="122"/>
       <c r="G56" s="12"/>
     </row>
-    <row r="57" spans="1:7" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A57" s="38">
         <v>24</v>
       </c>
-      <c r="B57" s="210" t="s">
+      <c r="B57" s="245" t="s">
         <v>206</v>
       </c>
       <c r="C57" s="36" t="s">
@@ -5039,16 +8477,16 @@
       <c r="E57" s="75">
         <v>30000</v>
       </c>
-      <c r="F57" s="202" t="s">
+      <c r="F57" s="237" t="s">
         <v>384</v>
       </c>
       <c r="G57" s="13"/>
     </row>
-    <row r="58" spans="1:7" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A58" s="38">
         <v>25</v>
       </c>
-      <c r="B58" s="210"/>
+      <c r="B58" s="245"/>
       <c r="C58" s="36" t="s">
         <v>279</v>
       </c>
@@ -5058,25 +8496,25 @@
       <c r="E58" s="75">
         <v>20000</v>
       </c>
-      <c r="F58" s="203"/>
+      <c r="F58" s="238"/>
       <c r="G58" s="13"/>
     </row>
-    <row r="59" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A59" s="192" t="s">
+    <row r="59" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="227" t="s">
         <v>209</v>
       </c>
-      <c r="B59" s="193"/>
-      <c r="C59" s="193"/>
-      <c r="D59" s="194"/>
+      <c r="B59" s="228"/>
+      <c r="C59" s="228"/>
+      <c r="D59" s="229"/>
       <c r="E59" s="69"/>
       <c r="F59" s="70"/>
       <c r="G59" s="12"/>
     </row>
-    <row r="60" spans="1:7" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A60" s="38">
         <v>26</v>
       </c>
-      <c r="B60" s="204" t="s">
+      <c r="B60" s="239" t="s">
         <v>261</v>
       </c>
       <c r="C60" s="76" t="s">
@@ -5091,11 +8529,11 @@
       <c r="F60" s="41"/>
       <c r="G60" s="13"/>
     </row>
-    <row r="61" spans="1:7" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A61" s="38">
         <v>27</v>
       </c>
-      <c r="B61" s="205"/>
+      <c r="B61" s="240"/>
       <c r="C61" s="76" t="s">
         <v>84</v>
       </c>
@@ -5108,11 +8546,11 @@
       <c r="F61" s="41"/>
       <c r="G61" s="13"/>
     </row>
-    <row r="62" spans="1:7" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A62" s="38">
         <v>28</v>
       </c>
-      <c r="B62" s="205"/>
+      <c r="B62" s="240"/>
       <c r="C62" s="76" t="s">
         <v>86</v>
       </c>
@@ -5125,11 +8563,11 @@
       <c r="F62" s="41"/>
       <c r="G62" s="13"/>
     </row>
-    <row r="63" spans="1:7" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A63" s="38">
         <v>29</v>
       </c>
-      <c r="B63" s="205"/>
+      <c r="B63" s="240"/>
       <c r="C63" s="76" t="s">
         <v>80</v>
       </c>
@@ -5142,11 +8580,11 @@
       <c r="F63" s="41"/>
       <c r="G63" s="13"/>
     </row>
-    <row r="64" spans="1:7" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A64" s="38">
         <v>30</v>
       </c>
-      <c r="B64" s="205"/>
+      <c r="B64" s="240"/>
       <c r="C64" s="76" t="s">
         <v>94</v>
       </c>
@@ -5159,11 +8597,11 @@
       <c r="F64" s="41"/>
       <c r="G64" s="13"/>
     </row>
-    <row r="65" spans="1:7" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A65" s="38">
         <v>31</v>
       </c>
-      <c r="B65" s="205"/>
+      <c r="B65" s="240"/>
       <c r="C65" s="76" t="s">
         <v>81</v>
       </c>
@@ -5176,11 +8614,11 @@
       <c r="F65" s="41"/>
       <c r="G65" s="13"/>
     </row>
-    <row r="66" spans="1:7" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A66" s="38">
         <v>32</v>
       </c>
-      <c r="B66" s="205"/>
+      <c r="B66" s="240"/>
       <c r="C66" s="76" t="s">
         <v>83</v>
       </c>
@@ -5195,11 +8633,11 @@
       </c>
       <c r="G66" s="13"/>
     </row>
-    <row r="67" spans="1:7" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A67" s="38">
         <v>33</v>
       </c>
-      <c r="B67" s="205"/>
+      <c r="B67" s="240"/>
       <c r="C67" s="80" t="s">
         <v>235</v>
       </c>
@@ -5212,11 +8650,11 @@
       <c r="F67" s="41"/>
       <c r="G67" s="13"/>
     </row>
-    <row r="68" spans="1:7" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A68" s="38">
         <v>34</v>
       </c>
-      <c r="B68" s="205"/>
+      <c r="B68" s="240"/>
       <c r="C68" s="76" t="s">
         <v>74</v>
       </c>
@@ -5231,11 +8669,11 @@
       </c>
       <c r="G68" s="12"/>
     </row>
-    <row r="69" spans="1:7" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A69" s="38">
         <v>35</v>
       </c>
-      <c r="B69" s="205"/>
+      <c r="B69" s="240"/>
       <c r="C69" s="76" t="s">
         <v>76</v>
       </c>
@@ -5248,11 +8686,11 @@
       <c r="F69" s="41"/>
       <c r="G69" s="13"/>
     </row>
-    <row r="70" spans="1:7" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A70" s="38">
         <v>36</v>
       </c>
-      <c r="B70" s="205"/>
+      <c r="B70" s="240"/>
       <c r="C70" s="76" t="s">
         <v>78</v>
       </c>
@@ -5265,11 +8703,11 @@
       <c r="F70" s="41"/>
       <c r="G70" s="13"/>
     </row>
-    <row r="71" spans="1:7" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A71" s="38">
         <v>37</v>
       </c>
-      <c r="B71" s="205"/>
+      <c r="B71" s="240"/>
       <c r="C71" s="76" t="s">
         <v>88</v>
       </c>
@@ -5282,11 +8720,11 @@
       <c r="F71" s="41"/>
       <c r="G71" s="13"/>
     </row>
-    <row r="72" spans="1:7" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A72" s="38">
         <v>38</v>
       </c>
-      <c r="B72" s="206"/>
+      <c r="B72" s="241"/>
       <c r="C72" s="76" t="s">
         <v>96</v>
       </c>
@@ -5299,68 +8737,68 @@
       <c r="F72" s="41"/>
       <c r="G72" s="13"/>
     </row>
-    <row r="73" spans="1:7" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A73" s="38">
         <v>39</v>
       </c>
-      <c r="B73" s="204" t="s">
+      <c r="B73" s="239" t="s">
         <v>91</v>
       </c>
       <c r="C73" s="76" t="s">
         <v>90</v>
       </c>
-      <c r="D73" s="213" t="s">
+      <c r="D73" s="248" t="s">
         <v>398</v>
       </c>
       <c r="E73" s="78">
         <v>137000</v>
       </c>
-      <c r="F73" s="197" t="s">
+      <c r="F73" s="232" t="s">
         <v>381</v>
       </c>
       <c r="G73" s="13"/>
     </row>
-    <row r="74" spans="1:7" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A74" s="38">
         <v>40</v>
       </c>
-      <c r="B74" s="205"/>
+      <c r="B74" s="240"/>
       <c r="C74" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="D74" s="214"/>
+      <c r="D74" s="249"/>
       <c r="E74" s="78">
         <v>137000</v>
       </c>
-      <c r="F74" s="198"/>
+      <c r="F74" s="233"/>
       <c r="G74" s="13"/>
     </row>
-    <row r="75" spans="1:7" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A75" s="38">
         <v>41</v>
       </c>
-      <c r="B75" s="206"/>
+      <c r="B75" s="241"/>
       <c r="C75" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="D75" s="215"/>
+      <c r="D75" s="250"/>
       <c r="E75" s="78">
         <v>208000</v>
       </c>
-      <c r="F75" s="199"/>
+      <c r="F75" s="234"/>
       <c r="G75" s="13"/>
     </row>
-    <row r="76" spans="1:7" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A76" s="38">
         <v>42</v>
       </c>
-      <c r="B76" s="204" t="s">
+      <c r="B76" s="239" t="s">
         <v>399</v>
       </c>
       <c r="C76" s="76" t="s">
         <v>400</v>
       </c>
-      <c r="D76" s="207" t="s">
+      <c r="D76" s="242" t="s">
         <v>402</v>
       </c>
       <c r="E76" s="78">
@@ -5369,26 +8807,26 @@
       <c r="F76" s="114"/>
       <c r="G76" s="13"/>
     </row>
-    <row r="77" spans="1:7" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A77" s="38">
         <v>43</v>
       </c>
-      <c r="B77" s="205"/>
+      <c r="B77" s="240"/>
       <c r="C77" s="76" t="s">
         <v>401</v>
       </c>
-      <c r="D77" s="208"/>
+      <c r="D77" s="243"/>
       <c r="E77" s="78">
         <v>323000</v>
       </c>
       <c r="F77" s="114"/>
       <c r="G77" s="13"/>
     </row>
-    <row r="78" spans="1:7" s="14" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" s="14" customFormat="1" ht="99" x14ac:dyDescent="0.25">
       <c r="A78" s="38">
         <v>44</v>
       </c>
-      <c r="B78" s="205"/>
+      <c r="B78" s="240"/>
       <c r="C78" s="76" t="s">
         <v>404</v>
       </c>
@@ -5401,11 +8839,11 @@
       <c r="F78" s="114"/>
       <c r="G78" s="13"/>
     </row>
-    <row r="79" spans="1:7" s="14" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" s="14" customFormat="1" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A79" s="38">
         <v>45</v>
       </c>
-      <c r="B79" s="206"/>
+      <c r="B79" s="241"/>
       <c r="C79" s="76" t="s">
         <v>405</v>
       </c>
@@ -5418,22 +8856,22 @@
       <c r="F79" s="114"/>
       <c r="G79" s="13"/>
     </row>
-    <row r="80" spans="1:7" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A80" s="192" t="s">
+    <row r="80" spans="1:7" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="227" t="s">
         <v>208</v>
       </c>
-      <c r="B80" s="193"/>
-      <c r="C80" s="193"/>
-      <c r="D80" s="194"/>
+      <c r="B80" s="228"/>
+      <c r="C80" s="228"/>
+      <c r="D80" s="229"/>
       <c r="E80" s="69"/>
       <c r="F80" s="70"/>
       <c r="G80" s="13"/>
     </row>
-    <row r="81" spans="1:7" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A81" s="38">
         <v>46</v>
       </c>
-      <c r="B81" s="209" t="s">
+      <c r="B81" s="244" t="s">
         <v>98</v>
       </c>
       <c r="C81" s="36" t="s">
@@ -5448,11 +8886,11 @@
       <c r="F81" s="41"/>
       <c r="G81" s="12"/>
     </row>
-    <row r="82" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A82" s="38">
         <v>47</v>
       </c>
-      <c r="B82" s="209"/>
+      <c r="B82" s="244"/>
       <c r="C82" s="36" t="s">
         <v>101</v>
       </c>
@@ -5465,11 +8903,11 @@
       <c r="F82" s="41"/>
       <c r="G82" s="12"/>
     </row>
-    <row r="83" spans="1:7" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A83" s="38">
         <v>48</v>
       </c>
-      <c r="B83" s="209"/>
+      <c r="B83" s="244"/>
       <c r="C83" s="36" t="s">
         <v>103</v>
       </c>
@@ -5484,11 +8922,11 @@
       </c>
       <c r="G83" s="12"/>
     </row>
-    <row r="84" spans="1:7" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A84" s="38">
         <v>49</v>
       </c>
-      <c r="B84" s="209"/>
+      <c r="B84" s="244"/>
       <c r="C84" s="36" t="s">
         <v>106</v>
       </c>
@@ -5503,11 +8941,11 @@
       </c>
       <c r="G84" s="12"/>
     </row>
-    <row r="85" spans="1:7" ht="148.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" ht="148.5" x14ac:dyDescent="0.25">
       <c r="A85" s="38">
         <v>50</v>
       </c>
-      <c r="B85" s="209"/>
+      <c r="B85" s="244"/>
       <c r="C85" s="36" t="s">
         <v>407</v>
       </c>
@@ -5520,11 +8958,11 @@
       <c r="F85" s="41"/>
       <c r="G85" s="12"/>
     </row>
-    <row r="86" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A86" s="38">
         <v>51</v>
       </c>
-      <c r="B86" s="209"/>
+      <c r="B86" s="244"/>
       <c r="C86" s="36" t="s">
         <v>108</v>
       </c>
@@ -5539,11 +8977,11 @@
       </c>
       <c r="G86" s="12"/>
     </row>
-    <row r="87" spans="1:7" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A87" s="38">
         <v>52</v>
       </c>
-      <c r="B87" s="209"/>
+      <c r="B87" s="244"/>
       <c r="C87" s="36" t="s">
         <v>111</v>
       </c>
@@ -5558,11 +8996,11 @@
       </c>
       <c r="G87" s="12"/>
     </row>
-    <row r="88" spans="1:7" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A88" s="38">
         <v>53</v>
       </c>
-      <c r="B88" s="209"/>
+      <c r="B88" s="244"/>
       <c r="C88" s="36" t="s">
         <v>114</v>
       </c>
@@ -5577,11 +9015,11 @@
       </c>
       <c r="G88" s="12"/>
     </row>
-    <row r="89" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A89" s="38">
         <v>54</v>
       </c>
-      <c r="B89" s="209" t="s">
+      <c r="B89" s="244" t="s">
         <v>117</v>
       </c>
       <c r="C89" s="36" t="s">
@@ -5596,11 +9034,11 @@
       <c r="F89" s="41"/>
       <c r="G89" s="12"/>
     </row>
-    <row r="90" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A90" s="38">
         <v>55</v>
       </c>
-      <c r="B90" s="209"/>
+      <c r="B90" s="244"/>
       <c r="C90" s="36" t="s">
         <v>120</v>
       </c>
@@ -5613,11 +9051,11 @@
       <c r="F90" s="41"/>
       <c r="G90" s="12"/>
     </row>
-    <row r="91" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A91" s="38">
         <v>56</v>
       </c>
-      <c r="B91" s="211" t="s">
+      <c r="B91" s="246" t="s">
         <v>122</v>
       </c>
       <c r="C91" s="36" t="s">
@@ -5632,11 +9070,11 @@
       <c r="F91" s="41"/>
       <c r="G91" s="12"/>
     </row>
-    <row r="92" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A92" s="38">
         <v>57</v>
       </c>
-      <c r="B92" s="219"/>
+      <c r="B92" s="254"/>
       <c r="C92" s="36" t="s">
         <v>390</v>
       </c>
@@ -5649,11 +9087,11 @@
       <c r="F92" s="41"/>
       <c r="G92" s="12"/>
     </row>
-    <row r="93" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A93" s="38">
         <v>58</v>
       </c>
-      <c r="B93" s="212"/>
+      <c r="B93" s="247"/>
       <c r="C93" s="36" t="s">
         <v>126</v>
       </c>
@@ -5666,22 +9104,22 @@
       <c r="F93" s="41"/>
       <c r="G93" s="12"/>
     </row>
-    <row r="94" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A94" s="192" t="s">
+    <row r="94" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A94" s="227" t="s">
         <v>262</v>
       </c>
-      <c r="B94" s="193"/>
-      <c r="C94" s="193"/>
-      <c r="D94" s="194"/>
+      <c r="B94" s="228"/>
+      <c r="C94" s="228"/>
+      <c r="D94" s="229"/>
       <c r="E94" s="83"/>
       <c r="F94" s="70"/>
       <c r="G94" s="12"/>
     </row>
-    <row r="95" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A95" s="38">
         <v>59</v>
       </c>
-      <c r="B95" s="211" t="s">
+      <c r="B95" s="246" t="s">
         <v>241</v>
       </c>
       <c r="C95" s="36" t="s">
@@ -5696,11 +9134,11 @@
       <c r="F95" s="41"/>
       <c r="G95" s="12"/>
     </row>
-    <row r="96" spans="1:7" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A96" s="38">
         <v>60</v>
       </c>
-      <c r="B96" s="212"/>
+      <c r="B96" s="247"/>
       <c r="C96" s="36" t="s">
         <v>240</v>
       </c>
@@ -5713,11 +9151,11 @@
       <c r="F96" s="41"/>
       <c r="G96" s="12"/>
     </row>
-    <row r="97" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A97" s="38">
         <v>61</v>
       </c>
-      <c r="B97" s="211" t="s">
+      <c r="B97" s="246" t="s">
         <v>244</v>
       </c>
       <c r="C97" s="36" t="s">
@@ -5730,11 +9168,11 @@
       <c r="F97" s="41"/>
       <c r="G97" s="12"/>
     </row>
-    <row r="98" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A98" s="38">
         <v>62</v>
       </c>
-      <c r="B98" s="212"/>
+      <c r="B98" s="247"/>
       <c r="C98" s="36" t="s">
         <v>243</v>
       </c>
@@ -5745,7 +9183,7 @@
       <c r="F98" s="41"/>
       <c r="G98" s="12"/>
     </row>
-    <row r="99" spans="1:7" ht="66" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A99" s="38">
         <v>63</v>
       </c>
@@ -5764,11 +9202,11 @@
       </c>
       <c r="G99" s="12"/>
     </row>
-    <row r="100" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A100" s="38">
         <v>64</v>
       </c>
-      <c r="B100" s="211" t="s">
+      <c r="B100" s="246" t="s">
         <v>259</v>
       </c>
       <c r="C100" s="36" t="s">
@@ -5781,11 +9219,11 @@
       <c r="F100" s="41"/>
       <c r="G100" s="12"/>
     </row>
-    <row r="101" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A101" s="38">
         <v>65</v>
       </c>
-      <c r="B101" s="219"/>
+      <c r="B101" s="254"/>
       <c r="C101" s="36" t="s">
         <v>246</v>
       </c>
@@ -5796,11 +9234,11 @@
       <c r="F101" s="41"/>
       <c r="G101" s="12"/>
     </row>
-    <row r="102" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A102" s="38">
         <v>66</v>
       </c>
-      <c r="B102" s="219"/>
+      <c r="B102" s="254"/>
       <c r="C102" s="36" t="s">
         <v>247</v>
       </c>
@@ -5811,11 +9249,11 @@
       <c r="F102" s="41"/>
       <c r="G102" s="12"/>
     </row>
-    <row r="103" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A103" s="38">
         <v>67</v>
       </c>
-      <c r="B103" s="219"/>
+      <c r="B103" s="254"/>
       <c r="C103" s="36" t="s">
         <v>248</v>
       </c>
@@ -5826,11 +9264,11 @@
       <c r="F103" s="41"/>
       <c r="G103" s="12"/>
     </row>
-    <row r="104" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A104" s="38">
         <v>68</v>
       </c>
-      <c r="B104" s="219"/>
+      <c r="B104" s="254"/>
       <c r="C104" s="36" t="s">
         <v>249</v>
       </c>
@@ -5841,11 +9279,11 @@
       <c r="F104" s="41"/>
       <c r="G104" s="12"/>
     </row>
-    <row r="105" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A105" s="38">
         <v>69</v>
       </c>
-      <c r="B105" s="219"/>
+      <c r="B105" s="254"/>
       <c r="C105" s="36" t="s">
         <v>250</v>
       </c>
@@ -5856,11 +9294,11 @@
       <c r="F105" s="41"/>
       <c r="G105" s="12"/>
     </row>
-    <row r="106" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A106" s="38">
         <v>70</v>
       </c>
-      <c r="B106" s="219"/>
+      <c r="B106" s="254"/>
       <c r="C106" s="36" t="s">
         <v>251</v>
       </c>
@@ -5871,11 +9309,11 @@
       <c r="F106" s="41"/>
       <c r="G106" s="12"/>
     </row>
-    <row r="107" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A107" s="38">
         <v>71</v>
       </c>
-      <c r="B107" s="219"/>
+      <c r="B107" s="254"/>
       <c r="C107" s="36" t="s">
         <v>252</v>
       </c>
@@ -5886,11 +9324,11 @@
       <c r="F107" s="41"/>
       <c r="G107" s="12"/>
     </row>
-    <row r="108" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A108" s="38">
         <v>72</v>
       </c>
-      <c r="B108" s="219"/>
+      <c r="B108" s="254"/>
       <c r="C108" s="36" t="s">
         <v>253</v>
       </c>
@@ -5901,11 +9339,11 @@
       <c r="F108" s="41"/>
       <c r="G108" s="12"/>
     </row>
-    <row r="109" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A109" s="38">
         <v>73</v>
       </c>
-      <c r="B109" s="219"/>
+      <c r="B109" s="254"/>
       <c r="C109" s="36" t="s">
         <v>254</v>
       </c>
@@ -5916,11 +9354,11 @@
       <c r="F109" s="41"/>
       <c r="G109" s="12"/>
     </row>
-    <row r="110" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A110" s="38">
         <v>74</v>
       </c>
-      <c r="B110" s="219"/>
+      <c r="B110" s="254"/>
       <c r="C110" s="36" t="s">
         <v>255</v>
       </c>
@@ -5931,11 +9369,11 @@
       <c r="F110" s="41"/>
       <c r="G110" s="12"/>
     </row>
-    <row r="111" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A111" s="38">
         <v>75</v>
       </c>
-      <c r="B111" s="219"/>
+      <c r="B111" s="254"/>
       <c r="C111" s="36" t="s">
         <v>256</v>
       </c>
@@ -5946,11 +9384,11 @@
       <c r="F111" s="41"/>
       <c r="G111" s="12"/>
     </row>
-    <row r="112" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A112" s="38">
         <v>76</v>
       </c>
-      <c r="B112" s="219"/>
+      <c r="B112" s="254"/>
       <c r="C112" s="36" t="s">
         <v>257</v>
       </c>
@@ -5961,11 +9399,11 @@
       <c r="F112" s="41"/>
       <c r="G112" s="12"/>
     </row>
-    <row r="113" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A113" s="38">
         <v>77</v>
       </c>
-      <c r="B113" s="212"/>
+      <c r="B113" s="247"/>
       <c r="C113" s="36" t="s">
         <v>258</v>
       </c>
@@ -5976,18 +9414,18 @@
       <c r="F113" s="41"/>
       <c r="G113" s="12"/>
     </row>
-    <row r="114" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A114" s="192" t="s">
+    <row r="114" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A114" s="227" t="s">
         <v>227</v>
       </c>
-      <c r="B114" s="193"/>
-      <c r="C114" s="193"/>
-      <c r="D114" s="194"/>
+      <c r="B114" s="228"/>
+      <c r="C114" s="228"/>
+      <c r="D114" s="229"/>
       <c r="E114" s="69"/>
       <c r="F114" s="70"/>
       <c r="G114" s="12"/>
     </row>
-    <row r="115" spans="1:7" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A115" s="38">
         <v>78</v>
       </c>
@@ -6006,7 +9444,7 @@
       <c r="F115" s="41"/>
       <c r="G115" s="12"/>
     </row>
-    <row r="116" spans="1:7" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A116" s="38">
         <v>79</v>
       </c>
@@ -6025,22 +9463,22 @@
       <c r="F116" s="41"/>
       <c r="G116" s="12"/>
     </row>
-    <row r="117" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A117" s="220" t="s">
+    <row r="117" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A117" s="255" t="s">
         <v>263</v>
       </c>
-      <c r="B117" s="220"/>
-      <c r="C117" s="220"/>
-      <c r="D117" s="220"/>
+      <c r="B117" s="255"/>
+      <c r="C117" s="255"/>
+      <c r="D117" s="255"/>
       <c r="E117" s="84"/>
       <c r="F117" s="70"/>
       <c r="G117" s="12"/>
     </row>
-    <row r="118" spans="1:7" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A118" s="38">
         <v>80</v>
       </c>
-      <c r="B118" s="226" t="s">
+      <c r="B118" s="261" t="s">
         <v>205</v>
       </c>
       <c r="C118" s="37" t="s">
@@ -6055,11 +9493,11 @@
       <c r="F118" s="41"/>
       <c r="G118" s="12"/>
     </row>
-    <row r="119" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A119" s="38">
         <v>81</v>
       </c>
-      <c r="B119" s="227"/>
+      <c r="B119" s="262"/>
       <c r="C119" s="37" t="s">
         <v>35</v>
       </c>
@@ -6072,11 +9510,11 @@
       <c r="F119" s="41"/>
       <c r="G119" s="12"/>
     </row>
-    <row r="120" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A120" s="38">
         <v>82</v>
       </c>
-      <c r="B120" s="227"/>
+      <c r="B120" s="262"/>
       <c r="C120" s="37" t="s">
         <v>326</v>
       </c>
@@ -6089,11 +9527,11 @@
       <c r="F120" s="41"/>
       <c r="G120" s="12"/>
     </row>
-    <row r="121" spans="1:7" ht="33" x14ac:dyDescent="0.35">
-      <c r="A121" s="221">
+    <row r="121" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A121" s="256">
         <v>83</v>
       </c>
-      <c r="B121" s="227"/>
+      <c r="B121" s="262"/>
       <c r="C121" s="36" t="s">
         <v>409</v>
       </c>
@@ -6104,9 +9542,9 @@
       <c r="F121" s="41"/>
       <c r="G121" s="12"/>
     </row>
-    <row r="122" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A122" s="222"/>
-      <c r="B122" s="227"/>
+    <row r="122" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A122" s="257"/>
+      <c r="B122" s="262"/>
       <c r="C122" s="36" t="s">
         <v>410</v>
       </c>
@@ -6117,9 +9555,9 @@
       <c r="F122" s="41"/>
       <c r="G122" s="12"/>
     </row>
-    <row r="123" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A123" s="223"/>
-      <c r="B123" s="227"/>
+    <row r="123" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A123" s="258"/>
+      <c r="B123" s="262"/>
       <c r="C123" s="36" t="s">
         <v>411</v>
       </c>
@@ -6130,11 +9568,11 @@
       <c r="F123" s="41"/>
       <c r="G123" s="12"/>
     </row>
-    <row r="124" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A124" s="38">
         <v>84</v>
       </c>
-      <c r="B124" s="227"/>
+      <c r="B124" s="262"/>
       <c r="C124" s="37" t="s">
         <v>412</v>
       </c>
@@ -6147,11 +9585,11 @@
       <c r="F124" s="41"/>
       <c r="G124" s="12"/>
     </row>
-    <row r="125" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A125" s="38">
         <v>85</v>
       </c>
-      <c r="B125" s="227"/>
+      <c r="B125" s="262"/>
       <c r="C125" s="37" t="s">
         <v>139</v>
       </c>
@@ -6164,11 +9602,11 @@
       <c r="F125" s="41"/>
       <c r="G125" s="12"/>
     </row>
-    <row r="126" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A126" s="38">
         <v>86</v>
       </c>
-      <c r="B126" s="228"/>
+      <c r="B126" s="263"/>
       <c r="C126" s="37" t="s">
         <v>140</v>
       </c>
@@ -6181,11 +9619,11 @@
       <c r="F126" s="41"/>
       <c r="G126" s="12"/>
     </row>
-    <row r="127" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A127" s="38">
         <v>87</v>
       </c>
-      <c r="B127" s="195" t="s">
+      <c r="B127" s="230" t="s">
         <v>283</v>
       </c>
       <c r="C127" s="36" t="s">
@@ -6200,11 +9638,11 @@
       <c r="F127" s="41"/>
       <c r="G127" s="12"/>
     </row>
-    <row r="128" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A128" s="38">
         <v>88</v>
       </c>
-      <c r="B128" s="216"/>
+      <c r="B128" s="251"/>
       <c r="C128" s="36" t="s">
         <v>144</v>
       </c>
@@ -6217,11 +9655,11 @@
       <c r="F128" s="41"/>
       <c r="G128" s="12"/>
     </row>
-    <row r="129" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A129" s="38">
         <v>89</v>
       </c>
-      <c r="B129" s="216"/>
+      <c r="B129" s="251"/>
       <c r="C129" s="36" t="s">
         <v>394</v>
       </c>
@@ -6234,11 +9672,11 @@
       <c r="F129" s="41"/>
       <c r="G129" s="12"/>
     </row>
-    <row r="130" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A130" s="38">
         <v>90</v>
       </c>
-      <c r="B130" s="216"/>
+      <c r="B130" s="251"/>
       <c r="C130" s="36" t="s">
         <v>396</v>
       </c>
@@ -6251,11 +9689,11 @@
       <c r="F130" s="41"/>
       <c r="G130" s="12"/>
     </row>
-    <row r="131" spans="1:8" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A131" s="38">
         <v>91</v>
       </c>
-      <c r="B131" s="216"/>
+      <c r="B131" s="251"/>
       <c r="C131" s="36" t="s">
         <v>371</v>
       </c>
@@ -6268,11 +9706,11 @@
       <c r="F131" s="120"/>
       <c r="G131" s="12"/>
     </row>
-    <row r="132" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A132" s="38">
         <v>92</v>
       </c>
-      <c r="B132" s="196"/>
+      <c r="B132" s="231"/>
       <c r="C132" s="36" t="s">
         <v>146</v>
       </c>
@@ -6283,11 +9721,11 @@
       <c r="F132" s="41"/>
       <c r="G132" s="12"/>
     </row>
-    <row r="133" spans="1:8" ht="33" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" ht="33" x14ac:dyDescent="0.25">
       <c r="A133" s="38">
         <v>93</v>
       </c>
-      <c r="B133" s="216" t="s">
+      <c r="B133" s="251" t="s">
         <v>284</v>
       </c>
       <c r="C133" s="36" t="s">
@@ -6300,11 +9738,11 @@
       <c r="F133" s="41"/>
       <c r="G133" s="12"/>
     </row>
-    <row r="134" spans="1:8" ht="33" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" ht="33" x14ac:dyDescent="0.25">
       <c r="A134" s="38">
         <v>94</v>
       </c>
-      <c r="B134" s="216"/>
+      <c r="B134" s="251"/>
       <c r="C134" s="36" t="s">
         <v>332</v>
       </c>
@@ -6317,11 +9755,11 @@
       <c r="F134" s="41"/>
       <c r="G134" s="12"/>
     </row>
-    <row r="135" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A135" s="38">
         <v>95</v>
       </c>
-      <c r="B135" s="216"/>
+      <c r="B135" s="251"/>
       <c r="C135" s="36" t="s">
         <v>152</v>
       </c>
@@ -6334,11 +9772,11 @@
       <c r="F135" s="41"/>
       <c r="G135" s="12"/>
     </row>
-    <row r="136" spans="1:8" ht="33" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" ht="33" x14ac:dyDescent="0.25">
       <c r="A136" s="38">
         <v>96</v>
       </c>
-      <c r="B136" s="216"/>
+      <c r="B136" s="251"/>
       <c r="C136" s="36" t="s">
         <v>154</v>
       </c>
@@ -6351,11 +9789,11 @@
       <c r="F136" s="41"/>
       <c r="G136" s="12"/>
     </row>
-    <row r="137" spans="1:8" ht="33" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:8" ht="33" x14ac:dyDescent="0.25">
       <c r="A137" s="38">
         <v>97</v>
       </c>
-      <c r="B137" s="216"/>
+      <c r="B137" s="251"/>
       <c r="C137" s="36" t="s">
         <v>156</v>
       </c>
@@ -6368,11 +9806,11 @@
       <c r="F137" s="41"/>
       <c r="G137" s="12"/>
     </row>
-    <row r="138" spans="1:8" ht="33" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:8" ht="33" x14ac:dyDescent="0.25">
       <c r="A138" s="38">
         <v>98</v>
       </c>
-      <c r="B138" s="216"/>
+      <c r="B138" s="251"/>
       <c r="C138" s="36" t="s">
         <v>158</v>
       </c>
@@ -6385,11 +9823,11 @@
       <c r="F138" s="41"/>
       <c r="G138" s="12"/>
     </row>
-    <row r="139" spans="1:8" ht="33" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:8" ht="33" x14ac:dyDescent="0.25">
       <c r="A139" s="38">
         <v>99</v>
       </c>
-      <c r="B139" s="216"/>
+      <c r="B139" s="251"/>
       <c r="C139" s="36" t="s">
         <v>159</v>
       </c>
@@ -6400,11 +9838,11 @@
       <c r="F139" s="41"/>
       <c r="G139" s="12"/>
     </row>
-    <row r="140" spans="1:8" ht="33" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:8" ht="33" x14ac:dyDescent="0.25">
       <c r="A140" s="38">
         <v>100</v>
       </c>
-      <c r="B140" s="236" t="s">
+      <c r="B140" s="271" t="s">
         <v>305</v>
       </c>
       <c r="C140" s="36" t="s">
@@ -6417,16 +9855,16 @@
         <v>3420000</v>
       </c>
       <c r="F140" s="41"/>
-      <c r="G140" s="217" t="s">
+      <c r="G140" s="252" t="s">
         <v>336</v>
       </c>
-      <c r="H140" s="218"/>
-    </row>
-    <row r="141" spans="1:8" ht="33" x14ac:dyDescent="0.35">
+      <c r="H140" s="253"/>
+    </row>
+    <row r="141" spans="1:8" ht="33" x14ac:dyDescent="0.25">
       <c r="A141" s="38">
         <v>101</v>
       </c>
-      <c r="B141" s="236"/>
+      <c r="B141" s="271"/>
       <c r="C141" s="36" t="s">
         <v>344</v>
       </c>
@@ -6439,11 +9877,11 @@
       <c r="F141" s="41"/>
       <c r="G141" s="12"/>
     </row>
-    <row r="142" spans="1:8" ht="33" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A142" s="38">
         <v>102</v>
       </c>
-      <c r="B142" s="236"/>
+      <c r="B142" s="271"/>
       <c r="C142" s="36" t="s">
         <v>345</v>
       </c>
@@ -6454,16 +9892,16 @@
         <v>3420000</v>
       </c>
       <c r="F142" s="41"/>
-      <c r="G142" s="217" t="s">
+      <c r="G142" s="252" t="s">
         <v>336</v>
       </c>
-      <c r="H142" s="218"/>
-    </row>
-    <row r="143" spans="1:8" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="H142" s="253"/>
+    </row>
+    <row r="143" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A143" s="38">
         <v>103</v>
       </c>
-      <c r="B143" s="236"/>
+      <c r="B143" s="271"/>
       <c r="C143" s="36" t="s">
         <v>346</v>
       </c>
@@ -6476,11 +9914,11 @@
       <c r="F143" s="41"/>
       <c r="G143" s="12"/>
     </row>
-    <row r="144" spans="1:8" ht="33" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:8" ht="33" x14ac:dyDescent="0.25">
       <c r="A144" s="38">
         <v>104</v>
       </c>
-      <c r="B144" s="236"/>
+      <c r="B144" s="271"/>
       <c r="C144" s="36" t="s">
         <v>347</v>
       </c>
@@ -6493,11 +9931,11 @@
       <c r="F144" s="41"/>
       <c r="G144" s="12"/>
     </row>
-    <row r="145" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A145" s="38">
         <v>105</v>
       </c>
-      <c r="B145" s="236"/>
+      <c r="B145" s="271"/>
       <c r="C145" s="118" t="s">
         <v>374</v>
       </c>
@@ -6510,11 +9948,11 @@
       <c r="F145" s="41"/>
       <c r="G145" s="12"/>
     </row>
-    <row r="146" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A146" s="38">
         <v>106</v>
       </c>
-      <c r="B146" s="236"/>
+      <c r="B146" s="271"/>
       <c r="C146" s="36" t="s">
         <v>348</v>
       </c>
@@ -6527,11 +9965,11 @@
       <c r="F146" s="41"/>
       <c r="G146" s="12"/>
     </row>
-    <row r="147" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A147" s="38">
         <v>107</v>
       </c>
-      <c r="B147" s="236"/>
+      <c r="B147" s="271"/>
       <c r="C147" s="36" t="s">
         <v>349</v>
       </c>
@@ -6544,11 +9982,11 @@
       <c r="F147" s="41"/>
       <c r="G147" s="12"/>
     </row>
-    <row r="148" spans="1:7" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A148" s="38">
         <v>108</v>
       </c>
-      <c r="B148" s="236"/>
+      <c r="B148" s="271"/>
       <c r="C148" s="36" t="s">
         <v>350</v>
       </c>
@@ -6561,11 +9999,11 @@
       <c r="F148" s="41"/>
       <c r="G148" s="12"/>
     </row>
-    <row r="149" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A149" s="38">
         <v>109</v>
       </c>
-      <c r="B149" s="236"/>
+      <c r="B149" s="271"/>
       <c r="C149" s="118" t="s">
         <v>373</v>
       </c>
@@ -6578,11 +10016,11 @@
       <c r="F149" s="41"/>
       <c r="G149" s="12"/>
     </row>
-    <row r="150" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A150" s="38">
         <v>110</v>
       </c>
-      <c r="B150" s="236"/>
+      <c r="B150" s="271"/>
       <c r="C150" s="36" t="s">
         <v>351</v>
       </c>
@@ -6597,11 +10035,11 @@
       </c>
       <c r="G150" s="12"/>
     </row>
-    <row r="151" spans="1:7" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A151" s="38">
         <v>111</v>
       </c>
-      <c r="B151" s="236"/>
+      <c r="B151" s="271"/>
       <c r="C151" s="36" t="s">
         <v>352</v>
       </c>
@@ -6614,11 +10052,11 @@
       <c r="F151" s="41"/>
       <c r="G151" s="12"/>
     </row>
-    <row r="152" spans="1:7" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A152" s="38">
         <v>112</v>
       </c>
-      <c r="B152" s="236"/>
+      <c r="B152" s="271"/>
       <c r="C152" s="36" t="s">
         <v>353</v>
       </c>
@@ -6631,11 +10069,11 @@
       <c r="F152" s="41"/>
       <c r="G152" s="12"/>
     </row>
-    <row r="153" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A153" s="38">
         <v>113</v>
       </c>
-      <c r="B153" s="236"/>
+      <c r="B153" s="271"/>
       <c r="C153" s="36" t="s">
         <v>354</v>
       </c>
@@ -6648,11 +10086,11 @@
       <c r="F153" s="41"/>
       <c r="G153" s="12"/>
     </row>
-    <row r="154" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A154" s="38">
         <v>114</v>
       </c>
-      <c r="B154" s="236"/>
+      <c r="B154" s="271"/>
       <c r="C154" s="36" t="s">
         <v>355</v>
       </c>
@@ -6665,11 +10103,11 @@
       <c r="F154" s="41"/>
       <c r="G154" s="12"/>
     </row>
-    <row r="155" spans="1:7" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A155" s="38">
         <v>115</v>
       </c>
-      <c r="B155" s="236"/>
+      <c r="B155" s="271"/>
       <c r="C155" s="36" t="s">
         <v>356</v>
       </c>
@@ -6682,11 +10120,11 @@
       <c r="F155" s="41"/>
       <c r="G155" s="12"/>
     </row>
-    <row r="156" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A156" s="38">
         <v>116</v>
       </c>
-      <c r="B156" s="236"/>
+      <c r="B156" s="271"/>
       <c r="C156" s="36" t="s">
         <v>357</v>
       </c>
@@ -6699,11 +10137,11 @@
       <c r="F156" s="41"/>
       <c r="G156" s="12"/>
     </row>
-    <row r="157" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A157" s="38">
         <v>117</v>
       </c>
-      <c r="B157" s="236"/>
+      <c r="B157" s="271"/>
       <c r="C157" s="36" t="s">
         <v>358</v>
       </c>
@@ -6716,11 +10154,11 @@
       <c r="F157" s="41"/>
       <c r="G157" s="12"/>
     </row>
-    <row r="158" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A158" s="38">
         <v>118</v>
       </c>
-      <c r="B158" s="236"/>
+      <c r="B158" s="271"/>
       <c r="C158" s="36" t="s">
         <v>359</v>
       </c>
@@ -6733,11 +10171,11 @@
       <c r="F158" s="41"/>
       <c r="G158" s="12"/>
     </row>
-    <row r="159" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A159" s="38">
         <v>119</v>
       </c>
-      <c r="B159" s="236"/>
+      <c r="B159" s="271"/>
       <c r="C159" s="36" t="s">
         <v>360</v>
       </c>
@@ -6750,11 +10188,11 @@
       <c r="F159" s="41"/>
       <c r="G159" s="12"/>
     </row>
-    <row r="160" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A160" s="38">
         <v>120</v>
       </c>
-      <c r="B160" s="236"/>
+      <c r="B160" s="271"/>
       <c r="C160" s="36" t="s">
         <v>361</v>
       </c>
@@ -6767,11 +10205,11 @@
       <c r="F160" s="41"/>
       <c r="G160" s="12"/>
     </row>
-    <row r="161" spans="1:8" ht="33" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:8" ht="33" x14ac:dyDescent="0.25">
       <c r="A161" s="38">
         <v>121</v>
       </c>
-      <c r="B161" s="236"/>
+      <c r="B161" s="271"/>
       <c r="C161" s="36" t="s">
         <v>362</v>
       </c>
@@ -6784,11 +10222,11 @@
       <c r="F161" s="41"/>
       <c r="G161" s="12"/>
     </row>
-    <row r="162" spans="1:8" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:8" ht="66" x14ac:dyDescent="0.25">
       <c r="A162" s="38">
         <v>122</v>
       </c>
-      <c r="B162" s="236"/>
+      <c r="B162" s="271"/>
       <c r="C162" s="36" t="s">
         <v>363</v>
       </c>
@@ -6801,11 +10239,11 @@
       <c r="F162" s="41"/>
       <c r="G162" s="12"/>
     </row>
-    <row r="163" spans="1:8" ht="33" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:8" ht="33" x14ac:dyDescent="0.25">
       <c r="A163" s="38">
         <v>123</v>
       </c>
-      <c r="B163" s="236"/>
+      <c r="B163" s="271"/>
       <c r="C163" s="36" t="s">
         <v>364</v>
       </c>
@@ -6818,11 +10256,11 @@
       <c r="F163" s="41"/>
       <c r="G163" s="12"/>
     </row>
-    <row r="164" spans="1:8" ht="33" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:8" ht="33" x14ac:dyDescent="0.25">
       <c r="A164" s="38">
         <v>124</v>
       </c>
-      <c r="B164" s="236"/>
+      <c r="B164" s="271"/>
       <c r="C164" s="36" t="s">
         <v>365</v>
       </c>
@@ -6833,11 +10271,11 @@
       <c r="F164" s="41"/>
       <c r="G164" s="12"/>
     </row>
-    <row r="165" spans="1:8" ht="33" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:8" ht="33" x14ac:dyDescent="0.25">
       <c r="A165" s="38">
         <v>125</v>
       </c>
-      <c r="B165" s="236"/>
+      <c r="B165" s="271"/>
       <c r="C165" s="36" t="s">
         <v>366</v>
       </c>
@@ -6848,11 +10286,11 @@
       <c r="F165" s="41"/>
       <c r="G165" s="12"/>
     </row>
-    <row r="166" spans="1:8" ht="33" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:8" ht="33" x14ac:dyDescent="0.25">
       <c r="A166" s="38">
         <v>126</v>
       </c>
-      <c r="B166" s="236"/>
+      <c r="B166" s="271"/>
       <c r="C166" s="36" t="s">
         <v>367</v>
       </c>
@@ -6865,11 +10303,11 @@
       <c r="F166" s="41"/>
       <c r="G166" s="12"/>
     </row>
-    <row r="167" spans="1:8" ht="33" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:8" ht="33" x14ac:dyDescent="0.25">
       <c r="A167" s="38">
         <v>127</v>
       </c>
-      <c r="B167" s="236"/>
+      <c r="B167" s="271"/>
       <c r="C167" s="36" t="s">
         <v>368</v>
       </c>
@@ -6882,11 +10320,11 @@
       <c r="F167" s="41"/>
       <c r="G167" s="12"/>
     </row>
-    <row r="168" spans="1:8" ht="33" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:8" ht="33" x14ac:dyDescent="0.25">
       <c r="A168" s="38">
         <v>128</v>
       </c>
-      <c r="B168" s="236"/>
+      <c r="B168" s="271"/>
       <c r="C168" s="36" t="s">
         <v>369</v>
       </c>
@@ -6899,11 +10337,11 @@
       <c r="F168" s="41"/>
       <c r="G168" s="12"/>
     </row>
-    <row r="169" spans="1:8" ht="33" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:8" ht="33" x14ac:dyDescent="0.25">
       <c r="A169" s="38">
         <v>129</v>
       </c>
-      <c r="B169" s="236"/>
+      <c r="B169" s="271"/>
       <c r="C169" s="36" t="s">
         <v>370</v>
       </c>
@@ -6916,18 +10354,18 @@
       <c r="F169" s="41"/>
       <c r="G169" s="12"/>
     </row>
-    <row r="170" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A170" s="220" t="s">
+    <row r="170" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A170" s="255" t="s">
         <v>207</v>
       </c>
-      <c r="B170" s="220"/>
-      <c r="C170" s="220"/>
-      <c r="D170" s="220"/>
+      <c r="B170" s="255"/>
+      <c r="C170" s="255"/>
+      <c r="D170" s="255"/>
       <c r="E170" s="84"/>
       <c r="F170" s="70"/>
       <c r="G170" s="12"/>
     </row>
-    <row r="171" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A171" s="38">
         <v>130</v>
       </c>
@@ -6944,7 +10382,7 @@
       <c r="F171" s="41"/>
       <c r="G171" s="12"/>
     </row>
-    <row r="172" spans="1:8" ht="33" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:8" ht="33" x14ac:dyDescent="0.25">
       <c r="A172" s="38">
         <v>131</v>
       </c>
@@ -6961,7 +10399,7 @@
       <c r="F172" s="41"/>
       <c r="G172" s="12"/>
     </row>
-    <row r="173" spans="1:8" ht="33" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:8" ht="33" x14ac:dyDescent="0.25">
       <c r="A173" s="38">
         <v>132</v>
       </c>
@@ -6979,11 +10417,11 @@
       <c r="G173" s="12"/>
       <c r="H173" s="12"/>
     </row>
-    <row r="174" spans="1:8" s="15" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:8" s="15" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A174" s="38">
         <v>133</v>
       </c>
-      <c r="B174" s="195" t="s">
+      <c r="B174" s="230" t="s">
         <v>204</v>
       </c>
       <c r="C174" s="36" t="s">
@@ -6997,11 +10435,11 @@
       </c>
       <c r="F174" s="41"/>
     </row>
-    <row r="175" spans="1:8" s="15" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:8" s="15" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A175" s="38">
         <v>134</v>
       </c>
-      <c r="B175" s="196"/>
+      <c r="B175" s="231"/>
       <c r="C175" s="36" t="s">
         <v>225</v>
       </c>
@@ -7013,17 +10451,17 @@
       </c>
       <c r="F175" s="41"/>
     </row>
-    <row r="176" spans="1:8" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A176" s="192" t="s">
+    <row r="176" spans="1:8" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A176" s="227" t="s">
         <v>164</v>
       </c>
-      <c r="B176" s="193"/>
-      <c r="C176" s="193"/>
-      <c r="D176" s="194"/>
+      <c r="B176" s="228"/>
+      <c r="C176" s="228"/>
+      <c r="D176" s="229"/>
       <c r="E176" s="65"/>
       <c r="F176" s="65"/>
     </row>
-    <row r="177" spans="1:7" s="16" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" s="16" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A177" s="90">
         <v>135</v>
       </c>
@@ -7037,11 +10475,11 @@
       <c r="E177" s="90">
         <v>71000</v>
       </c>
-      <c r="F177" s="224" t="s">
+      <c r="F177" s="259" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="178" spans="1:7" s="16" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" s="16" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A178" s="90">
         <v>136</v>
       </c>
@@ -7055,20 +10493,20 @@
       <c r="E178" s="90">
         <v>86000</v>
       </c>
-      <c r="F178" s="225"/>
-    </row>
-    <row r="179" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A179" s="220" t="s">
+      <c r="F178" s="260"/>
+    </row>
+    <row r="179" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A179" s="255" t="s">
         <v>169</v>
       </c>
-      <c r="B179" s="220"/>
-      <c r="C179" s="220"/>
-      <c r="D179" s="220"/>
+      <c r="B179" s="255"/>
+      <c r="C179" s="255"/>
+      <c r="D179" s="255"/>
       <c r="E179" s="84"/>
       <c r="F179" s="70"/>
       <c r="G179" s="12"/>
     </row>
-    <row r="180" spans="1:7" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A180" s="93">
         <v>137</v>
       </c>
@@ -7082,12 +10520,12 @@
       <c r="E180" s="116">
         <v>1968000</v>
       </c>
-      <c r="F180" s="230" t="s">
+      <c r="F180" s="265" t="s">
         <v>327</v>
       </c>
       <c r="G180" s="12"/>
     </row>
-    <row r="181" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A181" s="93">
         <v>138</v>
       </c>
@@ -7101,10 +10539,10 @@
       <c r="E181" s="116">
         <v>2952000</v>
       </c>
-      <c r="F181" s="230"/>
+      <c r="F181" s="265"/>
       <c r="G181" s="12"/>
     </row>
-    <row r="182" spans="1:7" ht="66" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:7" ht="66" x14ac:dyDescent="0.25">
       <c r="A182" s="93">
         <v>139</v>
       </c>
@@ -7118,10 +10556,10 @@
       <c r="E182" s="116">
         <v>4100000</v>
       </c>
-      <c r="F182" s="230"/>
+      <c r="F182" s="265"/>
       <c r="G182" s="12"/>
     </row>
-    <row r="183" spans="1:7" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A183" s="93">
         <v>140</v>
       </c>
@@ -7138,7 +10576,7 @@
       <c r="F183" s="114"/>
       <c r="G183" s="12"/>
     </row>
-    <row r="184" spans="1:7" ht="132" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:7" ht="148.5" x14ac:dyDescent="0.25">
       <c r="A184" s="93">
         <v>141</v>
       </c>
@@ -7157,7 +10595,7 @@
       </c>
       <c r="G184" s="12"/>
     </row>
-    <row r="185" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A185" s="93">
         <v>142</v>
       </c>
@@ -7174,7 +10612,7 @@
       <c r="F185" s="41"/>
       <c r="G185" s="12"/>
     </row>
-    <row r="186" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A186" s="93">
         <v>143</v>
       </c>
@@ -7191,7 +10629,7 @@
       <c r="F186" s="41"/>
       <c r="G186" s="12"/>
     </row>
-    <row r="187" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A187" s="93">
         <v>144</v>
       </c>
@@ -7208,18 +10646,18 @@
       <c r="F187" s="41"/>
       <c r="G187" s="12"/>
     </row>
-    <row r="188" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A188" s="220" t="s">
+    <row r="188" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A188" s="255" t="s">
         <v>264</v>
       </c>
-      <c r="B188" s="220"/>
-      <c r="C188" s="220"/>
-      <c r="D188" s="220"/>
+      <c r="B188" s="255"/>
+      <c r="C188" s="255"/>
+      <c r="D188" s="255"/>
       <c r="E188" s="84"/>
       <c r="F188" s="70"/>
       <c r="G188" s="12"/>
     </row>
-    <row r="189" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A189" s="93">
         <v>145</v>
       </c>
@@ -7236,18 +10674,18 @@
       <c r="F189" s="41"/>
       <c r="G189" s="12"/>
     </row>
-    <row r="190" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A190" s="220" t="s">
+    <row r="190" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A190" s="255" t="s">
         <v>234</v>
       </c>
-      <c r="B190" s="220"/>
-      <c r="C190" s="220"/>
-      <c r="D190" s="220"/>
+      <c r="B190" s="255"/>
+      <c r="C190" s="255"/>
+      <c r="D190" s="255"/>
       <c r="E190" s="84"/>
       <c r="F190" s="70"/>
       <c r="G190" s="12"/>
     </row>
-    <row r="191" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A191" s="38">
         <v>146</v>
       </c>
@@ -7264,7 +10702,7 @@
       <c r="F191" s="41"/>
       <c r="G191" s="12"/>
     </row>
-    <row r="192" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A192" s="38">
         <v>147</v>
       </c>
@@ -7281,7 +10719,7 @@
       <c r="F192" s="41"/>
       <c r="G192" s="12"/>
     </row>
-    <row r="193" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A193" s="38">
         <v>148</v>
       </c>
@@ -7298,7 +10736,7 @@
       <c r="F193" s="41"/>
       <c r="G193" s="12"/>
     </row>
-    <row r="194" spans="1:7" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A194" s="38">
         <v>149</v>
       </c>
@@ -7315,7 +10753,7 @@
       <c r="F194" s="41"/>
       <c r="G194" s="12"/>
     </row>
-    <row r="195" spans="1:7" ht="66" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:7" ht="66" x14ac:dyDescent="0.25">
       <c r="A195" s="38">
         <v>150</v>
       </c>
@@ -7332,7 +10770,7 @@
       <c r="F195" s="41"/>
       <c r="G195" s="12"/>
     </row>
-    <row r="196" spans="1:7" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A196" s="38">
         <v>151</v>
       </c>
@@ -7349,7 +10787,7 @@
       <c r="F196" s="41"/>
       <c r="G196" s="12"/>
     </row>
-    <row r="197" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A197" s="38">
         <v>152</v>
       </c>
@@ -7366,7 +10804,7 @@
       <c r="F197" s="41"/>
       <c r="G197" s="12"/>
     </row>
-    <row r="198" spans="1:7" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:7" ht="66" x14ac:dyDescent="0.25">
       <c r="A198" s="38">
         <v>153</v>
       </c>
@@ -7383,7 +10821,7 @@
       <c r="F198" s="41"/>
       <c r="G198" s="12"/>
     </row>
-    <row r="199" spans="1:7" ht="66" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:7" ht="66" x14ac:dyDescent="0.25">
       <c r="A199" s="38">
         <v>154</v>
       </c>
@@ -7400,7 +10838,7 @@
       <c r="F199" s="41"/>
       <c r="G199" s="12"/>
     </row>
-    <row r="200" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A200" s="38">
         <v>155</v>
       </c>
@@ -7417,18 +10855,18 @@
       <c r="F200" s="41"/>
       <c r="G200" s="12"/>
     </row>
-    <row r="201" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A201" s="192" t="s">
+    <row r="201" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A201" s="227" t="s">
         <v>323</v>
       </c>
-      <c r="B201" s="193"/>
-      <c r="C201" s="193"/>
-      <c r="D201" s="194"/>
+      <c r="B201" s="228"/>
+      <c r="C201" s="228"/>
+      <c r="D201" s="229"/>
       <c r="E201" s="69"/>
       <c r="F201" s="70"/>
       <c r="G201" s="12"/>
     </row>
-    <row r="202" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A202" s="38">
         <v>156</v>
       </c>
@@ -7443,7 +10881,7 @@
       <c r="F202" s="41"/>
       <c r="G202" s="12"/>
     </row>
-    <row r="203" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A203" s="38">
         <v>157</v>
       </c>
@@ -7460,7 +10898,7 @@
       <c r="F203" s="41"/>
       <c r="G203" s="12"/>
     </row>
-    <row r="204" spans="1:7" ht="132" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:7" ht="132" x14ac:dyDescent="0.25">
       <c r="A204" s="38">
         <v>158</v>
       </c>
@@ -7477,7 +10915,7 @@
       <c r="F204" s="41"/>
       <c r="G204" s="12"/>
     </row>
-    <row r="205" spans="1:7" ht="99" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:7" ht="99" x14ac:dyDescent="0.25">
       <c r="A205" s="38">
         <v>159</v>
       </c>
@@ -7494,7 +10932,7 @@
       <c r="F205" s="41"/>
       <c r="G205" s="12"/>
     </row>
-    <row r="206" spans="1:7" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A206" s="38">
         <v>160</v>
       </c>
@@ -7511,18 +10949,18 @@
       <c r="F206" s="41"/>
       <c r="G206" s="12"/>
     </row>
-    <row r="207" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A207" s="192" t="s">
+    <row r="207" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A207" s="227" t="s">
         <v>222</v>
       </c>
-      <c r="B207" s="193"/>
-      <c r="C207" s="193"/>
-      <c r="D207" s="194"/>
+      <c r="B207" s="228"/>
+      <c r="C207" s="228"/>
+      <c r="D207" s="229"/>
       <c r="E207" s="69"/>
       <c r="F207" s="70"/>
       <c r="G207" s="12"/>
     </row>
-    <row r="208" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A208" s="38">
         <v>161</v>
       </c>
@@ -7539,7 +10977,7 @@
       <c r="F208" s="41"/>
       <c r="G208" s="12"/>
     </row>
-    <row r="209" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A209" s="38">
         <v>162</v>
       </c>
@@ -7556,7 +10994,7 @@
       <c r="F209" s="41"/>
       <c r="G209" s="12"/>
     </row>
-    <row r="210" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A210" s="38">
         <v>163</v>
       </c>
@@ -7573,18 +11011,18 @@
       <c r="F210" s="41"/>
       <c r="G210" s="12"/>
     </row>
-    <row r="211" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A211" s="192" t="s">
+    <row r="211" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A211" s="227" t="s">
         <v>211</v>
       </c>
-      <c r="B211" s="193"/>
-      <c r="C211" s="193"/>
-      <c r="D211" s="194"/>
+      <c r="B211" s="228"/>
+      <c r="C211" s="228"/>
+      <c r="D211" s="229"/>
       <c r="E211" s="98"/>
       <c r="F211" s="70"/>
       <c r="G211" s="12"/>
     </row>
-    <row r="212" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A212" s="38">
         <v>164</v>
       </c>
@@ -7593,13 +11031,13 @@
         <v>212</v>
       </c>
       <c r="D212" s="36"/>
-      <c r="E212" s="232">
+      <c r="E212" s="267">
         <v>183000</v>
       </c>
       <c r="F212" s="41"/>
       <c r="G212" s="12"/>
     </row>
-    <row r="213" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A213" s="38">
         <v>165</v>
       </c>
@@ -7608,11 +11046,11 @@
         <v>213</v>
       </c>
       <c r="D213" s="36"/>
-      <c r="E213" s="233"/>
+      <c r="E213" s="268"/>
       <c r="F213" s="41"/>
       <c r="G213" s="12"/>
     </row>
-    <row r="214" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A214" s="38">
         <v>166</v>
       </c>
@@ -7621,11 +11059,11 @@
         <v>214</v>
       </c>
       <c r="D214" s="36"/>
-      <c r="E214" s="233"/>
+      <c r="E214" s="268"/>
       <c r="F214" s="41"/>
       <c r="G214" s="12"/>
     </row>
-    <row r="215" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A215" s="38">
         <v>167</v>
       </c>
@@ -7634,22 +11072,22 @@
         <v>215</v>
       </c>
       <c r="D215" s="36"/>
-      <c r="E215" s="234"/>
+      <c r="E215" s="269"/>
       <c r="F215" s="41"/>
       <c r="G215" s="12"/>
     </row>
-    <row r="216" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A216" s="192" t="s">
+    <row r="216" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A216" s="227" t="s">
         <v>415</v>
       </c>
-      <c r="B216" s="193"/>
-      <c r="C216" s="193"/>
-      <c r="D216" s="194"/>
+      <c r="B216" s="228"/>
+      <c r="C216" s="228"/>
+      <c r="D216" s="229"/>
       <c r="E216" s="98"/>
       <c r="F216" s="70"/>
       <c r="G216" s="12"/>
     </row>
-    <row r="217" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A217" s="38">
         <v>164</v>
       </c>
@@ -7664,7 +11102,7 @@
       <c r="F217" s="41"/>
       <c r="G217" s="12"/>
     </row>
-    <row r="218" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A218" s="38">
         <v>165</v>
       </c>
@@ -7679,7 +11117,7 @@
       <c r="F218" s="41"/>
       <c r="G218" s="12"/>
     </row>
-    <row r="219" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A219" s="38">
         <v>166</v>
       </c>
@@ -7694,7 +11132,7 @@
       <c r="F219" s="41"/>
       <c r="G219" s="12"/>
     </row>
-    <row r="220" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A220" s="38">
         <v>167</v>
       </c>
@@ -7709,7 +11147,7 @@
       <c r="F220" s="41"/>
       <c r="G220" s="12"/>
     </row>
-    <row r="221" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A221" s="99"/>
       <c r="B221" s="100"/>
       <c r="C221" s="99"/>
@@ -7717,67 +11155,67 @@
       <c r="E221" s="101"/>
       <c r="F221" s="102"/>
     </row>
-    <row r="222" spans="1:7" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A222" s="231" t="s">
+    <row r="222" spans="1:7" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A222" s="266" t="s">
         <v>28</v>
       </c>
-      <c r="B222" s="231"/>
-      <c r="C222" s="231"/>
-      <c r="D222" s="231"/>
+      <c r="B222" s="266"/>
+      <c r="C222" s="266"/>
+      <c r="D222" s="266"/>
       <c r="E222" s="26"/>
       <c r="F222" s="103"/>
     </row>
-    <row r="223" spans="1:7" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A223" s="104"/>
-      <c r="B223" s="229" t="s">
+      <c r="B223" s="264" t="s">
         <v>267</v>
       </c>
-      <c r="C223" s="229"/>
-      <c r="D223" s="229"/>
-      <c r="E223" s="229"/>
-      <c r="F223" s="229"/>
-    </row>
-    <row r="224" spans="1:7" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C223" s="264"/>
+      <c r="D223" s="264"/>
+      <c r="E223" s="264"/>
+      <c r="F223" s="264"/>
+    </row>
+    <row r="224" spans="1:7" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A224" s="104"/>
-      <c r="B224" s="229" t="s">
+      <c r="B224" s="264" t="s">
         <v>420</v>
       </c>
-      <c r="C224" s="229"/>
-      <c r="D224" s="229"/>
-      <c r="E224" s="229"/>
-      <c r="F224" s="229"/>
-    </row>
-    <row r="225" spans="1:6" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C224" s="264"/>
+      <c r="D224" s="264"/>
+      <c r="E224" s="264"/>
+      <c r="F224" s="264"/>
+    </row>
+    <row r="225" spans="1:6" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A225" s="105"/>
-      <c r="B225" s="229" t="s">
+      <c r="B225" s="264" t="s">
         <v>29</v>
       </c>
-      <c r="C225" s="229"/>
-      <c r="D225" s="229"/>
-      <c r="E225" s="229"/>
-      <c r="F225" s="229"/>
-    </row>
-    <row r="226" spans="1:6" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C225" s="264"/>
+      <c r="D225" s="264"/>
+      <c r="E225" s="264"/>
+      <c r="F225" s="264"/>
+    </row>
+    <row r="226" spans="1:6" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A226" s="106"/>
-      <c r="B226" s="235" t="s">
+      <c r="B226" s="270" t="s">
         <v>30</v>
       </c>
-      <c r="C226" s="235"/>
-      <c r="D226" s="235"/>
-      <c r="E226" s="235"/>
-      <c r="F226" s="235"/>
-    </row>
-    <row r="227" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C226" s="270"/>
+      <c r="D226" s="270"/>
+      <c r="E226" s="270"/>
+      <c r="F226" s="270"/>
+    </row>
+    <row r="227" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A227" s="103"/>
-      <c r="B227" s="229" t="s">
+      <c r="B227" s="264" t="s">
         <v>31</v>
       </c>
-      <c r="C227" s="229"/>
-      <c r="D227" s="229"/>
-      <c r="E227" s="229"/>
-      <c r="F227" s="229"/>
-    </row>
-    <row r="228" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C227" s="264"/>
+      <c r="D227" s="264"/>
+      <c r="E227" s="264"/>
+      <c r="F227" s="264"/>
+    </row>
+    <row r="228" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A228" s="103"/>
       <c r="B228" s="105" t="s">
         <v>32</v>
@@ -7787,7 +11225,7 @@
       <c r="E228" s="26"/>
       <c r="F228" s="23"/>
     </row>
-    <row r="229" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A229" s="103"/>
       <c r="B229" s="105" t="s">
         <v>33</v>
@@ -7797,7 +11235,7 @@
       <c r="E229" s="26"/>
       <c r="F229" s="23"/>
     </row>
-    <row r="230" spans="1:6" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A230" s="109" t="s">
         <v>34</v>
       </c>
@@ -7807,7 +11245,7 @@
       <c r="E230" s="111"/>
       <c r="F230" s="108"/>
     </row>
-    <row r="231" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A231" s="103"/>
       <c r="B231" s="23" t="s">
         <v>37</v>
@@ -7817,7 +11255,7 @@
       <c r="E231" s="112"/>
       <c r="F231" s="23"/>
     </row>
-    <row r="232" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A232" s="103"/>
       <c r="B232" s="23" t="s">
         <v>324</v>
@@ -7827,7 +11265,7 @@
       <c r="E232" s="112"/>
       <c r="F232" s="23"/>
     </row>
-    <row r="233" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A233" s="103"/>
       <c r="B233" s="23" t="s">
         <v>38</v>
@@ -7928,68 +11366,72 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:DV84"/>
+  <dimension ref="A1:DW84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DU63" sqref="DU63"/>
+      <pane xSplit="10" ySplit="3" topLeftCell="DO38" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K1" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="DP47" sqref="DP47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.4140625" style="129" customWidth="1"/>
-    <col min="2" max="2" width="7.5" style="129" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.83203125" style="129" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.4140625" style="140" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" style="139" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" style="129" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="129" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" style="129" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.42578125" style="140" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="139" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" style="129" customWidth="1"/>
-    <col min="8" max="8" width="20.75" style="129" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" style="129" customWidth="1"/>
     <col min="9" max="9" width="15" style="140" customWidth="1"/>
-    <col min="10" max="10" width="19.25" style="129" customWidth="1"/>
-    <col min="11" max="19" width="16.1640625" style="141" customWidth="1"/>
-    <col min="20" max="24" width="16.1640625" style="15" customWidth="1"/>
-    <col min="25" max="52" width="16.1640625" style="139" customWidth="1"/>
-    <col min="53" max="53" width="21.1640625" style="139" customWidth="1"/>
-    <col min="54" max="97" width="16.1640625" style="139" customWidth="1"/>
-    <col min="98" max="98" width="21.1640625" style="139" customWidth="1"/>
-    <col min="99" max="122" width="16.1640625" style="139" customWidth="1"/>
-    <col min="123" max="123" width="18.1640625" style="152" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="13.4140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="36.1640625" style="15" customWidth="1"/>
-    <col min="126" max="16384" width="9.1640625" style="15"/>
+    <col min="10" max="10" width="19.28515625" style="129" customWidth="1"/>
+    <col min="11" max="19" width="16.140625" style="141" customWidth="1"/>
+    <col min="20" max="24" width="16.140625" style="15" customWidth="1"/>
+    <col min="25" max="52" width="16.140625" style="139" customWidth="1"/>
+    <col min="53" max="53" width="21.140625" style="139" customWidth="1"/>
+    <col min="54" max="97" width="16.140625" style="139" customWidth="1"/>
+    <col min="98" max="98" width="21.140625" style="139" customWidth="1"/>
+    <col min="99" max="122" width="16.140625" style="139" customWidth="1"/>
+    <col min="123" max="123" width="20.140625" style="152" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="15.5703125" style="15" customWidth="1"/>
+    <col min="125" max="125" width="36.140625" style="15" customWidth="1"/>
+    <col min="126" max="126" width="9.140625" style="15"/>
+    <col min="127" max="127" width="51" style="15" bestFit="1" customWidth="1"/>
+    <col min="128" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:126" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="264" t="s">
+    <row r="1" spans="1:127" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="224" t="s">
         <v>260</v>
       </c>
-      <c r="B1" s="266" t="s">
-        <v>655</v>
-      </c>
-      <c r="C1" s="264" t="s">
+      <c r="B1" s="225" t="s">
+        <v>654</v>
+      </c>
+      <c r="C1" s="224" t="s">
         <v>421</v>
       </c>
-      <c r="D1" s="264" t="s">
+      <c r="D1" s="224" t="s">
         <v>422</v>
       </c>
-      <c r="E1" s="266" t="s">
-        <v>736</v>
-      </c>
-      <c r="F1" s="264" t="s">
+      <c r="E1" s="225" t="s">
+        <v>735</v>
+      </c>
+      <c r="F1" s="224" t="s">
         <v>423</v>
       </c>
-      <c r="G1" s="265" t="s">
+      <c r="G1" s="297" t="s">
         <v>514</v>
       </c>
-      <c r="H1" s="265" t="s">
+      <c r="H1" s="297" t="s">
         <v>424</v>
       </c>
-      <c r="I1" s="264" t="s">
+      <c r="I1" s="224" t="s">
         <v>425</v>
       </c>
-      <c r="J1" s="264" t="s">
+      <c r="J1" s="224" t="s">
         <v>426</v>
       </c>
       <c r="K1" s="125">
@@ -8202,11 +11644,11 @@
       <c r="CB1" s="126">
         <v>82</v>
       </c>
-      <c r="CC1" s="260">
+      <c r="CC1" s="295">
         <v>83</v>
       </c>
-      <c r="CD1" s="260"/>
-      <c r="CE1" s="260"/>
+      <c r="CD1" s="295"/>
+      <c r="CE1" s="295"/>
       <c r="CF1" s="126">
         <v>84</v>
       </c>
@@ -8324,21 +11766,21 @@
       <c r="DR1" s="126">
         <v>164</v>
       </c>
-      <c r="DS1" s="259" t="s">
+      <c r="DS1" s="294" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="2" spans="1:126" s="129" customFormat="1" ht="195.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="264"/>
-      <c r="B2" s="267"/>
-      <c r="C2" s="264"/>
-      <c r="D2" s="264"/>
-      <c r="E2" s="267"/>
-      <c r="F2" s="264"/>
-      <c r="G2" s="265"/>
-      <c r="H2" s="265"/>
-      <c r="I2" s="264"/>
-      <c r="J2" s="264"/>
+    <row r="2" spans="1:127" s="129" customFormat="1" ht="195.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="224"/>
+      <c r="B2" s="226"/>
+      <c r="C2" s="224"/>
+      <c r="D2" s="224"/>
+      <c r="E2" s="226"/>
+      <c r="F2" s="224"/>
+      <c r="G2" s="297"/>
+      <c r="H2" s="297"/>
+      <c r="I2" s="224"/>
+      <c r="J2" s="224"/>
       <c r="K2" s="128" t="s">
         <v>1</v>
       </c>
@@ -8675,9 +12117,12 @@
       <c r="DR2" s="128" t="s">
         <v>416</v>
       </c>
-      <c r="DS2" s="259"/>
-    </row>
-    <row r="3" spans="1:126" s="136" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="DS2" s="294"/>
+      <c r="DW2" s="212" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="3" spans="1:127" s="136" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="149" t="s">
         <v>430</v>
       </c>
@@ -8705,10 +12150,10 @@
       <c r="O3" s="131">
         <v>27000</v>
       </c>
-      <c r="P3" s="258">
+      <c r="P3" s="293">
         <v>60000</v>
       </c>
-      <c r="Q3" s="258"/>
+      <c r="Q3" s="293"/>
       <c r="R3" s="132">
         <v>41000</v>
       </c>
@@ -9022,14 +12467,14 @@
       <c r="DR3" s="131">
         <v>205000</v>
       </c>
-      <c r="DS3" s="259"/>
-    </row>
-    <row r="4" spans="1:126" s="136" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="DS3" s="294"/>
+    </row>
+    <row r="4" spans="1:127" s="136" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="153">
         <v>1</v>
       </c>
       <c r="B4" s="153" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C4" s="154" t="s">
         <v>614</v>
@@ -9194,14 +12639,14 @@
         <v>2436000</v>
       </c>
     </row>
-    <row r="5" spans="1:126" s="136" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="153">
+    <row r="5" spans="1:127" s="136" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="211">
         <v>2</v>
       </c>
       <c r="B5" s="153" t="s">
-        <v>657</v>
-      </c>
-      <c r="C5" s="163" t="s">
+        <v>656</v>
+      </c>
+      <c r="C5" s="210" t="s">
         <v>431</v>
       </c>
       <c r="D5" s="153" t="s">
@@ -9276,7 +12721,7 @@
       <c r="AG5" s="157"/>
       <c r="AH5" s="157"/>
       <c r="AI5" s="157" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AJ5" s="157"/>
       <c r="AK5" s="157"/>
@@ -9390,12 +12835,12 @@
         <v>-2246000</v>
       </c>
     </row>
-    <row r="6" spans="1:126" s="167" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:127" s="167" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="153">
         <v>3</v>
       </c>
       <c r="B6" s="153" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C6" s="163" t="s">
         <v>434</v>
@@ -9454,7 +12899,7 @@
         <v>519</v>
       </c>
       <c r="W6" s="164" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="X6" s="164" t="s">
         <v>519</v>
@@ -9572,18 +13017,18 @@
         <v>724000</v>
       </c>
       <c r="DU6" s="166" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="DV6" s="166" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="7" spans="1:126" s="136" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="7" spans="1:127" s="136" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="153">
         <v>4</v>
       </c>
       <c r="B7" s="153" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C7" s="163" t="s">
         <v>435</v>
@@ -9786,12 +13231,12 @@
         <v>-743000</v>
       </c>
     </row>
-    <row r="8" spans="1:126" s="136" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:127" s="136" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="153">
         <v>5</v>
       </c>
       <c r="B8" s="153" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C8" s="163" t="s">
         <v>436</v>
@@ -9959,13 +13404,16 @@
         <f>3000000-DS8</f>
         <v>1898000</v>
       </c>
-    </row>
-    <row r="9" spans="1:126" s="136" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="DW8" s="136" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="9" spans="1:127" s="136" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="153">
         <v>6</v>
       </c>
       <c r="B9" s="153" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C9" s="163" t="s">
         <v>438</v>
@@ -10028,12 +13476,12 @@
       <c r="Y9" s="168"/>
       <c r="Z9" s="157"/>
       <c r="AA9" s="157" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AB9" s="157"/>
       <c r="AC9" s="157"/>
       <c r="AD9" s="157" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AE9" s="169"/>
       <c r="AF9" s="157"/>
@@ -10144,12 +13592,12 @@
         <v>-4000</v>
       </c>
     </row>
-    <row r="10" spans="1:126" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:127" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="153">
         <v>7</v>
       </c>
       <c r="B10" s="153" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C10" s="163" t="s">
         <v>439</v>
@@ -10340,14 +13788,14 @@
         <v>-396000</v>
       </c>
     </row>
-    <row r="11" spans="1:126" s="136" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="153">
+    <row r="11" spans="1:127" s="136" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="211">
         <v>8</v>
       </c>
       <c r="B11" s="153" t="s">
-        <v>663</v>
-      </c>
-      <c r="C11" s="163" t="s">
+        <v>662</v>
+      </c>
+      <c r="C11" s="210" t="s">
         <v>440</v>
       </c>
       <c r="D11" s="153" t="s">
@@ -10406,12 +13854,12 @@
       <c r="Y11" s="157"/>
       <c r="Z11" s="157"/>
       <c r="AA11" s="157" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AB11" s="157"/>
       <c r="AC11" s="157"/>
       <c r="AD11" s="157" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AE11" s="157" t="s">
         <v>519</v>
@@ -10420,7 +13868,7 @@
       <c r="AG11" s="157"/>
       <c r="AH11" s="157"/>
       <c r="AI11" s="157" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AJ11" s="157"/>
       <c r="AK11" s="157"/>
@@ -10538,15 +13986,15 @@
         <v>-1693000</v>
       </c>
       <c r="DU11" s="136" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="12" spans="1:126" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="12" spans="1:127" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="153">
         <v>9</v>
       </c>
       <c r="B12" s="153" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C12" s="163" t="s">
         <v>441</v>
@@ -10743,12 +14191,12 @@
         <v>-562000</v>
       </c>
     </row>
-    <row r="13" spans="1:126" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:127" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="153">
         <v>10</v>
       </c>
       <c r="B13" s="153" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C13" s="163" t="s">
         <v>442</v>
@@ -10943,12 +14391,12 @@
         <v>-577000</v>
       </c>
     </row>
-    <row r="14" spans="1:126" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:127" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="153">
         <v>11</v>
       </c>
       <c r="B14" s="153" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C14" s="163" t="s">
         <v>443</v>
@@ -11135,14 +14583,14 @@
         <v>-631000</v>
       </c>
     </row>
-    <row r="15" spans="1:126" s="136" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="153">
+    <row r="15" spans="1:127" s="136" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="211">
         <v>12</v>
       </c>
       <c r="B15" s="153" t="s">
-        <v>667</v>
-      </c>
-      <c r="C15" s="163" t="s">
+        <v>666</v>
+      </c>
+      <c r="C15" s="210" t="s">
         <v>444</v>
       </c>
       <c r="D15" s="153" t="s">
@@ -11215,7 +14663,7 @@
       <c r="AG15" s="157"/>
       <c r="AH15" s="157"/>
       <c r="AI15" s="157" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AJ15" s="157"/>
       <c r="AK15" s="157"/>
@@ -11294,7 +14742,7 @@
       <c r="CR15" s="157"/>
       <c r="CS15" s="157"/>
       <c r="CT15" s="153" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="CU15" s="157"/>
       <c r="CV15" s="157"/>
@@ -11337,15 +14785,18 @@
         <v>-1273000</v>
       </c>
       <c r="DU15" s="136" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="16" spans="1:126" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+        <v>649</v>
+      </c>
+      <c r="DW15" s="136" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="16" spans="1:127" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="153">
         <v>13</v>
       </c>
       <c r="B16" s="153" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C16" s="163" t="s">
         <v>445</v>
@@ -11544,12 +14995,12 @@
         <v>-318000</v>
       </c>
     </row>
-    <row r="17" spans="1:125" s="136" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:125" s="136" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="153">
         <v>14</v>
       </c>
       <c r="B17" s="153" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C17" s="163" t="s">
         <v>446</v>
@@ -11722,209 +15173,209 @@
         <v>-103000</v>
       </c>
     </row>
-    <row r="18" spans="1:125" s="136" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="153">
+    <row r="18" spans="1:125" s="203" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="192">
         <v>15</v>
       </c>
-      <c r="B18" s="153" t="s">
-        <v>670</v>
-      </c>
-      <c r="C18" s="163" t="s">
+      <c r="B18" s="192" t="s">
+        <v>669</v>
+      </c>
+      <c r="C18" s="193" t="s">
         <v>447</v>
       </c>
-      <c r="D18" s="153" t="s">
+      <c r="D18" s="192" t="s">
         <v>437</v>
       </c>
-      <c r="E18" s="153">
+      <c r="E18" s="192">
         <v>1986</v>
       </c>
-      <c r="F18" s="153">
+      <c r="F18" s="192">
         <v>1986</v>
       </c>
-      <c r="G18" s="160" t="s">
+      <c r="G18" s="194" t="s">
         <v>433</v>
       </c>
-      <c r="H18" s="154" t="s">
+      <c r="H18" s="204" t="s">
         <v>552</v>
       </c>
-      <c r="I18" s="157" t="s">
+      <c r="I18" s="199" t="s">
         <v>561</v>
       </c>
-      <c r="J18" s="164"/>
-      <c r="K18" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="L18" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="M18" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="N18" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="O18" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="P18" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="Q18" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="R18" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="S18" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="T18" s="160"/>
-      <c r="U18" s="160"/>
-      <c r="V18" s="160"/>
-      <c r="W18" s="160"/>
-      <c r="X18" s="160"/>
-      <c r="Y18" s="168"/>
-      <c r="Z18" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="AA18" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="AB18" s="157"/>
-      <c r="AC18" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="AD18" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="AE18" s="169"/>
-      <c r="AF18" s="157"/>
-      <c r="AG18" s="157"/>
-      <c r="AH18" s="157"/>
-      <c r="AI18" s="157" t="s">
-        <v>648</v>
-      </c>
-      <c r="AJ18" s="157"/>
-      <c r="AK18" s="157"/>
-      <c r="AL18" s="157"/>
-      <c r="AM18" s="157"/>
-      <c r="AN18" s="157"/>
-      <c r="AO18" s="157"/>
-      <c r="AP18" s="157"/>
-      <c r="AQ18" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="AR18" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="AS18" s="157"/>
-      <c r="AT18" s="157"/>
-      <c r="AU18" s="157"/>
-      <c r="AV18" s="157"/>
-      <c r="AW18" s="157"/>
-      <c r="AX18" s="157"/>
-      <c r="AY18" s="157"/>
-      <c r="AZ18" s="157"/>
-      <c r="BA18" s="157"/>
-      <c r="BB18" s="157"/>
-      <c r="BC18" s="157"/>
-      <c r="BD18" s="157"/>
-      <c r="BE18" s="157"/>
-      <c r="BF18" s="157"/>
-      <c r="BG18" s="157"/>
-      <c r="BH18" s="157"/>
-      <c r="BI18" s="157"/>
-      <c r="BJ18" s="157"/>
-      <c r="BK18" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="BL18" s="157"/>
-      <c r="BM18" s="157"/>
-      <c r="BN18" s="157"/>
-      <c r="BO18" s="157"/>
-      <c r="BP18" s="157"/>
-      <c r="BQ18" s="157"/>
-      <c r="BR18" s="157"/>
-      <c r="BS18" s="157"/>
-      <c r="BT18" s="157"/>
-      <c r="BU18" s="157"/>
-      <c r="BV18" s="157"/>
-      <c r="BW18" s="157"/>
-      <c r="BX18" s="157"/>
-      <c r="BY18" s="157"/>
-      <c r="BZ18" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="CA18" s="157"/>
-      <c r="CB18" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="CC18" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="CD18" s="157"/>
-      <c r="CE18" s="157"/>
-      <c r="CF18" s="157"/>
-      <c r="CG18" s="157"/>
-      <c r="CH18" s="157"/>
-      <c r="CI18" s="157"/>
-      <c r="CJ18" s="157"/>
-      <c r="CK18" s="157"/>
-      <c r="CL18" s="157"/>
-      <c r="CM18" s="157"/>
-      <c r="CN18" s="157"/>
-      <c r="CO18" s="157"/>
-      <c r="CP18" s="157"/>
-      <c r="CQ18" s="157"/>
-      <c r="CR18" s="157"/>
-      <c r="CS18" s="157"/>
-      <c r="CT18" s="157" t="s">
-        <v>648</v>
-      </c>
-      <c r="CU18" s="157"/>
-      <c r="CV18" s="157"/>
-      <c r="CW18" s="157"/>
-      <c r="CX18" s="157"/>
-      <c r="CY18" s="157"/>
-      <c r="CZ18" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="DA18" s="157"/>
-      <c r="DB18" s="157"/>
-      <c r="DC18" s="157"/>
-      <c r="DD18" s="157"/>
-      <c r="DE18" s="157"/>
-      <c r="DF18" s="157"/>
-      <c r="DG18" s="157"/>
-      <c r="DH18" s="157"/>
-      <c r="DI18" s="157"/>
-      <c r="DJ18" s="157"/>
-      <c r="DK18" s="157"/>
-      <c r="DL18" s="157"/>
-      <c r="DM18" s="157"/>
-      <c r="DN18" s="157"/>
-      <c r="DO18" s="157"/>
-      <c r="DP18" s="157"/>
-      <c r="DQ18" s="157"/>
-      <c r="DR18" s="157"/>
-      <c r="DS18" s="161">
+      <c r="J18" s="205"/>
+      <c r="K18" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="L18" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="M18" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="N18" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="O18" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="P18" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q18" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="R18" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="S18" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="T18" s="194"/>
+      <c r="U18" s="194"/>
+      <c r="V18" s="194"/>
+      <c r="W18" s="194"/>
+      <c r="X18" s="194"/>
+      <c r="Y18" s="198"/>
+      <c r="Z18" s="199" t="s">
+        <v>519</v>
+      </c>
+      <c r="AA18" s="199" t="s">
+        <v>519</v>
+      </c>
+      <c r="AB18" s="199"/>
+      <c r="AC18" s="199" t="s">
+        <v>519</v>
+      </c>
+      <c r="AD18" s="199" t="s">
+        <v>519</v>
+      </c>
+      <c r="AE18" s="200"/>
+      <c r="AF18" s="199"/>
+      <c r="AG18" s="199"/>
+      <c r="AH18" s="199"/>
+      <c r="AI18" s="199" t="s">
+        <v>647</v>
+      </c>
+      <c r="AJ18" s="199"/>
+      <c r="AK18" s="199"/>
+      <c r="AL18" s="199"/>
+      <c r="AM18" s="199"/>
+      <c r="AN18" s="199"/>
+      <c r="AO18" s="199"/>
+      <c r="AP18" s="199"/>
+      <c r="AQ18" s="199" t="s">
+        <v>519</v>
+      </c>
+      <c r="AR18" s="199" t="s">
+        <v>519</v>
+      </c>
+      <c r="AS18" s="199"/>
+      <c r="AT18" s="199"/>
+      <c r="AU18" s="199"/>
+      <c r="AV18" s="199"/>
+      <c r="AW18" s="199"/>
+      <c r="AX18" s="199"/>
+      <c r="AY18" s="199"/>
+      <c r="AZ18" s="199"/>
+      <c r="BA18" s="199"/>
+      <c r="BB18" s="199"/>
+      <c r="BC18" s="199"/>
+      <c r="BD18" s="199"/>
+      <c r="BE18" s="199"/>
+      <c r="BF18" s="199"/>
+      <c r="BG18" s="199"/>
+      <c r="BH18" s="199"/>
+      <c r="BI18" s="199"/>
+      <c r="BJ18" s="199"/>
+      <c r="BK18" s="199" t="s">
+        <v>519</v>
+      </c>
+      <c r="BL18" s="199"/>
+      <c r="BM18" s="199"/>
+      <c r="BN18" s="199"/>
+      <c r="BO18" s="199"/>
+      <c r="BP18" s="199"/>
+      <c r="BQ18" s="199"/>
+      <c r="BR18" s="199"/>
+      <c r="BS18" s="199"/>
+      <c r="BT18" s="199"/>
+      <c r="BU18" s="199"/>
+      <c r="BV18" s="199"/>
+      <c r="BW18" s="199"/>
+      <c r="BX18" s="199"/>
+      <c r="BY18" s="199"/>
+      <c r="BZ18" s="199" t="s">
+        <v>519</v>
+      </c>
+      <c r="CA18" s="199"/>
+      <c r="CB18" s="199" t="s">
+        <v>519</v>
+      </c>
+      <c r="CC18" s="199" t="s">
+        <v>519</v>
+      </c>
+      <c r="CD18" s="199"/>
+      <c r="CE18" s="199"/>
+      <c r="CF18" s="199"/>
+      <c r="CG18" s="199"/>
+      <c r="CH18" s="199"/>
+      <c r="CI18" s="199"/>
+      <c r="CJ18" s="199"/>
+      <c r="CK18" s="199"/>
+      <c r="CL18" s="199"/>
+      <c r="CM18" s="199"/>
+      <c r="CN18" s="199"/>
+      <c r="CO18" s="199"/>
+      <c r="CP18" s="199"/>
+      <c r="CQ18" s="199"/>
+      <c r="CR18" s="199"/>
+      <c r="CS18" s="199"/>
+      <c r="CT18" s="199" t="s">
+        <v>647</v>
+      </c>
+      <c r="CU18" s="199"/>
+      <c r="CV18" s="199"/>
+      <c r="CW18" s="199"/>
+      <c r="CX18" s="199"/>
+      <c r="CY18" s="199"/>
+      <c r="CZ18" s="199" t="s">
+        <v>519</v>
+      </c>
+      <c r="DA18" s="199"/>
+      <c r="DB18" s="199"/>
+      <c r="DC18" s="199"/>
+      <c r="DD18" s="199"/>
+      <c r="DE18" s="199"/>
+      <c r="DF18" s="199"/>
+      <c r="DG18" s="199"/>
+      <c r="DH18" s="199"/>
+      <c r="DI18" s="199"/>
+      <c r="DJ18" s="199"/>
+      <c r="DK18" s="199"/>
+      <c r="DL18" s="199"/>
+      <c r="DM18" s="199"/>
+      <c r="DN18" s="199"/>
+      <c r="DO18" s="199"/>
+      <c r="DP18" s="199"/>
+      <c r="DQ18" s="199"/>
+      <c r="DR18" s="199"/>
+      <c r="DS18" s="201">
         <f t="shared" si="0"/>
         <v>3769000</v>
       </c>
-      <c r="DT18" s="162">
+      <c r="DT18" s="202">
         <f t="shared" ref="DT18:DT19" si="3">3000000-DS18</f>
         <v>-769000</v>
       </c>
-      <c r="DU18" s="136" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="19" spans="1:125" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="DU18" s="203" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="19" spans="1:125" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="153">
         <v>16</v>
       </c>
       <c r="B19" s="153" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C19" s="163" t="s">
         <v>448</v>
@@ -12113,12 +15564,12 @@
         <v>-163000</v>
       </c>
     </row>
-    <row r="20" spans="1:125" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:125" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="153">
         <v>17</v>
       </c>
       <c r="B20" s="153" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C20" s="163" t="s">
         <v>449</v>
@@ -12303,12 +15754,12 @@
         <v>434000</v>
       </c>
     </row>
-    <row r="21" spans="1:125" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:125" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="153">
         <v>18</v>
       </c>
       <c r="B21" s="153" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C21" s="163" t="s">
         <v>450</v>
@@ -12481,12 +15932,12 @@
         <v>-331000</v>
       </c>
     </row>
-    <row r="22" spans="1:125" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:125" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="153">
         <v>19</v>
       </c>
       <c r="B22" s="153" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C22" s="163" t="s">
         <v>451</v>
@@ -12655,213 +16106,213 @@
         <v>-3000</v>
       </c>
     </row>
-    <row r="23" spans="1:125" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="153">
+    <row r="23" spans="1:125" s="203" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="192">
         <v>20</v>
       </c>
-      <c r="B23" s="153" t="s">
-        <v>675</v>
-      </c>
-      <c r="C23" s="163" t="s">
+      <c r="B23" s="192" t="s">
+        <v>674</v>
+      </c>
+      <c r="C23" s="193" t="s">
         <v>452</v>
       </c>
-      <c r="D23" s="153" t="s">
+      <c r="D23" s="192" t="s">
         <v>437</v>
       </c>
-      <c r="E23" s="153">
+      <c r="E23" s="192">
         <v>1982</v>
       </c>
-      <c r="F23" s="153">
+      <c r="F23" s="192">
         <v>1982</v>
       </c>
-      <c r="G23" s="160" t="s">
+      <c r="G23" s="194" t="s">
         <v>433</v>
       </c>
-      <c r="H23" s="171" t="s">
+      <c r="H23" s="195" t="s">
         <v>551</v>
       </c>
-      <c r="I23" s="173" t="s">
+      <c r="I23" s="196" t="s">
         <v>560</v>
       </c>
-      <c r="J23" s="171"/>
-      <c r="K23" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="L23" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="M23" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="N23" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="O23" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="P23" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="Q23" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="R23" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="S23" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="T23" s="160"/>
-      <c r="U23" s="160"/>
-      <c r="V23" s="160"/>
-      <c r="W23" s="160"/>
-      <c r="X23" s="160"/>
-      <c r="Y23" s="168"/>
-      <c r="Z23" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="AA23" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="AB23" s="157"/>
-      <c r="AC23" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="AD23" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="AE23" s="169"/>
-      <c r="AF23" s="157"/>
-      <c r="AG23" s="157"/>
-      <c r="AH23" s="157"/>
-      <c r="AI23" s="157" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ23" s="157"/>
-      <c r="AK23" s="157"/>
-      <c r="AL23" s="157"/>
-      <c r="AM23" s="157"/>
-      <c r="AN23" s="157"/>
-      <c r="AO23" s="157"/>
-      <c r="AP23" s="157"/>
-      <c r="AQ23" s="157"/>
-      <c r="AR23" s="157"/>
-      <c r="AS23" s="157"/>
-      <c r="AT23" s="157"/>
-      <c r="AU23" s="157"/>
-      <c r="AV23" s="157"/>
-      <c r="AW23" s="157"/>
-      <c r="AX23" s="157"/>
-      <c r="AY23" s="157"/>
-      <c r="AZ23" s="157"/>
-      <c r="BA23" s="157"/>
-      <c r="BB23" s="157"/>
-      <c r="BC23" s="157"/>
-      <c r="BD23" s="157"/>
-      <c r="BE23" s="157"/>
-      <c r="BF23" s="157"/>
-      <c r="BG23" s="157"/>
-      <c r="BH23" s="157"/>
-      <c r="BI23" s="157"/>
-      <c r="BJ23" s="157"/>
-      <c r="BK23" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="BL23" s="157"/>
-      <c r="BM23" s="157"/>
-      <c r="BN23" s="157"/>
-      <c r="BO23" s="157"/>
-      <c r="BP23" s="157"/>
-      <c r="BQ23" s="157"/>
-      <c r="BR23" s="157"/>
-      <c r="BS23" s="157"/>
-      <c r="BT23" s="157"/>
-      <c r="BU23" s="157"/>
-      <c r="BV23" s="157"/>
-      <c r="BW23" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="BX23" s="157"/>
-      <c r="BY23" s="157"/>
-      <c r="BZ23" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="CA23" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="CB23" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="CC23" s="157"/>
-      <c r="CD23" s="157"/>
-      <c r="CE23" s="157"/>
-      <c r="CF23" s="157"/>
-      <c r="CG23" s="157"/>
-      <c r="CH23" s="157"/>
-      <c r="CI23" s="157"/>
-      <c r="CJ23" s="157"/>
-      <c r="CK23" s="157"/>
-      <c r="CL23" s="157"/>
-      <c r="CM23" s="157"/>
-      <c r="CN23" s="157"/>
-      <c r="CO23" s="157"/>
-      <c r="CP23" s="157"/>
-      <c r="CQ23" s="157"/>
-      <c r="CR23" s="157"/>
-      <c r="CS23" s="157"/>
-      <c r="CT23" s="157" t="s">
-        <v>645</v>
-      </c>
-      <c r="CU23" s="157"/>
-      <c r="CV23" s="157"/>
-      <c r="CW23" s="157"/>
-      <c r="CX23" s="157"/>
-      <c r="CY23" s="157"/>
-      <c r="CZ23" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="DA23" s="157"/>
-      <c r="DB23" s="157"/>
-      <c r="DC23" s="157"/>
-      <c r="DD23" s="157"/>
-      <c r="DE23" s="157"/>
-      <c r="DF23" s="157"/>
-      <c r="DG23" s="157"/>
-      <c r="DH23" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="DI23" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="DJ23" s="157"/>
-      <c r="DK23" s="157"/>
-      <c r="DL23" s="157"/>
-      <c r="DM23" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="DN23" s="157"/>
-      <c r="DO23" s="157"/>
-      <c r="DP23" s="157"/>
-      <c r="DQ23" s="157"/>
-      <c r="DR23" s="157"/>
-      <c r="DS23" s="161">
+      <c r="J23" s="195"/>
+      <c r="K23" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="L23" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="M23" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="N23" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="O23" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="P23" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q23" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="R23" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="S23" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="T23" s="194"/>
+      <c r="U23" s="194"/>
+      <c r="V23" s="194"/>
+      <c r="W23" s="194"/>
+      <c r="X23" s="194"/>
+      <c r="Y23" s="198"/>
+      <c r="Z23" s="199" t="s">
+        <v>519</v>
+      </c>
+      <c r="AA23" s="199" t="s">
+        <v>519</v>
+      </c>
+      <c r="AB23" s="199"/>
+      <c r="AC23" s="199" t="s">
+        <v>519</v>
+      </c>
+      <c r="AD23" s="199" t="s">
+        <v>519</v>
+      </c>
+      <c r="AE23" s="200"/>
+      <c r="AF23" s="199"/>
+      <c r="AG23" s="199"/>
+      <c r="AH23" s="199"/>
+      <c r="AI23" s="199" t="s">
+        <v>519</v>
+      </c>
+      <c r="AJ23" s="199"/>
+      <c r="AK23" s="199"/>
+      <c r="AL23" s="199"/>
+      <c r="AM23" s="199"/>
+      <c r="AN23" s="199"/>
+      <c r="AO23" s="199"/>
+      <c r="AP23" s="199"/>
+      <c r="AQ23" s="199"/>
+      <c r="AR23" s="199"/>
+      <c r="AS23" s="199"/>
+      <c r="AT23" s="199"/>
+      <c r="AU23" s="199"/>
+      <c r="AV23" s="199"/>
+      <c r="AW23" s="199"/>
+      <c r="AX23" s="199"/>
+      <c r="AY23" s="199"/>
+      <c r="AZ23" s="199"/>
+      <c r="BA23" s="199"/>
+      <c r="BB23" s="199"/>
+      <c r="BC23" s="199"/>
+      <c r="BD23" s="199"/>
+      <c r="BE23" s="199"/>
+      <c r="BF23" s="199"/>
+      <c r="BG23" s="199"/>
+      <c r="BH23" s="199"/>
+      <c r="BI23" s="199"/>
+      <c r="BJ23" s="199"/>
+      <c r="BK23" s="199" t="s">
+        <v>519</v>
+      </c>
+      <c r="BL23" s="199"/>
+      <c r="BM23" s="199"/>
+      <c r="BN23" s="199"/>
+      <c r="BO23" s="199"/>
+      <c r="BP23" s="199"/>
+      <c r="BQ23" s="199"/>
+      <c r="BR23" s="199"/>
+      <c r="BS23" s="199"/>
+      <c r="BT23" s="199"/>
+      <c r="BU23" s="199"/>
+      <c r="BV23" s="199"/>
+      <c r="BW23" s="199" t="s">
+        <v>519</v>
+      </c>
+      <c r="BX23" s="199"/>
+      <c r="BY23" s="199"/>
+      <c r="BZ23" s="199" t="s">
+        <v>519</v>
+      </c>
+      <c r="CA23" s="199" t="s">
+        <v>519</v>
+      </c>
+      <c r="CB23" s="199" t="s">
+        <v>519</v>
+      </c>
+      <c r="CC23" s="199"/>
+      <c r="CD23" s="199"/>
+      <c r="CE23" s="199"/>
+      <c r="CF23" s="199"/>
+      <c r="CG23" s="199"/>
+      <c r="CH23" s="199"/>
+      <c r="CI23" s="199"/>
+      <c r="CJ23" s="199"/>
+      <c r="CK23" s="199"/>
+      <c r="CL23" s="199"/>
+      <c r="CM23" s="199"/>
+      <c r="CN23" s="199"/>
+      <c r="CO23" s="199"/>
+      <c r="CP23" s="199"/>
+      <c r="CQ23" s="199"/>
+      <c r="CR23" s="199"/>
+      <c r="CS23" s="199"/>
+      <c r="CT23" s="199" t="s">
+        <v>519</v>
+      </c>
+      <c r="CU23" s="199"/>
+      <c r="CV23" s="199"/>
+      <c r="CW23" s="199"/>
+      <c r="CX23" s="199"/>
+      <c r="CY23" s="199"/>
+      <c r="CZ23" s="199" t="s">
+        <v>519</v>
+      </c>
+      <c r="DA23" s="199"/>
+      <c r="DB23" s="199"/>
+      <c r="DC23" s="199"/>
+      <c r="DD23" s="199"/>
+      <c r="DE23" s="199"/>
+      <c r="DF23" s="199"/>
+      <c r="DG23" s="199"/>
+      <c r="DH23" s="199" t="s">
+        <v>519</v>
+      </c>
+      <c r="DI23" s="199" t="s">
+        <v>519</v>
+      </c>
+      <c r="DJ23" s="199"/>
+      <c r="DK23" s="199"/>
+      <c r="DL23" s="199"/>
+      <c r="DM23" s="199" t="s">
+        <v>519</v>
+      </c>
+      <c r="DN23" s="199"/>
+      <c r="DO23" s="199"/>
+      <c r="DP23" s="199"/>
+      <c r="DQ23" s="199"/>
+      <c r="DR23" s="199"/>
+      <c r="DS23" s="201">
         <f t="shared" si="0"/>
-        <v>4077000</v>
-      </c>
-      <c r="DT23" s="162">
+        <v>4300000</v>
+      </c>
+      <c r="DT23" s="202">
         <f>3000000-DS23</f>
-        <v>-1077000</v>
-      </c>
-      <c r="DU23" s="136" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="24" spans="1:125" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+        <v>-1300000</v>
+      </c>
+      <c r="DU23" s="203" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="24" spans="1:125" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="153">
         <v>21</v>
       </c>
       <c r="B24" s="153" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C24" s="163" t="s">
         <v>453</v>
@@ -13044,12 +16495,12 @@
         <v>57000</v>
       </c>
     </row>
-    <row r="25" spans="1:125" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:125" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="153">
         <v>22</v>
       </c>
       <c r="B25" s="153" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C25" s="163" t="s">
         <v>454</v>
@@ -13232,12 +16683,12 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="26" spans="1:125" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:125" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="153">
         <v>23</v>
       </c>
       <c r="B26" s="153" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C26" s="163" t="s">
         <v>455</v>
@@ -13412,12 +16863,12 @@
         <v>-1485000</v>
       </c>
     </row>
-    <row r="27" spans="1:125" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:125" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="153">
         <v>24</v>
       </c>
       <c r="B27" s="153" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C27" s="163" t="s">
         <v>456</v>
@@ -13610,12 +17061,12 @@
         <v>-717000</v>
       </c>
     </row>
-    <row r="28" spans="1:125" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:125" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="153">
         <v>25</v>
       </c>
       <c r="B28" s="153" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C28" s="163" t="s">
         <v>457</v>
@@ -13814,12 +17265,12 @@
         <v>-1024000</v>
       </c>
     </row>
-    <row r="29" spans="1:125" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:125" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="153">
         <v>26</v>
       </c>
       <c r="B29" s="153" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C29" s="163" t="s">
         <v>458</v>
@@ -13988,12 +17439,12 @@
         <v>-2025000</v>
       </c>
     </row>
-    <row r="30" spans="1:125" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:125" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="153">
         <v>27</v>
       </c>
       <c r="B30" s="153" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C30" s="163" t="s">
         <v>459</v>
@@ -14172,12 +17623,12 @@
         <v>356000</v>
       </c>
     </row>
-    <row r="31" spans="1:125" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:125" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="153">
         <v>28</v>
       </c>
       <c r="B31" s="153" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C31" s="163" t="s">
         <v>460</v>
@@ -14358,12 +17809,12 @@
         <v>764000</v>
       </c>
     </row>
-    <row r="32" spans="1:125" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:125" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="153">
         <v>29</v>
       </c>
       <c r="B32" s="153" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C32" s="163" t="s">
         <v>461</v>
@@ -14528,12 +17979,12 @@
         <v>2436000</v>
       </c>
     </row>
-    <row r="33" spans="1:124" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:127" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="153">
         <v>30</v>
       </c>
       <c r="B33" s="153" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C33" s="163" t="s">
         <v>462</v>
@@ -14714,12 +18165,12 @@
         <v>1175000</v>
       </c>
     </row>
-    <row r="34" spans="1:124" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:127" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="153">
         <v>31</v>
       </c>
       <c r="B34" s="153" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C34" s="163" t="s">
         <v>463</v>
@@ -14904,12 +18355,12 @@
         <v>-400000</v>
       </c>
     </row>
-    <row r="35" spans="1:124" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:127" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="153">
         <v>32</v>
       </c>
       <c r="B35" s="153" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C35" s="163" t="s">
         <v>464</v>
@@ -15088,12 +18539,12 @@
         <v>1303000</v>
       </c>
     </row>
-    <row r="36" spans="1:124" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:127" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="153">
         <v>33</v>
       </c>
       <c r="B36" s="153" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C36" s="163" t="s">
         <v>465</v>
@@ -15272,12 +18723,12 @@
         <v>1303000</v>
       </c>
     </row>
-    <row r="37" spans="1:124" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:127" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="153">
         <v>34</v>
       </c>
       <c r="B37" s="153" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C37" s="163" t="s">
         <v>466</v>
@@ -15464,12 +18915,12 @@
         <v>659000</v>
       </c>
     </row>
-    <row r="38" spans="1:124" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:127" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="153">
         <v>35</v>
       </c>
       <c r="B38" s="153" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C38" s="163" t="s">
         <v>467</v>
@@ -15708,12 +19159,12 @@
         <v>-4175000</v>
       </c>
     </row>
-    <row r="39" spans="1:124" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:127" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="153">
         <v>36</v>
       </c>
       <c r="B39" s="153" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C39" s="163" t="s">
         <v>468</v>
@@ -15894,12 +19345,12 @@
         <v>-589000</v>
       </c>
     </row>
-    <row r="40" spans="1:124" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:127" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="153">
         <v>37</v>
       </c>
       <c r="B40" s="153" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C40" s="163" t="s">
         <v>469</v>
@@ -16068,12 +19519,12 @@
         <v>284000</v>
       </c>
     </row>
-    <row r="41" spans="1:124" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:127" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="153">
         <v>38</v>
       </c>
       <c r="B41" s="153" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C41" s="163" t="s">
         <v>470</v>
@@ -16262,12 +19713,12 @@
         <v>-153000</v>
       </c>
     </row>
-    <row r="42" spans="1:124" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:127" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="153">
         <v>39</v>
       </c>
       <c r="B42" s="153" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C42" s="163" t="s">
         <v>471</v>
@@ -16450,12 +19901,12 @@
         <v>-500000</v>
       </c>
     </row>
-    <row r="43" spans="1:124" s="136" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:127" s="136" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="153">
         <v>40</v>
       </c>
       <c r="B43" s="153" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C43" s="163" t="s">
         <v>472</v>
@@ -16648,12 +20099,12 @@
         <v>-910000</v>
       </c>
     </row>
-    <row r="44" spans="1:124" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:127" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="153">
         <v>41</v>
       </c>
       <c r="B44" s="153" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C44" s="163" t="s">
         <v>473</v>
@@ -16857,13 +20308,16 @@
         <f>3000000-DS44</f>
         <v>-595000</v>
       </c>
-    </row>
-    <row r="45" spans="1:124" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="DW44" s="136" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="45" spans="1:127" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="153">
         <v>42</v>
       </c>
       <c r="B45" s="153" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C45" s="163" t="s">
         <v>474</v>
@@ -17050,12 +20504,12 @@
         <v>-1085000</v>
       </c>
     </row>
-    <row r="46" spans="1:124" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:127" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="153">
         <v>43</v>
       </c>
       <c r="B46" s="153" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C46" s="163" t="s">
         <v>475</v>
@@ -17250,12 +20704,12 @@
         <v>-1455000</v>
       </c>
     </row>
-    <row r="47" spans="1:124" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:127" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="153">
         <v>44</v>
       </c>
       <c r="B47" s="153" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C47" s="163" t="s">
         <v>476</v>
@@ -17444,12 +20898,12 @@
         <v>-470000</v>
       </c>
     </row>
-    <row r="48" spans="1:124" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:127" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="153">
         <v>45</v>
       </c>
       <c r="B48" s="153" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C48" s="163" t="s">
         <v>477</v>
@@ -17648,227 +21102,225 @@
         <v>-595000</v>
       </c>
     </row>
-    <row r="49" spans="1:125" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="153">
+    <row r="49" spans="1:127" s="203" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="192">
         <v>46</v>
       </c>
-      <c r="B49" s="153" t="s">
-        <v>701</v>
-      </c>
-      <c r="C49" s="163" t="s">
+      <c r="B49" s="192" t="s">
+        <v>700</v>
+      </c>
+      <c r="C49" s="193" t="s">
         <v>478</v>
       </c>
-      <c r="D49" s="153" t="s">
+      <c r="D49" s="192" t="s">
         <v>437</v>
       </c>
-      <c r="E49" s="153">
+      <c r="E49" s="192">
         <v>1983</v>
       </c>
-      <c r="F49" s="153">
+      <c r="F49" s="192">
         <v>1983</v>
       </c>
-      <c r="G49" s="160" t="s">
+      <c r="G49" s="194" t="s">
         <v>433</v>
       </c>
-      <c r="H49" s="171" t="s">
+      <c r="H49" s="195" t="s">
         <v>598</v>
       </c>
-      <c r="I49" s="173" t="s">
+      <c r="I49" s="196" t="s">
         <v>600</v>
       </c>
-      <c r="J49" s="176"/>
-      <c r="K49" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="L49" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="M49" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="N49" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="O49" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="P49" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="Q49" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="R49" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="S49" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="T49" s="160"/>
-      <c r="U49" s="160"/>
-      <c r="V49" s="160"/>
-      <c r="W49" s="160"/>
-      <c r="X49" s="160"/>
-      <c r="Y49" s="157"/>
-      <c r="Z49" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="AA49" s="157" t="s">
+      <c r="J49" s="206"/>
+      <c r="K49" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="L49" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="M49" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="N49" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="O49" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="P49" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q49" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="R49" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="S49" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="T49" s="194"/>
+      <c r="U49" s="194"/>
+      <c r="V49" s="194"/>
+      <c r="W49" s="194"/>
+      <c r="X49" s="194"/>
+      <c r="Y49" s="199"/>
+      <c r="Z49" s="199"/>
+      <c r="AA49" s="199" t="s">
+        <v>519</v>
+      </c>
+      <c r="AB49" s="199"/>
+      <c r="AC49" s="199"/>
+      <c r="AD49" s="199" t="s">
+        <v>519</v>
+      </c>
+      <c r="AE49" s="199"/>
+      <c r="AF49" s="199"/>
+      <c r="AG49" s="199"/>
+      <c r="AH49" s="199"/>
+      <c r="AI49" s="199" t="s">
+        <v>519</v>
+      </c>
+      <c r="AJ49" s="199"/>
+      <c r="AK49" s="199"/>
+      <c r="AL49" s="199"/>
+      <c r="AM49" s="199"/>
+      <c r="AN49" s="199"/>
+      <c r="AO49" s="199"/>
+      <c r="AP49" s="199"/>
+      <c r="AQ49" s="199" t="s">
+        <v>519</v>
+      </c>
+      <c r="AR49" s="199" t="s">
+        <v>519</v>
+      </c>
+      <c r="AS49" s="199" t="s">
+        <v>519</v>
+      </c>
+      <c r="AT49" s="199"/>
+      <c r="AU49" s="199"/>
+      <c r="AV49" s="199"/>
+      <c r="AW49" s="199"/>
+      <c r="AX49" s="199"/>
+      <c r="AY49" s="199"/>
+      <c r="AZ49" s="199"/>
+      <c r="BA49" s="199"/>
+      <c r="BB49" s="199"/>
+      <c r="BC49" s="199"/>
+      <c r="BD49" s="199"/>
+      <c r="BE49" s="199"/>
+      <c r="BF49" s="199"/>
+      <c r="BG49" s="199"/>
+      <c r="BH49" s="199"/>
+      <c r="BI49" s="199"/>
+      <c r="BJ49" s="199"/>
+      <c r="BK49" s="199"/>
+      <c r="BL49" s="199"/>
+      <c r="BM49" s="199"/>
+      <c r="BN49" s="199"/>
+      <c r="BO49" s="199"/>
+      <c r="BP49" s="199"/>
+      <c r="BQ49" s="199"/>
+      <c r="BR49" s="199"/>
+      <c r="BS49" s="199"/>
+      <c r="BT49" s="199"/>
+      <c r="BU49" s="199"/>
+      <c r="BV49" s="199"/>
+      <c r="BW49" s="199"/>
+      <c r="BX49" s="199"/>
+      <c r="BY49" s="199"/>
+      <c r="BZ49" s="199" t="s">
+        <v>519</v>
+      </c>
+      <c r="CA49" s="199" t="s">
+        <v>519</v>
+      </c>
+      <c r="CB49" s="199" t="s">
+        <v>519</v>
+      </c>
+      <c r="CC49" s="199"/>
+      <c r="CD49" s="199"/>
+      <c r="CE49" s="199"/>
+      <c r="CF49" s="199"/>
+      <c r="CG49" s="199"/>
+      <c r="CH49" s="199"/>
+      <c r="CI49" s="199"/>
+      <c r="CJ49" s="199"/>
+      <c r="CK49" s="199"/>
+      <c r="CL49" s="199"/>
+      <c r="CM49" s="199"/>
+      <c r="CN49" s="199" t="s">
         <v>645</v>
       </c>
-      <c r="AB49" s="157"/>
-      <c r="AC49" s="157"/>
-      <c r="AD49" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="AE49" s="157"/>
-      <c r="AF49" s="157"/>
-      <c r="AG49" s="157"/>
-      <c r="AH49" s="157"/>
-      <c r="AI49" s="157" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ49" s="157"/>
-      <c r="AK49" s="157"/>
-      <c r="AL49" s="157"/>
-      <c r="AM49" s="157"/>
-      <c r="AN49" s="157"/>
-      <c r="AO49" s="157"/>
-      <c r="AP49" s="157"/>
-      <c r="AQ49" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="AR49" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="AS49" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="AT49" s="157"/>
-      <c r="AU49" s="157"/>
-      <c r="AV49" s="157"/>
-      <c r="AW49" s="157"/>
-      <c r="AX49" s="157"/>
-      <c r="AY49" s="157"/>
-      <c r="AZ49" s="157"/>
-      <c r="BA49" s="157"/>
-      <c r="BB49" s="157"/>
-      <c r="BC49" s="157"/>
-      <c r="BD49" s="157"/>
-      <c r="BE49" s="157"/>
-      <c r="BF49" s="157"/>
-      <c r="BG49" s="157"/>
-      <c r="BH49" s="157"/>
-      <c r="BI49" s="157"/>
-      <c r="BJ49" s="157"/>
-      <c r="BK49" s="157"/>
-      <c r="BL49" s="157"/>
-      <c r="BM49" s="157"/>
-      <c r="BN49" s="157"/>
-      <c r="BO49" s="157"/>
-      <c r="BP49" s="157"/>
-      <c r="BQ49" s="157"/>
-      <c r="BR49" s="157"/>
-      <c r="BS49" s="157"/>
-      <c r="BT49" s="157"/>
-      <c r="BU49" s="157"/>
-      <c r="BV49" s="157"/>
-      <c r="BW49" s="157"/>
-      <c r="BX49" s="157"/>
-      <c r="BY49" s="157"/>
-      <c r="BZ49" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="CA49" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="CB49" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="CC49" s="157"/>
-      <c r="CD49" s="157"/>
-      <c r="CE49" s="157"/>
-      <c r="CF49" s="157"/>
-      <c r="CG49" s="157"/>
-      <c r="CH49" s="157"/>
-      <c r="CI49" s="157"/>
-      <c r="CJ49" s="157"/>
-      <c r="CK49" s="157"/>
-      <c r="CL49" s="157"/>
-      <c r="CM49" s="157"/>
-      <c r="CN49" s="157" t="s">
-        <v>646</v>
-      </c>
-      <c r="CO49" s="157"/>
-      <c r="CP49" s="157"/>
-      <c r="CQ49" s="157"/>
-      <c r="CR49" s="157"/>
-      <c r="CS49" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="CT49" s="157" t="s">
-        <v>645</v>
-      </c>
-      <c r="CU49" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="CV49" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="CW49" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="CX49" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="CY49" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="CZ49" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="DA49" s="157"/>
-      <c r="DB49" s="157"/>
-      <c r="DC49" s="157"/>
-      <c r="DD49" s="157"/>
-      <c r="DE49" s="157"/>
-      <c r="DF49" s="157"/>
-      <c r="DG49" s="157"/>
-      <c r="DH49" s="157"/>
-      <c r="DI49" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="DJ49" s="157"/>
-      <c r="DK49" s="157"/>
-      <c r="DL49" s="157"/>
-      <c r="DM49" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="DN49" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="DO49" s="157"/>
-      <c r="DP49" s="157"/>
-      <c r="DQ49" s="157"/>
-      <c r="DR49" s="157"/>
-      <c r="DS49" s="161">
+      <c r="CO49" s="199"/>
+      <c r="CP49" s="199"/>
+      <c r="CQ49" s="199"/>
+      <c r="CR49" s="199"/>
+      <c r="CS49" s="199" t="s">
+        <v>519</v>
+      </c>
+      <c r="CT49" s="199" t="s">
+        <v>519</v>
+      </c>
+      <c r="CU49" s="199" t="s">
+        <v>519</v>
+      </c>
+      <c r="CV49" s="199" t="s">
+        <v>519</v>
+      </c>
+      <c r="CW49" s="199" t="s">
+        <v>519</v>
+      </c>
+      <c r="CX49" s="199" t="s">
+        <v>519</v>
+      </c>
+      <c r="CY49" s="199" t="s">
+        <v>519</v>
+      </c>
+      <c r="CZ49" s="199" t="s">
+        <v>519</v>
+      </c>
+      <c r="DA49" s="199"/>
+      <c r="DB49" s="199"/>
+      <c r="DC49" s="199"/>
+      <c r="DD49" s="199"/>
+      <c r="DE49" s="199"/>
+      <c r="DF49" s="199"/>
+      <c r="DG49" s="199"/>
+      <c r="DH49" s="199"/>
+      <c r="DI49" s="199" t="s">
+        <v>519</v>
+      </c>
+      <c r="DJ49" s="199"/>
+      <c r="DK49" s="199"/>
+      <c r="DL49" s="199"/>
+      <c r="DM49" s="199" t="s">
+        <v>519</v>
+      </c>
+      <c r="DN49" s="199" t="s">
+        <v>519</v>
+      </c>
+      <c r="DO49" s="199"/>
+      <c r="DP49" s="199"/>
+      <c r="DQ49" s="199"/>
+      <c r="DR49" s="199"/>
+      <c r="DS49" s="201">
         <f t="shared" si="0"/>
-        <v>4997000</v>
-      </c>
-      <c r="DT49" s="162">
+        <v>5238000</v>
+      </c>
+      <c r="DT49" s="202">
         <f t="shared" si="9"/>
-        <v>-1997000</v>
-      </c>
-      <c r="DU49" s="136" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="50" spans="1:125" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+        <v>-2238000</v>
+      </c>
+      <c r="DU49" s="203" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="50" spans="1:127" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="153">
         <v>47</v>
       </c>
       <c r="B50" s="153" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C50" s="163" t="s">
         <v>479</v>
@@ -18061,12 +21513,12 @@
         <v>-559000</v>
       </c>
     </row>
-    <row r="51" spans="1:125" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:127" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="153">
         <v>48</v>
       </c>
       <c r="B51" s="153" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C51" s="163" t="s">
         <v>480</v>
@@ -18231,12 +21683,12 @@
         <v>2436000</v>
       </c>
     </row>
-    <row r="52" spans="1:125" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:127" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="153">
         <v>49</v>
       </c>
       <c r="B52" s="153" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C52" s="171" t="s">
         <v>481</v>
@@ -18411,12 +21863,12 @@
         <v>-89000</v>
       </c>
     </row>
-    <row r="53" spans="1:125" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:127" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="153">
         <v>50</v>
       </c>
       <c r="B53" s="153" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C53" s="163" t="s">
         <v>482</v>
@@ -18601,12 +22053,12 @@
         <v>-402000</v>
       </c>
     </row>
-    <row r="54" spans="1:125" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:127" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="153">
         <v>51</v>
       </c>
       <c r="B54" s="153" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C54" s="163" t="s">
         <v>483</v>
@@ -18797,12 +22249,12 @@
         <v>-419000</v>
       </c>
     </row>
-    <row r="55" spans="1:125" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:127" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="153">
         <v>52</v>
       </c>
       <c r="B55" s="153" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C55" s="185" t="s">
         <v>484</v>
@@ -19003,12 +22455,12 @@
         <v>-180000</v>
       </c>
     </row>
-    <row r="56" spans="1:125" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:127" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="153">
         <v>53</v>
       </c>
       <c r="B56" s="153" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C56" s="184" t="s">
         <v>485</v>
@@ -19074,7 +22526,7 @@
         <v>519</v>
       </c>
       <c r="AD56" s="157" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AE56" s="157"/>
       <c r="AF56" s="157"/>
@@ -19201,12 +22653,12 @@
         <v>-946000</v>
       </c>
     </row>
-    <row r="57" spans="1:125" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:127" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="153">
         <v>54</v>
       </c>
       <c r="B57" s="153" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C57" s="163" t="s">
         <v>486</v>
@@ -19401,12 +22853,12 @@
         <v>-440000</v>
       </c>
     </row>
-    <row r="58" spans="1:125" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:127" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="153">
         <v>55</v>
       </c>
       <c r="B58" s="153" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C58" s="163" t="s">
         <v>487</v>
@@ -19581,12 +23033,12 @@
         <v>-300000</v>
       </c>
     </row>
-    <row r="59" spans="1:125" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:127" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="153">
         <v>56</v>
       </c>
       <c r="B59" s="153" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C59" s="163" t="s">
         <v>488</v>
@@ -19654,7 +23106,7 @@
         <v>519</v>
       </c>
       <c r="AD59" s="157" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AE59" s="157"/>
       <c r="AF59" s="157"/>
@@ -19767,12 +23219,12 @@
         <v>-14000</v>
       </c>
     </row>
-    <row r="60" spans="1:125" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:127" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="153">
         <v>57</v>
       </c>
       <c r="B60" s="153" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C60" s="163" t="s">
         <v>489</v>
@@ -19969,12 +23421,12 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="61" spans="1:125" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:127" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="153">
         <v>58</v>
       </c>
       <c r="B61" s="153" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C61" s="163" t="s">
         <v>490</v>
@@ -20159,12 +23611,12 @@
         <v>-127000</v>
       </c>
     </row>
-    <row r="62" spans="1:125" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:127" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="153">
         <v>59</v>
       </c>
       <c r="B62" s="153" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C62" s="163" t="s">
         <v>491</v>
@@ -20345,217 +23797,223 @@
         <v>-654000</v>
       </c>
     </row>
-    <row r="63" spans="1:125" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="153">
+    <row r="63" spans="1:127" s="203" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="192">
         <v>60</v>
       </c>
-      <c r="B63" s="153" t="s">
-        <v>715</v>
-      </c>
-      <c r="C63" s="163" t="s">
+      <c r="B63" s="192" t="s">
+        <v>714</v>
+      </c>
+      <c r="C63" s="193" t="s">
         <v>492</v>
       </c>
-      <c r="D63" s="153" t="s">
+      <c r="D63" s="192" t="s">
         <v>437</v>
       </c>
-      <c r="E63" s="153">
+      <c r="E63" s="192">
         <v>1997</v>
       </c>
-      <c r="F63" s="155">
+      <c r="F63" s="207">
         <v>35738</v>
       </c>
-      <c r="G63" s="160" t="s">
+      <c r="G63" s="194" t="s">
         <v>433</v>
       </c>
-      <c r="H63" s="171" t="s">
+      <c r="H63" s="195" t="s">
         <v>584</v>
       </c>
-      <c r="I63" s="182" t="s">
+      <c r="I63" s="208" t="s">
         <v>594</v>
       </c>
-      <c r="J63" s="177" t="s">
+      <c r="J63" s="209" t="s">
         <v>595</v>
       </c>
-      <c r="K63" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="L63" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="M63" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="N63" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="O63" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="P63" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="Q63" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="R63" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="S63" s="159" t="s">
-        <v>519</v>
-      </c>
-      <c r="T63" s="160"/>
-      <c r="U63" s="160" t="s">
-        <v>519</v>
-      </c>
-      <c r="V63" s="160" t="s">
-        <v>519</v>
-      </c>
-      <c r="W63" s="160"/>
-      <c r="X63" s="160" t="s">
-        <v>519</v>
-      </c>
-      <c r="Y63" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="Z63" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="AA63" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="AB63" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="AC63" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="AD63" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="AE63" s="157"/>
-      <c r="AF63" s="157"/>
-      <c r="AG63" s="157"/>
-      <c r="AH63" s="157"/>
-      <c r="AI63" s="157" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ63" s="157"/>
-      <c r="AK63" s="157"/>
-      <c r="AL63" s="157"/>
-      <c r="AM63" s="157"/>
-      <c r="AN63" s="157"/>
-      <c r="AO63" s="157"/>
-      <c r="AP63" s="157"/>
-      <c r="AQ63" s="157"/>
-      <c r="AR63" s="157"/>
-      <c r="AS63" s="157"/>
-      <c r="AT63" s="157"/>
-      <c r="AU63" s="157"/>
-      <c r="AV63" s="157"/>
-      <c r="AW63" s="157"/>
-      <c r="AX63" s="157"/>
-      <c r="AY63" s="157"/>
-      <c r="AZ63" s="157"/>
-      <c r="BA63" s="157"/>
-      <c r="BB63" s="157"/>
-      <c r="BC63" s="157"/>
-      <c r="BD63" s="157"/>
-      <c r="BE63" s="157"/>
-      <c r="BF63" s="157"/>
-      <c r="BG63" s="157"/>
-      <c r="BH63" s="157"/>
-      <c r="BI63" s="157"/>
-      <c r="BJ63" s="157"/>
-      <c r="BK63" s="157"/>
-      <c r="BL63" s="157"/>
-      <c r="BM63" s="157"/>
-      <c r="BN63" s="157"/>
-      <c r="BO63" s="157"/>
-      <c r="BP63" s="157"/>
-      <c r="BQ63" s="157"/>
-      <c r="BR63" s="157"/>
-      <c r="BS63" s="157"/>
-      <c r="BT63" s="157"/>
-      <c r="BU63" s="157"/>
-      <c r="BV63" s="157"/>
-      <c r="BW63" s="157"/>
-      <c r="BX63" s="157"/>
-      <c r="BY63" s="157"/>
-      <c r="BZ63" s="157"/>
-      <c r="CA63" s="157"/>
-      <c r="CB63" s="157"/>
-      <c r="CC63" s="157"/>
-      <c r="CD63" s="157"/>
-      <c r="CE63" s="157"/>
-      <c r="CF63" s="157"/>
-      <c r="CG63" s="157"/>
-      <c r="CH63" s="157"/>
-      <c r="CI63" s="157"/>
-      <c r="CJ63" s="157"/>
-      <c r="CK63" s="157"/>
-      <c r="CL63" s="157"/>
-      <c r="CM63" s="157"/>
-      <c r="CN63" s="157"/>
-      <c r="CO63" s="157"/>
-      <c r="CP63" s="157"/>
-      <c r="CQ63" s="157"/>
-      <c r="CR63" s="157"/>
-      <c r="CS63" s="157"/>
-      <c r="CT63" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="CU63" s="157"/>
-      <c r="CV63" s="157"/>
-      <c r="CW63" s="157"/>
-      <c r="CX63" s="157"/>
-      <c r="CY63" s="157"/>
-      <c r="CZ63" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="DA63" s="157"/>
-      <c r="DB63" s="157"/>
-      <c r="DC63" s="157"/>
-      <c r="DD63" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="DE63" s="157"/>
-      <c r="DF63" s="157"/>
-      <c r="DG63" s="157"/>
-      <c r="DH63" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="DI63" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="DJ63" s="157"/>
-      <c r="DK63" s="157"/>
-      <c r="DL63" s="157"/>
-      <c r="DM63" s="157"/>
-      <c r="DN63" s="157" t="s">
-        <v>519</v>
-      </c>
-      <c r="DO63" s="157"/>
-      <c r="DP63" s="157"/>
-      <c r="DQ63" s="157"/>
-      <c r="DR63" s="157"/>
-      <c r="DS63" s="161">
+      <c r="K63" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="L63" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="M63" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="N63" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="O63" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="P63" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q63" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="R63" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="S63" s="197" t="s">
+        <v>519</v>
+      </c>
+      <c r="T63" s="194"/>
+      <c r="U63" s="194" t="s">
+        <v>519</v>
+      </c>
+      <c r="V63" s="194" t="s">
+        <v>519</v>
+      </c>
+      <c r="W63" s="194"/>
+      <c r="X63" s="194" t="s">
+        <v>519</v>
+      </c>
+      <c r="Y63" s="199" t="s">
+        <v>519</v>
+      </c>
+      <c r="Z63" s="199" t="s">
+        <v>519</v>
+      </c>
+      <c r="AA63" s="199" t="s">
+        <v>519</v>
+      </c>
+      <c r="AB63" s="199" t="s">
+        <v>519</v>
+      </c>
+      <c r="AC63" s="199" t="s">
+        <v>519</v>
+      </c>
+      <c r="AD63" s="199" t="s">
+        <v>519</v>
+      </c>
+      <c r="AE63" s="199"/>
+      <c r="AF63" s="199"/>
+      <c r="AG63" s="199"/>
+      <c r="AH63" s="199"/>
+      <c r="AI63" s="199" t="s">
+        <v>519</v>
+      </c>
+      <c r="AJ63" s="199"/>
+      <c r="AK63" s="199"/>
+      <c r="AL63" s="199"/>
+      <c r="AM63" s="199"/>
+      <c r="AN63" s="199"/>
+      <c r="AO63" s="199"/>
+      <c r="AP63" s="199"/>
+      <c r="AQ63" s="199"/>
+      <c r="AR63" s="199"/>
+      <c r="AS63" s="199"/>
+      <c r="AT63" s="199"/>
+      <c r="AU63" s="199"/>
+      <c r="AV63" s="199"/>
+      <c r="AW63" s="199"/>
+      <c r="AX63" s="199"/>
+      <c r="AY63" s="199"/>
+      <c r="AZ63" s="199"/>
+      <c r="BA63" s="199"/>
+      <c r="BB63" s="199"/>
+      <c r="BC63" s="199"/>
+      <c r="BD63" s="199"/>
+      <c r="BE63" s="199"/>
+      <c r="BF63" s="199"/>
+      <c r="BG63" s="199"/>
+      <c r="BH63" s="199"/>
+      <c r="BI63" s="199"/>
+      <c r="BJ63" s="199"/>
+      <c r="BK63" s="199"/>
+      <c r="BL63" s="199"/>
+      <c r="BM63" s="199"/>
+      <c r="BN63" s="199"/>
+      <c r="BO63" s="199"/>
+      <c r="BP63" s="199"/>
+      <c r="BQ63" s="199"/>
+      <c r="BR63" s="199"/>
+      <c r="BS63" s="199"/>
+      <c r="BT63" s="199"/>
+      <c r="BU63" s="199"/>
+      <c r="BV63" s="199"/>
+      <c r="BW63" s="199"/>
+      <c r="BX63" s="199"/>
+      <c r="BY63" s="199"/>
+      <c r="BZ63" s="199"/>
+      <c r="CA63" s="199"/>
+      <c r="CB63" s="199"/>
+      <c r="CC63" s="199"/>
+      <c r="CD63" s="199"/>
+      <c r="CE63" s="199"/>
+      <c r="CF63" s="199"/>
+      <c r="CG63" s="199"/>
+      <c r="CH63" s="199"/>
+      <c r="CI63" s="199"/>
+      <c r="CJ63" s="199"/>
+      <c r="CK63" s="199"/>
+      <c r="CL63" s="199"/>
+      <c r="CM63" s="199"/>
+      <c r="CN63" s="199"/>
+      <c r="CO63" s="199"/>
+      <c r="CP63" s="199"/>
+      <c r="CQ63" s="199"/>
+      <c r="CR63" s="199"/>
+      <c r="CS63" s="199"/>
+      <c r="CT63" s="199" t="s">
+        <v>519</v>
+      </c>
+      <c r="CU63" s="199"/>
+      <c r="CV63" s="199"/>
+      <c r="CW63" s="199"/>
+      <c r="CX63" s="199"/>
+      <c r="CY63" s="199"/>
+      <c r="CZ63" s="199" t="s">
+        <v>519</v>
+      </c>
+      <c r="DA63" s="199"/>
+      <c r="DB63" s="199"/>
+      <c r="DC63" s="199"/>
+      <c r="DD63" s="199" t="s">
+        <v>519</v>
+      </c>
+      <c r="DE63" s="199"/>
+      <c r="DF63" s="199"/>
+      <c r="DG63" s="199"/>
+      <c r="DH63" s="199" t="s">
+        <v>519</v>
+      </c>
+      <c r="DI63" s="199" t="s">
+        <v>519</v>
+      </c>
+      <c r="DJ63" s="199"/>
+      <c r="DK63" s="199"/>
+      <c r="DL63" s="199"/>
+      <c r="DM63" s="199"/>
+      <c r="DN63" s="199" t="s">
+        <v>519</v>
+      </c>
+      <c r="DO63" s="199"/>
+      <c r="DP63" s="199"/>
+      <c r="DQ63" s="199"/>
+      <c r="DR63" s="199"/>
+      <c r="DS63" s="201">
         <f t="shared" si="0"/>
-        <v>3808000</v>
-      </c>
-      <c r="DT63" s="162">
+        <v>3891000</v>
+      </c>
+      <c r="DT63" s="202">
         <f t="shared" si="12"/>
-        <v>-808000</v>
-      </c>
-      <c r="DU63" s="136" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="64" spans="1:125" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+        <v>-891000</v>
+      </c>
+      <c r="DU63" s="203" t="s">
+        <v>653</v>
+      </c>
+      <c r="DV63" s="203" t="s">
+        <v>737</v>
+      </c>
+      <c r="DW63" s="203" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="64" spans="1:127" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="153">
         <v>61</v>
       </c>
       <c r="B64" s="153" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C64" s="163" t="s">
         <v>493</v>
@@ -20564,7 +24022,7 @@
         <v>437</v>
       </c>
       <c r="E64" s="153">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="F64" s="153">
         <v>1977</v>
@@ -20756,12 +24214,12 @@
         <v>-339000</v>
       </c>
     </row>
-    <row r="65" spans="1:124" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:124" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="153">
         <v>62</v>
       </c>
       <c r="B65" s="153" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C65" s="163" t="s">
         <v>494</v>
@@ -20964,12 +24422,12 @@
         <v>-1012000</v>
       </c>
     </row>
-    <row r="66" spans="1:124" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:124" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="153">
         <v>63</v>
       </c>
       <c r="B66" s="153" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C66" s="163" t="s">
         <v>495</v>
@@ -21044,7 +24502,7 @@
       <c r="AG66" s="157"/>
       <c r="AH66" s="157"/>
       <c r="AI66" s="157" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AJ66" s="157"/>
       <c r="AK66" s="157"/>
@@ -21146,12 +24604,12 @@
         <v>-3185000</v>
       </c>
     </row>
-    <row r="67" spans="1:124" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:124" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="153">
         <v>64</v>
       </c>
       <c r="B67" s="153" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C67" s="163" t="s">
         <v>496</v>
@@ -21368,12 +24826,12 @@
         <v>-528000</v>
       </c>
     </row>
-    <row r="68" spans="1:124" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:124" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="153">
         <v>65</v>
       </c>
       <c r="B68" s="153" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C68" s="163" t="s">
         <v>497</v>
@@ -21558,12 +25016,12 @@
         <v>-88000</v>
       </c>
     </row>
-    <row r="69" spans="1:124" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:124" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="153">
         <v>66</v>
       </c>
       <c r="B69" s="153" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C69" s="163" t="s">
         <v>498</v>
@@ -21762,12 +25220,12 @@
         <v>-771000</v>
       </c>
     </row>
-    <row r="70" spans="1:124" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:124" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="153">
         <v>67</v>
       </c>
       <c r="B70" s="153" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C70" s="163" t="s">
         <v>499</v>
@@ -21966,12 +25424,12 @@
         <v>-583000</v>
       </c>
     </row>
-    <row r="71" spans="1:124" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:124" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="153">
         <v>68</v>
       </c>
       <c r="B71" s="153" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C71" s="163" t="s">
         <v>500</v>
@@ -22142,12 +25600,12 @@
         <v>1095000</v>
       </c>
     </row>
-    <row r="72" spans="1:124" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:124" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="153">
         <v>69</v>
       </c>
       <c r="B72" s="153" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C72" s="163" t="s">
         <v>501</v>
@@ -22322,12 +25780,12 @@
         <v>1024000</v>
       </c>
     </row>
-    <row r="73" spans="1:124" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:124" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="153">
         <v>70</v>
       </c>
       <c r="B73" s="153" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C73" s="163" t="s">
         <v>502</v>
@@ -22520,12 +25978,12 @@
         <v>514000</v>
       </c>
     </row>
-    <row r="74" spans="1:124" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:124" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="153">
         <v>71</v>
       </c>
       <c r="B74" s="153" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C74" s="160" t="s">
         <v>503</v>
@@ -22668,12 +26126,12 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="75" spans="1:124" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:124" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="153">
         <v>72</v>
       </c>
       <c r="B75" s="153" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C75" s="160" t="s">
         <v>505</v>
@@ -22816,12 +26274,12 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="76" spans="1:124" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:124" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="153">
         <v>73</v>
       </c>
       <c r="B76" s="153" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C76" s="160" t="s">
         <v>506</v>
@@ -22964,12 +26422,12 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="77" spans="1:124" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:124" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="153">
         <v>74</v>
       </c>
       <c r="B77" s="153" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C77" s="160" t="s">
         <v>507</v>
@@ -23112,12 +26570,12 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="78" spans="1:124" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:124" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="153">
         <v>75</v>
       </c>
       <c r="B78" s="153" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C78" s="160" t="s">
         <v>508</v>
@@ -23260,12 +26718,12 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="79" spans="1:124" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:124" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="153">
         <v>76</v>
       </c>
       <c r="B79" s="153" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C79" s="160" t="s">
         <v>509</v>
@@ -23408,12 +26866,12 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="80" spans="1:124" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:124" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="153">
         <v>77</v>
       </c>
       <c r="B80" s="153" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C80" s="160" t="s">
         <v>510</v>
@@ -23556,12 +27014,12 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="81" spans="1:124" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:124" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="153">
         <v>78</v>
       </c>
       <c r="B81" s="153" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C81" s="160" t="s">
         <v>511</v>
@@ -23704,12 +27162,12 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="82" spans="1:124" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:124" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="153">
         <v>79</v>
       </c>
       <c r="B82" s="153" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C82" s="160" t="s">
         <v>512</v>
@@ -23852,12 +27310,12 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="83" spans="1:124" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:124" s="136" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="153">
         <v>80</v>
       </c>
       <c r="B83" s="153" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C83" s="160" t="s">
         <v>513</v>
@@ -24000,19 +27458,19 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="84" spans="1:124" s="137" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="261" t="s">
+    <row r="84" spans="1:124" s="137" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="222" t="s">
         <v>414</v>
       </c>
-      <c r="B84" s="262"/>
-      <c r="C84" s="262"/>
-      <c r="D84" s="262"/>
-      <c r="E84" s="262"/>
-      <c r="F84" s="262"/>
-      <c r="G84" s="262"/>
-      <c r="H84" s="262"/>
-      <c r="I84" s="262"/>
-      <c r="J84" s="263"/>
+      <c r="B84" s="223"/>
+      <c r="C84" s="223"/>
+      <c r="D84" s="223"/>
+      <c r="E84" s="223"/>
+      <c r="F84" s="223"/>
+      <c r="G84" s="223"/>
+      <c r="H84" s="223"/>
+      <c r="I84" s="223"/>
+      <c r="J84" s="296"/>
       <c r="K84" s="138">
         <f>COUNTA(K4:K83)</f>
         <v>70</v>
@@ -24075,7 +27533,7 @@
       </c>
       <c r="Z84" s="138">
         <f>COUNTA(Z4:Z83)</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA84" s="138">
         <f t="shared" si="17"/>
@@ -24463,7 +27921,7 @@
       </c>
       <c r="DS84" s="151">
         <f>SUM(DS4:DS83)</f>
-        <v>207585000</v>
+        <v>208132000</v>
       </c>
     </row>
   </sheetData>
@@ -24511,16 +27969,4 @@
   <pageSetup orientation="portrait" r:id="rId19"/>
   <legacyDrawing r:id="rId20"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Hoàng/2025/BIDV QUẢNG NAM/DANH MỤC BIDV QUẢNG NAM - điều chỉnh DM FINAL.xlsx
+++ b/Hoàng/2025/BIDV QUẢNG NAM/DANH MỤC BIDV QUẢNG NAM - điều chỉnh DM FINAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DATA-TN\Hoàng\2025\BIDV QUẢNG NAM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4371C727-88F7-4A16-BD0E-07AF6F74C4BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC69329-D423-4778-A501-63C98BF8706D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3619,138 +3619,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="14" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3770,6 +3638,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3808,6 +3682,24 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3816,6 +3708,114 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="24" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7596,43 +7596,43 @@
       <c r="A1" s="22"/>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
-      <c r="D1" s="272" t="s">
+      <c r="D1" s="228" t="s">
         <v>313</v>
       </c>
-      <c r="E1" s="272"/>
-      <c r="F1" s="272"/>
+      <c r="E1" s="228"/>
+      <c r="F1" s="228"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="24"/>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
-      <c r="D2" s="273"/>
-      <c r="E2" s="273"/>
-      <c r="F2" s="273"/>
+      <c r="D2" s="229"/>
+      <c r="E2" s="229"/>
+      <c r="F2" s="229"/>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="24"/>
       <c r="B3" s="24"/>
       <c r="C3" s="24"/>
-      <c r="D3" s="273"/>
-      <c r="E3" s="273"/>
-      <c r="F3" s="273"/>
+      <c r="D3" s="229"/>
+      <c r="E3" s="229"/>
+      <c r="F3" s="229"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
       <c r="B4" s="24"/>
       <c r="C4" s="24"/>
-      <c r="D4" s="273"/>
-      <c r="E4" s="273"/>
-      <c r="F4" s="273"/>
+      <c r="D4" s="229"/>
+      <c r="E4" s="229"/>
+      <c r="F4" s="229"/>
     </row>
     <row r="5" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="24"/>
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
-      <c r="D5" s="273"/>
-      <c r="E5" s="273"/>
-      <c r="F5" s="273"/>
+      <c r="D5" s="229"/>
+      <c r="E5" s="229"/>
+      <c r="F5" s="229"/>
     </row>
     <row r="6" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="23"/>
@@ -7643,14 +7643,14 @@
       <c r="F6" s="23"/>
     </row>
     <row r="7" spans="1:11" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="274" t="s">
+      <c r="A7" s="230" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="274"/>
-      <c r="C7" s="274"/>
-      <c r="D7" s="274"/>
-      <c r="E7" s="274"/>
-      <c r="F7" s="274"/>
+      <c r="B7" s="230"/>
+      <c r="C7" s="230"/>
+      <c r="D7" s="230"/>
+      <c r="E7" s="230"/>
+      <c r="F7" s="230"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -7672,27 +7672,27 @@
     </row>
     <row r="9" spans="1:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="28"/>
-      <c r="B9" s="280" t="s">
+      <c r="B9" s="238" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="280"/>
-      <c r="D9" s="280"/>
-      <c r="E9" s="280"/>
-      <c r="F9" s="280"/>
+      <c r="C9" s="238"/>
+      <c r="D9" s="238"/>
+      <c r="E9" s="238"/>
+      <c r="F9" s="238"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="281" t="s">
+      <c r="A10" s="239" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="282"/>
-      <c r="C10" s="282"/>
-      <c r="D10" s="282"/>
-      <c r="E10" s="282"/>
-      <c r="F10" s="283"/>
+      <c r="B10" s="240"/>
+      <c r="C10" s="240"/>
+      <c r="D10" s="240"/>
+      <c r="E10" s="240"/>
+      <c r="F10" s="241"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -7700,12 +7700,12 @@
       <c r="K10" s="8"/>
     </row>
     <row r="11" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="284"/>
-      <c r="B11" s="285"/>
-      <c r="C11" s="285"/>
-      <c r="D11" s="285"/>
-      <c r="E11" s="285"/>
-      <c r="F11" s="286"/>
+      <c r="A11" s="242"/>
+      <c r="B11" s="243"/>
+      <c r="C11" s="243"/>
+      <c r="D11" s="243"/>
+      <c r="E11" s="243"/>
+      <c r="F11" s="244"/>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
@@ -7724,10 +7724,10 @@
       <c r="A13" s="33" t="s">
         <v>260</v>
       </c>
-      <c r="B13" s="278" t="s">
+      <c r="B13" s="236" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="278"/>
+      <c r="C13" s="236"/>
       <c r="D13" s="33" t="s">
         <v>4</v>
       </c>
@@ -7740,77 +7740,77 @@
       <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="287">
+      <c r="A14" s="245">
         <v>1</v>
       </c>
-      <c r="B14" s="230" t="s">
+      <c r="B14" s="248" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="287" t="s">
+      <c r="C14" s="245" t="s">
         <v>328</v>
       </c>
       <c r="D14" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="267">
+      <c r="E14" s="251">
         <v>200000</v>
       </c>
-      <c r="F14" s="290"/>
+      <c r="F14" s="254"/>
       <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="288"/>
-      <c r="B15" s="251"/>
-      <c r="C15" s="288"/>
+      <c r="A15" s="246"/>
+      <c r="B15" s="249"/>
+      <c r="C15" s="246"/>
       <c r="D15" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="268"/>
-      <c r="F15" s="291"/>
+      <c r="E15" s="252"/>
+      <c r="F15" s="255"/>
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:11" ht="33" x14ac:dyDescent="0.25">
-      <c r="A16" s="288"/>
-      <c r="B16" s="251"/>
-      <c r="C16" s="288"/>
+      <c r="A16" s="246"/>
+      <c r="B16" s="249"/>
+      <c r="C16" s="246"/>
       <c r="D16" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="268"/>
-      <c r="F16" s="291"/>
+      <c r="E16" s="252"/>
+      <c r="F16" s="255"/>
       <c r="G16" s="11"/>
     </row>
     <row r="17" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A17" s="288"/>
-      <c r="B17" s="251"/>
-      <c r="C17" s="288"/>
+      <c r="A17" s="246"/>
+      <c r="B17" s="249"/>
+      <c r="C17" s="246"/>
       <c r="D17" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="268"/>
-      <c r="F17" s="291"/>
+      <c r="E17" s="252"/>
+      <c r="F17" s="255"/>
       <c r="G17" s="12"/>
     </row>
     <row r="18" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A18" s="288"/>
-      <c r="B18" s="251"/>
-      <c r="C18" s="288"/>
+      <c r="A18" s="246"/>
+      <c r="B18" s="249"/>
+      <c r="C18" s="246"/>
       <c r="D18" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="E18" s="268"/>
-      <c r="F18" s="291"/>
+      <c r="E18" s="252"/>
+      <c r="F18" s="255"/>
       <c r="G18" s="12"/>
     </row>
     <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="289"/>
-      <c r="B19" s="231"/>
-      <c r="C19" s="289"/>
+      <c r="A19" s="247"/>
+      <c r="B19" s="250"/>
+      <c r="C19" s="247"/>
       <c r="D19" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="269"/>
-      <c r="F19" s="292"/>
+      <c r="E19" s="253"/>
+      <c r="F19" s="256"/>
       <c r="G19" s="12"/>
     </row>
     <row r="20" spans="1:7" ht="33" x14ac:dyDescent="0.25">
@@ -7893,7 +7893,7 @@
       <c r="A24" s="38">
         <v>6</v>
       </c>
-      <c r="B24" s="271" t="s">
+      <c r="B24" s="227" t="s">
         <v>41</v>
       </c>
       <c r="C24" s="42" t="s">
@@ -7902,10 +7902,10 @@
       <c r="D24" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="277">
+      <c r="E24" s="233">
         <v>60000</v>
       </c>
-      <c r="F24" s="235" t="s">
+      <c r="F24" s="234" t="s">
         <v>383</v>
       </c>
       <c r="G24" s="12"/>
@@ -7914,15 +7914,15 @@
       <c r="A25" s="38">
         <v>7</v>
       </c>
-      <c r="B25" s="271"/>
+      <c r="B25" s="227"/>
       <c r="C25" s="42" t="s">
         <v>44</v>
       </c>
       <c r="D25" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="277"/>
-      <c r="F25" s="236"/>
+      <c r="E25" s="233"/>
+      <c r="F25" s="235"/>
       <c r="G25" s="12"/>
     </row>
     <row r="26" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
@@ -7962,12 +7962,12 @@
       <c r="G27" s="12"/>
     </row>
     <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="275" t="s">
+      <c r="A28" s="231" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="279"/>
-      <c r="C28" s="279"/>
-      <c r="D28" s="276"/>
+      <c r="B28" s="237"/>
+      <c r="C28" s="237"/>
+      <c r="D28" s="232"/>
       <c r="E28" s="34">
         <f>SUM(E14:E27)</f>
         <v>564000</v>
@@ -8008,10 +8008,10 @@
       <c r="A32" s="63" t="s">
         <v>260</v>
       </c>
-      <c r="B32" s="275" t="s">
+      <c r="B32" s="231" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="276"/>
+      <c r="C32" s="232"/>
       <c r="D32" s="63" t="s">
         <v>4</v>
       </c>
@@ -8114,7 +8114,7 @@
       <c r="A38" s="38">
         <v>5</v>
       </c>
-      <c r="B38" s="230" t="s">
+      <c r="B38" s="248" t="s">
         <v>45</v>
       </c>
       <c r="C38" s="42" t="s">
@@ -8135,7 +8135,7 @@
       <c r="A39" s="38">
         <v>6</v>
       </c>
-      <c r="B39" s="231"/>
+      <c r="B39" s="250"/>
       <c r="C39" s="42" t="s">
         <v>275</v>
       </c>
@@ -8154,7 +8154,7 @@
       <c r="A40" s="38">
         <v>7</v>
       </c>
-      <c r="B40" s="244" t="s">
+      <c r="B40" s="268" t="s">
         <v>61</v>
       </c>
       <c r="C40" s="42" t="s">
@@ -8166,7 +8166,7 @@
       <c r="E40" s="72">
         <v>41000</v>
       </c>
-      <c r="F40" s="232" t="s">
+      <c r="F40" s="265" t="s">
         <v>379</v>
       </c>
       <c r="G40" s="12"/>
@@ -8175,7 +8175,7 @@
       <c r="A41" s="38">
         <v>8</v>
       </c>
-      <c r="B41" s="244"/>
+      <c r="B41" s="268"/>
       <c r="C41" s="42" t="s">
         <v>64</v>
       </c>
@@ -8185,14 +8185,14 @@
       <c r="E41" s="72">
         <v>59000</v>
       </c>
-      <c r="F41" s="233"/>
+      <c r="F41" s="266"/>
       <c r="G41" s="12"/>
     </row>
     <row r="42" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A42" s="38">
         <v>9</v>
       </c>
-      <c r="B42" s="244"/>
+      <c r="B42" s="268"/>
       <c r="C42" s="42" t="s">
         <v>66</v>
       </c>
@@ -8202,14 +8202,14 @@
       <c r="E42" s="72">
         <v>59000</v>
       </c>
-      <c r="F42" s="233"/>
+      <c r="F42" s="266"/>
       <c r="G42" s="12"/>
     </row>
     <row r="43" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A43" s="38">
         <v>10</v>
       </c>
-      <c r="B43" s="244"/>
+      <c r="B43" s="268"/>
       <c r="C43" s="42" t="s">
         <v>68</v>
       </c>
@@ -8219,14 +8219,14 @@
       <c r="E43" s="72">
         <v>47000</v>
       </c>
-      <c r="F43" s="233"/>
+      <c r="F43" s="266"/>
       <c r="G43" s="12"/>
     </row>
     <row r="44" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A44" s="38">
         <v>11</v>
       </c>
-      <c r="B44" s="244"/>
+      <c r="B44" s="268"/>
       <c r="C44" s="42" t="s">
         <v>70</v>
       </c>
@@ -8236,7 +8236,7 @@
       <c r="E44" s="72">
         <v>41000</v>
       </c>
-      <c r="F44" s="234"/>
+      <c r="F44" s="267"/>
       <c r="G44" s="12"/>
     </row>
     <row r="45" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
@@ -8262,7 +8262,7 @@
       <c r="A46" s="38">
         <v>13</v>
       </c>
-      <c r="B46" s="230" t="s">
+      <c r="B46" s="248" t="s">
         <v>278</v>
       </c>
       <c r="C46" s="36" t="s">
@@ -8274,7 +8274,7 @@
       <c r="E46" s="75">
         <v>62000</v>
       </c>
-      <c r="F46" s="232" t="s">
+      <c r="F46" s="265" t="s">
         <v>380</v>
       </c>
       <c r="G46" s="12"/>
@@ -8283,7 +8283,7 @@
       <c r="A47" s="38">
         <v>14</v>
       </c>
-      <c r="B47" s="251"/>
+      <c r="B47" s="249"/>
       <c r="C47" s="36" t="s">
         <v>197</v>
       </c>
@@ -8293,14 +8293,14 @@
       <c r="E47" s="75">
         <v>165000</v>
       </c>
-      <c r="F47" s="233"/>
+      <c r="F47" s="266"/>
       <c r="G47" s="12"/>
     </row>
     <row r="48" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A48" s="38">
         <v>15</v>
       </c>
-      <c r="B48" s="231"/>
+      <c r="B48" s="250"/>
       <c r="C48" s="36" t="s">
         <v>202</v>
       </c>
@@ -8310,14 +8310,14 @@
       <c r="E48" s="75">
         <v>116000</v>
       </c>
-      <c r="F48" s="234"/>
+      <c r="F48" s="267"/>
       <c r="G48" s="12"/>
     </row>
     <row r="49" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A49" s="38">
         <v>16</v>
       </c>
-      <c r="B49" s="230" t="s">
+      <c r="B49" s="248" t="s">
         <v>273</v>
       </c>
       <c r="C49" s="36" t="s">
@@ -8336,7 +8336,7 @@
       <c r="A50" s="38">
         <v>17</v>
       </c>
-      <c r="B50" s="251"/>
+      <c r="B50" s="249"/>
       <c r="C50" s="36" t="s">
         <v>270</v>
       </c>
@@ -8346,7 +8346,7 @@
       <c r="E50" s="75">
         <v>130000</v>
       </c>
-      <c r="F50" s="232" t="s">
+      <c r="F50" s="265" t="s">
         <v>380</v>
       </c>
       <c r="G50" s="12"/>
@@ -8355,7 +8355,7 @@
       <c r="A51" s="38">
         <v>18</v>
       </c>
-      <c r="B51" s="251"/>
+      <c r="B51" s="249"/>
       <c r="C51" s="36" t="s">
         <v>271</v>
       </c>
@@ -8365,14 +8365,14 @@
       <c r="E51" s="75">
         <v>120000</v>
       </c>
-      <c r="F51" s="233"/>
+      <c r="F51" s="266"/>
       <c r="G51" s="12"/>
     </row>
     <row r="52" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A52" s="38">
         <v>19</v>
       </c>
-      <c r="B52" s="231"/>
+      <c r="B52" s="250"/>
       <c r="C52" s="36" t="s">
         <v>272</v>
       </c>
@@ -8382,7 +8382,7 @@
       <c r="E52" s="75">
         <v>282000</v>
       </c>
-      <c r="F52" s="234"/>
+      <c r="F52" s="267"/>
       <c r="G52" s="12"/>
     </row>
     <row r="53" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
@@ -8408,7 +8408,7 @@
       <c r="A54" s="38">
         <v>21</v>
       </c>
-      <c r="B54" s="246" t="s">
+      <c r="B54" s="271" t="s">
         <v>131</v>
       </c>
       <c r="C54" s="36" t="s">
@@ -8420,7 +8420,7 @@
       <c r="E54" s="75">
         <v>71000</v>
       </c>
-      <c r="F54" s="235" t="s">
+      <c r="F54" s="234" t="s">
         <v>382</v>
       </c>
       <c r="G54" s="12"/>
@@ -8429,7 +8429,7 @@
       <c r="A55" s="38">
         <v>22</v>
       </c>
-      <c r="B55" s="247"/>
+      <c r="B55" s="273"/>
       <c r="C55" s="36" t="s">
         <v>134</v>
       </c>
@@ -8439,7 +8439,7 @@
       <c r="E55" s="71">
         <v>138000</v>
       </c>
-      <c r="F55" s="236"/>
+      <c r="F55" s="235"/>
       <c r="G55" s="12"/>
     </row>
     <row r="56" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
@@ -8465,7 +8465,7 @@
       <c r="A57" s="38">
         <v>24</v>
       </c>
-      <c r="B57" s="245" t="s">
+      <c r="B57" s="289" t="s">
         <v>206</v>
       </c>
       <c r="C57" s="36" t="s">
@@ -8477,7 +8477,7 @@
       <c r="E57" s="75">
         <v>30000</v>
       </c>
-      <c r="F57" s="237" t="s">
+      <c r="F57" s="282" t="s">
         <v>384</v>
       </c>
       <c r="G57" s="13"/>
@@ -8486,7 +8486,7 @@
       <c r="A58" s="38">
         <v>25</v>
       </c>
-      <c r="B58" s="245"/>
+      <c r="B58" s="289"/>
       <c r="C58" s="36" t="s">
         <v>279</v>
       </c>
@@ -8496,16 +8496,16 @@
       <c r="E58" s="75">
         <v>20000</v>
       </c>
-      <c r="F58" s="238"/>
+      <c r="F58" s="283"/>
       <c r="G58" s="13"/>
     </row>
     <row r="59" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="227" t="s">
+      <c r="A59" s="261" t="s">
         <v>209</v>
       </c>
-      <c r="B59" s="228"/>
-      <c r="C59" s="228"/>
-      <c r="D59" s="229"/>
+      <c r="B59" s="262"/>
+      <c r="C59" s="262"/>
+      <c r="D59" s="263"/>
       <c r="E59" s="69"/>
       <c r="F59" s="70"/>
       <c r="G59" s="12"/>
@@ -8514,7 +8514,7 @@
       <c r="A60" s="38">
         <v>26</v>
       </c>
-      <c r="B60" s="239" t="s">
+      <c r="B60" s="284" t="s">
         <v>261</v>
       </c>
       <c r="C60" s="76" t="s">
@@ -8533,7 +8533,7 @@
       <c r="A61" s="38">
         <v>27</v>
       </c>
-      <c r="B61" s="240"/>
+      <c r="B61" s="285"/>
       <c r="C61" s="76" t="s">
         <v>84</v>
       </c>
@@ -8550,7 +8550,7 @@
       <c r="A62" s="38">
         <v>28</v>
       </c>
-      <c r="B62" s="240"/>
+      <c r="B62" s="285"/>
       <c r="C62" s="76" t="s">
         <v>86</v>
       </c>
@@ -8567,7 +8567,7 @@
       <c r="A63" s="38">
         <v>29</v>
       </c>
-      <c r="B63" s="240"/>
+      <c r="B63" s="285"/>
       <c r="C63" s="76" t="s">
         <v>80</v>
       </c>
@@ -8584,7 +8584,7 @@
       <c r="A64" s="38">
         <v>30</v>
       </c>
-      <c r="B64" s="240"/>
+      <c r="B64" s="285"/>
       <c r="C64" s="76" t="s">
         <v>94</v>
       </c>
@@ -8601,7 +8601,7 @@
       <c r="A65" s="38">
         <v>31</v>
       </c>
-      <c r="B65" s="240"/>
+      <c r="B65" s="285"/>
       <c r="C65" s="76" t="s">
         <v>81</v>
       </c>
@@ -8618,7 +8618,7 @@
       <c r="A66" s="38">
         <v>32</v>
       </c>
-      <c r="B66" s="240"/>
+      <c r="B66" s="285"/>
       <c r="C66" s="76" t="s">
         <v>83</v>
       </c>
@@ -8637,7 +8637,7 @@
       <c r="A67" s="38">
         <v>33</v>
       </c>
-      <c r="B67" s="240"/>
+      <c r="B67" s="285"/>
       <c r="C67" s="80" t="s">
         <v>235</v>
       </c>
@@ -8654,7 +8654,7 @@
       <c r="A68" s="38">
         <v>34</v>
       </c>
-      <c r="B68" s="240"/>
+      <c r="B68" s="285"/>
       <c r="C68" s="76" t="s">
         <v>74</v>
       </c>
@@ -8673,7 +8673,7 @@
       <c r="A69" s="38">
         <v>35</v>
       </c>
-      <c r="B69" s="240"/>
+      <c r="B69" s="285"/>
       <c r="C69" s="76" t="s">
         <v>76</v>
       </c>
@@ -8690,7 +8690,7 @@
       <c r="A70" s="38">
         <v>36</v>
       </c>
-      <c r="B70" s="240"/>
+      <c r="B70" s="285"/>
       <c r="C70" s="76" t="s">
         <v>78</v>
       </c>
@@ -8707,7 +8707,7 @@
       <c r="A71" s="38">
         <v>37</v>
       </c>
-      <c r="B71" s="240"/>
+      <c r="B71" s="285"/>
       <c r="C71" s="76" t="s">
         <v>88</v>
       </c>
@@ -8724,7 +8724,7 @@
       <c r="A72" s="38">
         <v>38</v>
       </c>
-      <c r="B72" s="241"/>
+      <c r="B72" s="286"/>
       <c r="C72" s="76" t="s">
         <v>96</v>
       </c>
@@ -8741,19 +8741,19 @@
       <c r="A73" s="38">
         <v>39</v>
       </c>
-      <c r="B73" s="239" t="s">
+      <c r="B73" s="284" t="s">
         <v>91</v>
       </c>
       <c r="C73" s="76" t="s">
         <v>90</v>
       </c>
-      <c r="D73" s="248" t="s">
+      <c r="D73" s="290" t="s">
         <v>398</v>
       </c>
       <c r="E73" s="78">
         <v>137000</v>
       </c>
-      <c r="F73" s="232" t="s">
+      <c r="F73" s="265" t="s">
         <v>381</v>
       </c>
       <c r="G73" s="13"/>
@@ -8762,43 +8762,43 @@
       <c r="A74" s="38">
         <v>40</v>
       </c>
-      <c r="B74" s="240"/>
+      <c r="B74" s="285"/>
       <c r="C74" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="D74" s="249"/>
+      <c r="D74" s="291"/>
       <c r="E74" s="78">
         <v>137000</v>
       </c>
-      <c r="F74" s="233"/>
+      <c r="F74" s="266"/>
       <c r="G74" s="13"/>
     </row>
     <row r="75" spans="1:7" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A75" s="38">
         <v>41</v>
       </c>
-      <c r="B75" s="241"/>
+      <c r="B75" s="286"/>
       <c r="C75" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="D75" s="250"/>
+      <c r="D75" s="292"/>
       <c r="E75" s="78">
         <v>208000</v>
       </c>
-      <c r="F75" s="234"/>
+      <c r="F75" s="267"/>
       <c r="G75" s="13"/>
     </row>
     <row r="76" spans="1:7" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A76" s="38">
         <v>42</v>
       </c>
-      <c r="B76" s="239" t="s">
+      <c r="B76" s="284" t="s">
         <v>399</v>
       </c>
       <c r="C76" s="76" t="s">
         <v>400</v>
       </c>
-      <c r="D76" s="242" t="s">
+      <c r="D76" s="287" t="s">
         <v>402</v>
       </c>
       <c r="E76" s="78">
@@ -8811,11 +8811,11 @@
       <c r="A77" s="38">
         <v>43</v>
       </c>
-      <c r="B77" s="240"/>
+      <c r="B77" s="285"/>
       <c r="C77" s="76" t="s">
         <v>401</v>
       </c>
-      <c r="D77" s="243"/>
+      <c r="D77" s="288"/>
       <c r="E77" s="78">
         <v>323000</v>
       </c>
@@ -8826,7 +8826,7 @@
       <c r="A78" s="38">
         <v>44</v>
       </c>
-      <c r="B78" s="240"/>
+      <c r="B78" s="285"/>
       <c r="C78" s="76" t="s">
         <v>404</v>
       </c>
@@ -8843,7 +8843,7 @@
       <c r="A79" s="38">
         <v>45</v>
       </c>
-      <c r="B79" s="241"/>
+      <c r="B79" s="286"/>
       <c r="C79" s="76" t="s">
         <v>405</v>
       </c>
@@ -8857,12 +8857,12 @@
       <c r="G79" s="13"/>
     </row>
     <row r="80" spans="1:7" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="227" t="s">
+      <c r="A80" s="261" t="s">
         <v>208</v>
       </c>
-      <c r="B80" s="228"/>
-      <c r="C80" s="228"/>
-      <c r="D80" s="229"/>
+      <c r="B80" s="262"/>
+      <c r="C80" s="262"/>
+      <c r="D80" s="263"/>
       <c r="E80" s="69"/>
       <c r="F80" s="70"/>
       <c r="G80" s="13"/>
@@ -8871,7 +8871,7 @@
       <c r="A81" s="38">
         <v>46</v>
       </c>
-      <c r="B81" s="244" t="s">
+      <c r="B81" s="268" t="s">
         <v>98</v>
       </c>
       <c r="C81" s="36" t="s">
@@ -8890,7 +8890,7 @@
       <c r="A82" s="38">
         <v>47</v>
       </c>
-      <c r="B82" s="244"/>
+      <c r="B82" s="268"/>
       <c r="C82" s="36" t="s">
         <v>101</v>
       </c>
@@ -8907,7 +8907,7 @@
       <c r="A83" s="38">
         <v>48</v>
       </c>
-      <c r="B83" s="244"/>
+      <c r="B83" s="268"/>
       <c r="C83" s="36" t="s">
         <v>103</v>
       </c>
@@ -8926,7 +8926,7 @@
       <c r="A84" s="38">
         <v>49</v>
       </c>
-      <c r="B84" s="244"/>
+      <c r="B84" s="268"/>
       <c r="C84" s="36" t="s">
         <v>106</v>
       </c>
@@ -8945,7 +8945,7 @@
       <c r="A85" s="38">
         <v>50</v>
       </c>
-      <c r="B85" s="244"/>
+      <c r="B85" s="268"/>
       <c r="C85" s="36" t="s">
         <v>407</v>
       </c>
@@ -8962,7 +8962,7 @@
       <c r="A86" s="38">
         <v>51</v>
       </c>
-      <c r="B86" s="244"/>
+      <c r="B86" s="268"/>
       <c r="C86" s="36" t="s">
         <v>108</v>
       </c>
@@ -8981,7 +8981,7 @@
       <c r="A87" s="38">
         <v>52</v>
       </c>
-      <c r="B87" s="244"/>
+      <c r="B87" s="268"/>
       <c r="C87" s="36" t="s">
         <v>111</v>
       </c>
@@ -9000,7 +9000,7 @@
       <c r="A88" s="38">
         <v>53</v>
       </c>
-      <c r="B88" s="244"/>
+      <c r="B88" s="268"/>
       <c r="C88" s="36" t="s">
         <v>114</v>
       </c>
@@ -9019,7 +9019,7 @@
       <c r="A89" s="38">
         <v>54</v>
       </c>
-      <c r="B89" s="244" t="s">
+      <c r="B89" s="268" t="s">
         <v>117</v>
       </c>
       <c r="C89" s="36" t="s">
@@ -9038,7 +9038,7 @@
       <c r="A90" s="38">
         <v>55</v>
       </c>
-      <c r="B90" s="244"/>
+      <c r="B90" s="268"/>
       <c r="C90" s="36" t="s">
         <v>120</v>
       </c>
@@ -9055,7 +9055,7 @@
       <c r="A91" s="38">
         <v>56</v>
       </c>
-      <c r="B91" s="246" t="s">
+      <c r="B91" s="271" t="s">
         <v>122</v>
       </c>
       <c r="C91" s="36" t="s">
@@ -9074,7 +9074,7 @@
       <c r="A92" s="38">
         <v>57</v>
       </c>
-      <c r="B92" s="254"/>
+      <c r="B92" s="272"/>
       <c r="C92" s="36" t="s">
         <v>390</v>
       </c>
@@ -9091,7 +9091,7 @@
       <c r="A93" s="38">
         <v>58</v>
       </c>
-      <c r="B93" s="247"/>
+      <c r="B93" s="273"/>
       <c r="C93" s="36" t="s">
         <v>126</v>
       </c>
@@ -9105,12 +9105,12 @@
       <c r="G93" s="12"/>
     </row>
     <row r="94" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="227" t="s">
+      <c r="A94" s="261" t="s">
         <v>262</v>
       </c>
-      <c r="B94" s="228"/>
-      <c r="C94" s="228"/>
-      <c r="D94" s="229"/>
+      <c r="B94" s="262"/>
+      <c r="C94" s="262"/>
+      <c r="D94" s="263"/>
       <c r="E94" s="83"/>
       <c r="F94" s="70"/>
       <c r="G94" s="12"/>
@@ -9119,7 +9119,7 @@
       <c r="A95" s="38">
         <v>59</v>
       </c>
-      <c r="B95" s="246" t="s">
+      <c r="B95" s="271" t="s">
         <v>241</v>
       </c>
       <c r="C95" s="36" t="s">
@@ -9138,7 +9138,7 @@
       <c r="A96" s="38">
         <v>60</v>
       </c>
-      <c r="B96" s="247"/>
+      <c r="B96" s="273"/>
       <c r="C96" s="36" t="s">
         <v>240</v>
       </c>
@@ -9155,7 +9155,7 @@
       <c r="A97" s="38">
         <v>61</v>
       </c>
-      <c r="B97" s="246" t="s">
+      <c r="B97" s="271" t="s">
         <v>244</v>
       </c>
       <c r="C97" s="36" t="s">
@@ -9172,7 +9172,7 @@
       <c r="A98" s="38">
         <v>62</v>
       </c>
-      <c r="B98" s="247"/>
+      <c r="B98" s="273"/>
       <c r="C98" s="36" t="s">
         <v>243</v>
       </c>
@@ -9206,7 +9206,7 @@
       <c r="A100" s="38">
         <v>64</v>
       </c>
-      <c r="B100" s="246" t="s">
+      <c r="B100" s="271" t="s">
         <v>259</v>
       </c>
       <c r="C100" s="36" t="s">
@@ -9223,7 +9223,7 @@
       <c r="A101" s="38">
         <v>65</v>
       </c>
-      <c r="B101" s="254"/>
+      <c r="B101" s="272"/>
       <c r="C101" s="36" t="s">
         <v>246</v>
       </c>
@@ -9238,7 +9238,7 @@
       <c r="A102" s="38">
         <v>66</v>
       </c>
-      <c r="B102" s="254"/>
+      <c r="B102" s="272"/>
       <c r="C102" s="36" t="s">
         <v>247</v>
       </c>
@@ -9253,7 +9253,7 @@
       <c r="A103" s="38">
         <v>67</v>
       </c>
-      <c r="B103" s="254"/>
+      <c r="B103" s="272"/>
       <c r="C103" s="36" t="s">
         <v>248</v>
       </c>
@@ -9268,7 +9268,7 @@
       <c r="A104" s="38">
         <v>68</v>
       </c>
-      <c r="B104" s="254"/>
+      <c r="B104" s="272"/>
       <c r="C104" s="36" t="s">
         <v>249</v>
       </c>
@@ -9283,7 +9283,7 @@
       <c r="A105" s="38">
         <v>69</v>
       </c>
-      <c r="B105" s="254"/>
+      <c r="B105" s="272"/>
       <c r="C105" s="36" t="s">
         <v>250</v>
       </c>
@@ -9298,7 +9298,7 @@
       <c r="A106" s="38">
         <v>70</v>
       </c>
-      <c r="B106" s="254"/>
+      <c r="B106" s="272"/>
       <c r="C106" s="36" t="s">
         <v>251</v>
       </c>
@@ -9313,7 +9313,7 @@
       <c r="A107" s="38">
         <v>71</v>
       </c>
-      <c r="B107" s="254"/>
+      <c r="B107" s="272"/>
       <c r="C107" s="36" t="s">
         <v>252</v>
       </c>
@@ -9328,7 +9328,7 @@
       <c r="A108" s="38">
         <v>72</v>
       </c>
-      <c r="B108" s="254"/>
+      <c r="B108" s="272"/>
       <c r="C108" s="36" t="s">
         <v>253</v>
       </c>
@@ -9343,7 +9343,7 @@
       <c r="A109" s="38">
         <v>73</v>
       </c>
-      <c r="B109" s="254"/>
+      <c r="B109" s="272"/>
       <c r="C109" s="36" t="s">
         <v>254</v>
       </c>
@@ -9358,7 +9358,7 @@
       <c r="A110" s="38">
         <v>74</v>
       </c>
-      <c r="B110" s="254"/>
+      <c r="B110" s="272"/>
       <c r="C110" s="36" t="s">
         <v>255</v>
       </c>
@@ -9373,7 +9373,7 @@
       <c r="A111" s="38">
         <v>75</v>
       </c>
-      <c r="B111" s="254"/>
+      <c r="B111" s="272"/>
       <c r="C111" s="36" t="s">
         <v>256</v>
       </c>
@@ -9388,7 +9388,7 @@
       <c r="A112" s="38">
         <v>76</v>
       </c>
-      <c r="B112" s="254"/>
+      <c r="B112" s="272"/>
       <c r="C112" s="36" t="s">
         <v>257</v>
       </c>
@@ -9403,7 +9403,7 @@
       <c r="A113" s="38">
         <v>77</v>
       </c>
-      <c r="B113" s="247"/>
+      <c r="B113" s="273"/>
       <c r="C113" s="36" t="s">
         <v>258</v>
       </c>
@@ -9415,12 +9415,12 @@
       <c r="G113" s="12"/>
     </row>
     <row r="114" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A114" s="227" t="s">
+      <c r="A114" s="261" t="s">
         <v>227</v>
       </c>
-      <c r="B114" s="228"/>
-      <c r="C114" s="228"/>
-      <c r="D114" s="229"/>
+      <c r="B114" s="262"/>
+      <c r="C114" s="262"/>
+      <c r="D114" s="263"/>
       <c r="E114" s="69"/>
       <c r="F114" s="70"/>
       <c r="G114" s="12"/>
@@ -9464,12 +9464,12 @@
       <c r="G116" s="12"/>
     </row>
     <row r="117" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="255" t="s">
+      <c r="A117" s="258" t="s">
         <v>263</v>
       </c>
-      <c r="B117" s="255"/>
-      <c r="C117" s="255"/>
-      <c r="D117" s="255"/>
+      <c r="B117" s="258"/>
+      <c r="C117" s="258"/>
+      <c r="D117" s="258"/>
       <c r="E117" s="84"/>
       <c r="F117" s="70"/>
       <c r="G117" s="12"/>
@@ -9478,7 +9478,7 @@
       <c r="A118" s="38">
         <v>80</v>
       </c>
-      <c r="B118" s="261" t="s">
+      <c r="B118" s="279" t="s">
         <v>205</v>
       </c>
       <c r="C118" s="37" t="s">
@@ -9497,7 +9497,7 @@
       <c r="A119" s="38">
         <v>81</v>
       </c>
-      <c r="B119" s="262"/>
+      <c r="B119" s="280"/>
       <c r="C119" s="37" t="s">
         <v>35</v>
       </c>
@@ -9514,7 +9514,7 @@
       <c r="A120" s="38">
         <v>82</v>
       </c>
-      <c r="B120" s="262"/>
+      <c r="B120" s="280"/>
       <c r="C120" s="37" t="s">
         <v>326</v>
       </c>
@@ -9528,10 +9528,10 @@
       <c r="G120" s="12"/>
     </row>
     <row r="121" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A121" s="256">
+      <c r="A121" s="274">
         <v>83</v>
       </c>
-      <c r="B121" s="262"/>
+      <c r="B121" s="280"/>
       <c r="C121" s="36" t="s">
         <v>409</v>
       </c>
@@ -9543,8 +9543,8 @@
       <c r="G121" s="12"/>
     </row>
     <row r="122" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A122" s="257"/>
-      <c r="B122" s="262"/>
+      <c r="A122" s="275"/>
+      <c r="B122" s="280"/>
       <c r="C122" s="36" t="s">
         <v>410</v>
       </c>
@@ -9556,8 +9556,8 @@
       <c r="G122" s="12"/>
     </row>
     <row r="123" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A123" s="258"/>
-      <c r="B123" s="262"/>
+      <c r="A123" s="276"/>
+      <c r="B123" s="280"/>
       <c r="C123" s="36" t="s">
         <v>411</v>
       </c>
@@ -9572,7 +9572,7 @@
       <c r="A124" s="38">
         <v>84</v>
       </c>
-      <c r="B124" s="262"/>
+      <c r="B124" s="280"/>
       <c r="C124" s="37" t="s">
         <v>412</v>
       </c>
@@ -9589,7 +9589,7 @@
       <c r="A125" s="38">
         <v>85</v>
       </c>
-      <c r="B125" s="262"/>
+      <c r="B125" s="280"/>
       <c r="C125" s="37" t="s">
         <v>139</v>
       </c>
@@ -9606,7 +9606,7 @@
       <c r="A126" s="38">
         <v>86</v>
       </c>
-      <c r="B126" s="263"/>
+      <c r="B126" s="281"/>
       <c r="C126" s="37" t="s">
         <v>140</v>
       </c>
@@ -9623,7 +9623,7 @@
       <c r="A127" s="38">
         <v>87</v>
       </c>
-      <c r="B127" s="230" t="s">
+      <c r="B127" s="248" t="s">
         <v>283</v>
       </c>
       <c r="C127" s="36" t="s">
@@ -9642,7 +9642,7 @@
       <c r="A128" s="38">
         <v>88</v>
       </c>
-      <c r="B128" s="251"/>
+      <c r="B128" s="249"/>
       <c r="C128" s="36" t="s">
         <v>144</v>
       </c>
@@ -9659,7 +9659,7 @@
       <c r="A129" s="38">
         <v>89</v>
       </c>
-      <c r="B129" s="251"/>
+      <c r="B129" s="249"/>
       <c r="C129" s="36" t="s">
         <v>394</v>
       </c>
@@ -9676,7 +9676,7 @@
       <c r="A130" s="38">
         <v>90</v>
       </c>
-      <c r="B130" s="251"/>
+      <c r="B130" s="249"/>
       <c r="C130" s="36" t="s">
         <v>396</v>
       </c>
@@ -9693,7 +9693,7 @@
       <c r="A131" s="38">
         <v>91</v>
       </c>
-      <c r="B131" s="251"/>
+      <c r="B131" s="249"/>
       <c r="C131" s="36" t="s">
         <v>371</v>
       </c>
@@ -9710,7 +9710,7 @@
       <c r="A132" s="38">
         <v>92</v>
       </c>
-      <c r="B132" s="231"/>
+      <c r="B132" s="250"/>
       <c r="C132" s="36" t="s">
         <v>146</v>
       </c>
@@ -9725,7 +9725,7 @@
       <c r="A133" s="38">
         <v>93</v>
       </c>
-      <c r="B133" s="251" t="s">
+      <c r="B133" s="249" t="s">
         <v>284</v>
       </c>
       <c r="C133" s="36" t="s">
@@ -9742,7 +9742,7 @@
       <c r="A134" s="38">
         <v>94</v>
       </c>
-      <c r="B134" s="251"/>
+      <c r="B134" s="249"/>
       <c r="C134" s="36" t="s">
         <v>332</v>
       </c>
@@ -9759,7 +9759,7 @@
       <c r="A135" s="38">
         <v>95</v>
       </c>
-      <c r="B135" s="251"/>
+      <c r="B135" s="249"/>
       <c r="C135" s="36" t="s">
         <v>152</v>
       </c>
@@ -9776,7 +9776,7 @@
       <c r="A136" s="38">
         <v>96</v>
       </c>
-      <c r="B136" s="251"/>
+      <c r="B136" s="249"/>
       <c r="C136" s="36" t="s">
         <v>154</v>
       </c>
@@ -9793,7 +9793,7 @@
       <c r="A137" s="38">
         <v>97</v>
       </c>
-      <c r="B137" s="251"/>
+      <c r="B137" s="249"/>
       <c r="C137" s="36" t="s">
         <v>156</v>
       </c>
@@ -9810,7 +9810,7 @@
       <c r="A138" s="38">
         <v>98</v>
       </c>
-      <c r="B138" s="251"/>
+      <c r="B138" s="249"/>
       <c r="C138" s="36" t="s">
         <v>158</v>
       </c>
@@ -9827,7 +9827,7 @@
       <c r="A139" s="38">
         <v>99</v>
       </c>
-      <c r="B139" s="251"/>
+      <c r="B139" s="249"/>
       <c r="C139" s="36" t="s">
         <v>159</v>
       </c>
@@ -9842,7 +9842,7 @@
       <c r="A140" s="38">
         <v>100</v>
       </c>
-      <c r="B140" s="271" t="s">
+      <c r="B140" s="227" t="s">
         <v>305</v>
       </c>
       <c r="C140" s="36" t="s">
@@ -9855,16 +9855,16 @@
         <v>3420000</v>
       </c>
       <c r="F140" s="41"/>
-      <c r="G140" s="252" t="s">
+      <c r="G140" s="269" t="s">
         <v>336</v>
       </c>
-      <c r="H140" s="253"/>
+      <c r="H140" s="270"/>
     </row>
     <row r="141" spans="1:8" ht="33" x14ac:dyDescent="0.25">
       <c r="A141" s="38">
         <v>101</v>
       </c>
-      <c r="B141" s="271"/>
+      <c r="B141" s="227"/>
       <c r="C141" s="36" t="s">
         <v>344</v>
       </c>
@@ -9881,7 +9881,7 @@
       <c r="A142" s="38">
         <v>102</v>
       </c>
-      <c r="B142" s="271"/>
+      <c r="B142" s="227"/>
       <c r="C142" s="36" t="s">
         <v>345</v>
       </c>
@@ -9892,16 +9892,16 @@
         <v>3420000</v>
       </c>
       <c r="F142" s="41"/>
-      <c r="G142" s="252" t="s">
+      <c r="G142" s="269" t="s">
         <v>336</v>
       </c>
-      <c r="H142" s="253"/>
+      <c r="H142" s="270"/>
     </row>
     <row r="143" spans="1:8" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A143" s="38">
         <v>103</v>
       </c>
-      <c r="B143" s="271"/>
+      <c r="B143" s="227"/>
       <c r="C143" s="36" t="s">
         <v>346</v>
       </c>
@@ -9918,7 +9918,7 @@
       <c r="A144" s="38">
         <v>104</v>
       </c>
-      <c r="B144" s="271"/>
+      <c r="B144" s="227"/>
       <c r="C144" s="36" t="s">
         <v>347</v>
       </c>
@@ -9935,7 +9935,7 @@
       <c r="A145" s="38">
         <v>105</v>
       </c>
-      <c r="B145" s="271"/>
+      <c r="B145" s="227"/>
       <c r="C145" s="118" t="s">
         <v>374</v>
       </c>
@@ -9952,7 +9952,7 @@
       <c r="A146" s="38">
         <v>106</v>
       </c>
-      <c r="B146" s="271"/>
+      <c r="B146" s="227"/>
       <c r="C146" s="36" t="s">
         <v>348</v>
       </c>
@@ -9969,7 +9969,7 @@
       <c r="A147" s="38">
         <v>107</v>
       </c>
-      <c r="B147" s="271"/>
+      <c r="B147" s="227"/>
       <c r="C147" s="36" t="s">
         <v>349</v>
       </c>
@@ -9986,7 +9986,7 @@
       <c r="A148" s="38">
         <v>108</v>
       </c>
-      <c r="B148" s="271"/>
+      <c r="B148" s="227"/>
       <c r="C148" s="36" t="s">
         <v>350</v>
       </c>
@@ -10003,7 +10003,7 @@
       <c r="A149" s="38">
         <v>109</v>
       </c>
-      <c r="B149" s="271"/>
+      <c r="B149" s="227"/>
       <c r="C149" s="118" t="s">
         <v>373</v>
       </c>
@@ -10020,7 +10020,7 @@
       <c r="A150" s="38">
         <v>110</v>
       </c>
-      <c r="B150" s="271"/>
+      <c r="B150" s="227"/>
       <c r="C150" s="36" t="s">
         <v>351</v>
       </c>
@@ -10039,7 +10039,7 @@
       <c r="A151" s="38">
         <v>111</v>
       </c>
-      <c r="B151" s="271"/>
+      <c r="B151" s="227"/>
       <c r="C151" s="36" t="s">
         <v>352</v>
       </c>
@@ -10056,7 +10056,7 @@
       <c r="A152" s="38">
         <v>112</v>
       </c>
-      <c r="B152" s="271"/>
+      <c r="B152" s="227"/>
       <c r="C152" s="36" t="s">
         <v>353</v>
       </c>
@@ -10073,7 +10073,7 @@
       <c r="A153" s="38">
         <v>113</v>
       </c>
-      <c r="B153" s="271"/>
+      <c r="B153" s="227"/>
       <c r="C153" s="36" t="s">
         <v>354</v>
       </c>
@@ -10090,7 +10090,7 @@
       <c r="A154" s="38">
         <v>114</v>
       </c>
-      <c r="B154" s="271"/>
+      <c r="B154" s="227"/>
       <c r="C154" s="36" t="s">
         <v>355</v>
       </c>
@@ -10107,7 +10107,7 @@
       <c r="A155" s="38">
         <v>115</v>
       </c>
-      <c r="B155" s="271"/>
+      <c r="B155" s="227"/>
       <c r="C155" s="36" t="s">
         <v>356</v>
       </c>
@@ -10124,7 +10124,7 @@
       <c r="A156" s="38">
         <v>116</v>
       </c>
-      <c r="B156" s="271"/>
+      <c r="B156" s="227"/>
       <c r="C156" s="36" t="s">
         <v>357</v>
       </c>
@@ -10141,7 +10141,7 @@
       <c r="A157" s="38">
         <v>117</v>
       </c>
-      <c r="B157" s="271"/>
+      <c r="B157" s="227"/>
       <c r="C157" s="36" t="s">
         <v>358</v>
       </c>
@@ -10158,7 +10158,7 @@
       <c r="A158" s="38">
         <v>118</v>
       </c>
-      <c r="B158" s="271"/>
+      <c r="B158" s="227"/>
       <c r="C158" s="36" t="s">
         <v>359</v>
       </c>
@@ -10175,7 +10175,7 @@
       <c r="A159" s="38">
         <v>119</v>
       </c>
-      <c r="B159" s="271"/>
+      <c r="B159" s="227"/>
       <c r="C159" s="36" t="s">
         <v>360</v>
       </c>
@@ -10192,7 +10192,7 @@
       <c r="A160" s="38">
         <v>120</v>
       </c>
-      <c r="B160" s="271"/>
+      <c r="B160" s="227"/>
       <c r="C160" s="36" t="s">
         <v>361</v>
       </c>
@@ -10209,7 +10209,7 @@
       <c r="A161" s="38">
         <v>121</v>
       </c>
-      <c r="B161" s="271"/>
+      <c r="B161" s="227"/>
       <c r="C161" s="36" t="s">
         <v>362</v>
       </c>
@@ -10226,7 +10226,7 @@
       <c r="A162" s="38">
         <v>122</v>
       </c>
-      <c r="B162" s="271"/>
+      <c r="B162" s="227"/>
       <c r="C162" s="36" t="s">
         <v>363</v>
       </c>
@@ -10243,7 +10243,7 @@
       <c r="A163" s="38">
         <v>123</v>
       </c>
-      <c r="B163" s="271"/>
+      <c r="B163" s="227"/>
       <c r="C163" s="36" t="s">
         <v>364</v>
       </c>
@@ -10260,7 +10260,7 @@
       <c r="A164" s="38">
         <v>124</v>
       </c>
-      <c r="B164" s="271"/>
+      <c r="B164" s="227"/>
       <c r="C164" s="36" t="s">
         <v>365</v>
       </c>
@@ -10275,7 +10275,7 @@
       <c r="A165" s="38">
         <v>125</v>
       </c>
-      <c r="B165" s="271"/>
+      <c r="B165" s="227"/>
       <c r="C165" s="36" t="s">
         <v>366</v>
       </c>
@@ -10290,7 +10290,7 @@
       <c r="A166" s="38">
         <v>126</v>
       </c>
-      <c r="B166" s="271"/>
+      <c r="B166" s="227"/>
       <c r="C166" s="36" t="s">
         <v>367</v>
       </c>
@@ -10307,7 +10307,7 @@
       <c r="A167" s="38">
         <v>127</v>
       </c>
-      <c r="B167" s="271"/>
+      <c r="B167" s="227"/>
       <c r="C167" s="36" t="s">
         <v>368</v>
       </c>
@@ -10324,7 +10324,7 @@
       <c r="A168" s="38">
         <v>128</v>
       </c>
-      <c r="B168" s="271"/>
+      <c r="B168" s="227"/>
       <c r="C168" s="36" t="s">
         <v>369</v>
       </c>
@@ -10341,7 +10341,7 @@
       <c r="A169" s="38">
         <v>129</v>
       </c>
-      <c r="B169" s="271"/>
+      <c r="B169" s="227"/>
       <c r="C169" s="36" t="s">
         <v>370</v>
       </c>
@@ -10355,12 +10355,12 @@
       <c r="G169" s="12"/>
     </row>
     <row r="170" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A170" s="255" t="s">
+      <c r="A170" s="258" t="s">
         <v>207</v>
       </c>
-      <c r="B170" s="255"/>
-      <c r="C170" s="255"/>
-      <c r="D170" s="255"/>
+      <c r="B170" s="258"/>
+      <c r="C170" s="258"/>
+      <c r="D170" s="258"/>
       <c r="E170" s="84"/>
       <c r="F170" s="70"/>
       <c r="G170" s="12"/>
@@ -10421,7 +10421,7 @@
       <c r="A174" s="38">
         <v>133</v>
       </c>
-      <c r="B174" s="230" t="s">
+      <c r="B174" s="248" t="s">
         <v>204</v>
       </c>
       <c r="C174" s="36" t="s">
@@ -10439,7 +10439,7 @@
       <c r="A175" s="38">
         <v>134</v>
       </c>
-      <c r="B175" s="231"/>
+      <c r="B175" s="250"/>
       <c r="C175" s="36" t="s">
         <v>225</v>
       </c>
@@ -10452,12 +10452,12 @@
       <c r="F175" s="41"/>
     </row>
     <row r="176" spans="1:8" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A176" s="227" t="s">
+      <c r="A176" s="261" t="s">
         <v>164</v>
       </c>
-      <c r="B176" s="228"/>
-      <c r="C176" s="228"/>
-      <c r="D176" s="229"/>
+      <c r="B176" s="262"/>
+      <c r="C176" s="262"/>
+      <c r="D176" s="263"/>
       <c r="E176" s="65"/>
       <c r="F176" s="65"/>
     </row>
@@ -10475,7 +10475,7 @@
       <c r="E177" s="90">
         <v>71000</v>
       </c>
-      <c r="F177" s="259" t="s">
+      <c r="F177" s="277" t="s">
         <v>385</v>
       </c>
     </row>
@@ -10493,15 +10493,15 @@
       <c r="E178" s="90">
         <v>86000</v>
       </c>
-      <c r="F178" s="260"/>
+      <c r="F178" s="278"/>
     </row>
     <row r="179" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A179" s="255" t="s">
+      <c r="A179" s="258" t="s">
         <v>169</v>
       </c>
-      <c r="B179" s="255"/>
-      <c r="C179" s="255"/>
-      <c r="D179" s="255"/>
+      <c r="B179" s="258"/>
+      <c r="C179" s="258"/>
+      <c r="D179" s="258"/>
       <c r="E179" s="84"/>
       <c r="F179" s="70"/>
       <c r="G179" s="12"/>
@@ -10520,7 +10520,7 @@
       <c r="E180" s="116">
         <v>1968000</v>
       </c>
-      <c r="F180" s="265" t="s">
+      <c r="F180" s="259" t="s">
         <v>327</v>
       </c>
       <c r="G180" s="12"/>
@@ -10539,7 +10539,7 @@
       <c r="E181" s="116">
         <v>2952000</v>
       </c>
-      <c r="F181" s="265"/>
+      <c r="F181" s="259"/>
       <c r="G181" s="12"/>
     </row>
     <row r="182" spans="1:7" ht="66" x14ac:dyDescent="0.25">
@@ -10556,7 +10556,7 @@
       <c r="E182" s="116">
         <v>4100000</v>
       </c>
-      <c r="F182" s="265"/>
+      <c r="F182" s="259"/>
       <c r="G182" s="12"/>
     </row>
     <row r="183" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
@@ -10647,12 +10647,12 @@
       <c r="G187" s="12"/>
     </row>
     <row r="188" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A188" s="255" t="s">
+      <c r="A188" s="258" t="s">
         <v>264</v>
       </c>
-      <c r="B188" s="255"/>
-      <c r="C188" s="255"/>
-      <c r="D188" s="255"/>
+      <c r="B188" s="258"/>
+      <c r="C188" s="258"/>
+      <c r="D188" s="258"/>
       <c r="E188" s="84"/>
       <c r="F188" s="70"/>
       <c r="G188" s="12"/>
@@ -10675,12 +10675,12 @@
       <c r="G189" s="12"/>
     </row>
     <row r="190" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A190" s="255" t="s">
+      <c r="A190" s="258" t="s">
         <v>234</v>
       </c>
-      <c r="B190" s="255"/>
-      <c r="C190" s="255"/>
-      <c r="D190" s="255"/>
+      <c r="B190" s="258"/>
+      <c r="C190" s="258"/>
+      <c r="D190" s="258"/>
       <c r="E190" s="84"/>
       <c r="F190" s="70"/>
       <c r="G190" s="12"/>
@@ -10856,12 +10856,12 @@
       <c r="G200" s="12"/>
     </row>
     <row r="201" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A201" s="227" t="s">
+      <c r="A201" s="261" t="s">
         <v>323</v>
       </c>
-      <c r="B201" s="228"/>
-      <c r="C201" s="228"/>
-      <c r="D201" s="229"/>
+      <c r="B201" s="262"/>
+      <c r="C201" s="262"/>
+      <c r="D201" s="263"/>
       <c r="E201" s="69"/>
       <c r="F201" s="70"/>
       <c r="G201" s="12"/>
@@ -10950,12 +10950,12 @@
       <c r="G206" s="12"/>
     </row>
     <row r="207" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A207" s="227" t="s">
+      <c r="A207" s="261" t="s">
         <v>222</v>
       </c>
-      <c r="B207" s="228"/>
-      <c r="C207" s="228"/>
-      <c r="D207" s="229"/>
+      <c r="B207" s="262"/>
+      <c r="C207" s="262"/>
+      <c r="D207" s="263"/>
       <c r="E207" s="69"/>
       <c r="F207" s="70"/>
       <c r="G207" s="12"/>
@@ -11012,12 +11012,12 @@
       <c r="G210" s="12"/>
     </row>
     <row r="211" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A211" s="227" t="s">
+      <c r="A211" s="261" t="s">
         <v>211</v>
       </c>
-      <c r="B211" s="228"/>
-      <c r="C211" s="228"/>
-      <c r="D211" s="229"/>
+      <c r="B211" s="262"/>
+      <c r="C211" s="262"/>
+      <c r="D211" s="263"/>
       <c r="E211" s="98"/>
       <c r="F211" s="70"/>
       <c r="G211" s="12"/>
@@ -11031,7 +11031,7 @@
         <v>212</v>
       </c>
       <c r="D212" s="36"/>
-      <c r="E212" s="267">
+      <c r="E212" s="251">
         <v>183000</v>
       </c>
       <c r="F212" s="41"/>
@@ -11046,7 +11046,7 @@
         <v>213</v>
       </c>
       <c r="D213" s="36"/>
-      <c r="E213" s="268"/>
+      <c r="E213" s="252"/>
       <c r="F213" s="41"/>
       <c r="G213" s="12"/>
     </row>
@@ -11059,7 +11059,7 @@
         <v>214</v>
       </c>
       <c r="D214" s="36"/>
-      <c r="E214" s="268"/>
+      <c r="E214" s="252"/>
       <c r="F214" s="41"/>
       <c r="G214" s="12"/>
     </row>
@@ -11072,17 +11072,17 @@
         <v>215</v>
       </c>
       <c r="D215" s="36"/>
-      <c r="E215" s="269"/>
+      <c r="E215" s="253"/>
       <c r="F215" s="41"/>
       <c r="G215" s="12"/>
     </row>
     <row r="216" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A216" s="227" t="s">
+      <c r="A216" s="261" t="s">
         <v>415</v>
       </c>
-      <c r="B216" s="228"/>
-      <c r="C216" s="228"/>
-      <c r="D216" s="229"/>
+      <c r="B216" s="262"/>
+      <c r="C216" s="262"/>
+      <c r="D216" s="263"/>
       <c r="E216" s="98"/>
       <c r="F216" s="70"/>
       <c r="G216" s="12"/>
@@ -11156,64 +11156,64 @@
       <c r="F221" s="102"/>
     </row>
     <row r="222" spans="1:7" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A222" s="266" t="s">
+      <c r="A222" s="260" t="s">
         <v>28</v>
       </c>
-      <c r="B222" s="266"/>
-      <c r="C222" s="266"/>
-      <c r="D222" s="266"/>
+      <c r="B222" s="260"/>
+      <c r="C222" s="260"/>
+      <c r="D222" s="260"/>
       <c r="E222" s="26"/>
       <c r="F222" s="103"/>
     </row>
     <row r="223" spans="1:7" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A223" s="104"/>
-      <c r="B223" s="264" t="s">
+      <c r="B223" s="257" t="s">
         <v>267</v>
       </c>
-      <c r="C223" s="264"/>
-      <c r="D223" s="264"/>
-      <c r="E223" s="264"/>
-      <c r="F223" s="264"/>
+      <c r="C223" s="257"/>
+      <c r="D223" s="257"/>
+      <c r="E223" s="257"/>
+      <c r="F223" s="257"/>
     </row>
     <row r="224" spans="1:7" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A224" s="104"/>
-      <c r="B224" s="264" t="s">
+      <c r="B224" s="257" t="s">
         <v>420</v>
       </c>
-      <c r="C224" s="264"/>
-      <c r="D224" s="264"/>
-      <c r="E224" s="264"/>
-      <c r="F224" s="264"/>
+      <c r="C224" s="257"/>
+      <c r="D224" s="257"/>
+      <c r="E224" s="257"/>
+      <c r="F224" s="257"/>
     </row>
     <row r="225" spans="1:6" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A225" s="105"/>
-      <c r="B225" s="264" t="s">
+      <c r="B225" s="257" t="s">
         <v>29</v>
       </c>
-      <c r="C225" s="264"/>
-      <c r="D225" s="264"/>
-      <c r="E225" s="264"/>
-      <c r="F225" s="264"/>
+      <c r="C225" s="257"/>
+      <c r="D225" s="257"/>
+      <c r="E225" s="257"/>
+      <c r="F225" s="257"/>
     </row>
     <row r="226" spans="1:6" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A226" s="106"/>
-      <c r="B226" s="270" t="s">
+      <c r="B226" s="264" t="s">
         <v>30</v>
       </c>
-      <c r="C226" s="270"/>
-      <c r="D226" s="270"/>
-      <c r="E226" s="270"/>
-      <c r="F226" s="270"/>
+      <c r="C226" s="264"/>
+      <c r="D226" s="264"/>
+      <c r="E226" s="264"/>
+      <c r="F226" s="264"/>
     </row>
     <row r="227" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A227" s="103"/>
-      <c r="B227" s="264" t="s">
+      <c r="B227" s="257" t="s">
         <v>31</v>
       </c>
-      <c r="C227" s="264"/>
-      <c r="D227" s="264"/>
-      <c r="E227" s="264"/>
-      <c r="F227" s="264"/>
+      <c r="C227" s="257"/>
+      <c r="D227" s="257"/>
+      <c r="E227" s="257"/>
+      <c r="F227" s="257"/>
     </row>
     <row r="228" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A228" s="103"/>
@@ -11277,6 +11277,59 @@
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="A176:D176"/>
+    <mergeCell ref="B174:B175"/>
+    <mergeCell ref="F73:F75"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="B60:B72"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="B81:B88"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="B133:B139"/>
+    <mergeCell ref="G140:H140"/>
+    <mergeCell ref="A216:D216"/>
+    <mergeCell ref="G142:H142"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="B127:B132"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="A117:D117"/>
+    <mergeCell ref="A121:A123"/>
+    <mergeCell ref="F177:F178"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="B100:B113"/>
+    <mergeCell ref="A170:D170"/>
+    <mergeCell ref="B118:B126"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="F46:F48"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="F40:F44"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B227:F227"/>
+    <mergeCell ref="A179:D179"/>
+    <mergeCell ref="F180:F182"/>
+    <mergeCell ref="A190:D190"/>
+    <mergeCell ref="A222:D222"/>
+    <mergeCell ref="B223:F223"/>
+    <mergeCell ref="A211:D211"/>
+    <mergeCell ref="E212:E215"/>
+    <mergeCell ref="A207:D207"/>
+    <mergeCell ref="A188:D188"/>
+    <mergeCell ref="B224:F224"/>
+    <mergeCell ref="B225:F225"/>
+    <mergeCell ref="B226:F226"/>
+    <mergeCell ref="A201:D201"/>
     <mergeCell ref="B140:B169"/>
     <mergeCell ref="D1:F5"/>
     <mergeCell ref="A7:F7"/>
@@ -11293,59 +11346,6 @@
     <mergeCell ref="A14:A19"/>
     <mergeCell ref="E14:E19"/>
     <mergeCell ref="F14:F19"/>
-    <mergeCell ref="B227:F227"/>
-    <mergeCell ref="A179:D179"/>
-    <mergeCell ref="F180:F182"/>
-    <mergeCell ref="A190:D190"/>
-    <mergeCell ref="A222:D222"/>
-    <mergeCell ref="B223:F223"/>
-    <mergeCell ref="A211:D211"/>
-    <mergeCell ref="E212:E215"/>
-    <mergeCell ref="A207:D207"/>
-    <mergeCell ref="A188:D188"/>
-    <mergeCell ref="B224:F224"/>
-    <mergeCell ref="B225:F225"/>
-    <mergeCell ref="B226:F226"/>
-    <mergeCell ref="A201:D201"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="F46:F48"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="F40:F44"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="G140:H140"/>
-    <mergeCell ref="A216:D216"/>
-    <mergeCell ref="G142:H142"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="B127:B132"/>
-    <mergeCell ref="B91:B93"/>
-    <mergeCell ref="A117:D117"/>
-    <mergeCell ref="A121:A123"/>
-    <mergeCell ref="F177:F178"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="B100:B113"/>
-    <mergeCell ref="A170:D170"/>
-    <mergeCell ref="B118:B126"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A176:D176"/>
-    <mergeCell ref="B174:B175"/>
-    <mergeCell ref="F73:F75"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="B60:B72"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="B76:B79"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="B81:B88"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="B133:B139"/>
   </mergeCells>
   <pageMargins left="0.35433070866141736" right="0.15748031496062992" top="0.23622047244094491" bottom="0.19685039370078741" header="0.15748031496062992" footer="0.15748031496062992"/>
   <pageSetup paperSize="9" scale="65" orientation="portrait" r:id="rId1"/>
@@ -11371,10 +11371,10 @@
   <dimension ref="A1:DW84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="10" ySplit="3" topLeftCell="DO38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="3" topLeftCell="CU67" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="DP47" sqref="DP47"/>
+      <selection pane="bottomRight" activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
